--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>3566968362</v>
+        <v>4371398648</v>
       </c>
       <c r="C7" s="41" t="n"/>
       <c r="D7" s="41" t="n"/>
@@ -917,7 +917,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>9.1.1</t>
+          <t>Produção</t>
         </is>
       </c>
       <c r="C8" s="41" t="n"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Amanda Prado nov 23, 2022 09:36</t>
+          <t>Estefane Santos abr 26, 2023 10:44 AM</t>
         </is>
       </c>
       <c r="C9" s="41" t="n"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Auditoria Interna</t>
+          <t>Produção</t>
         </is>
       </c>
       <c r="C10" s="41" t="n"/>
@@ -965,7 +965,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>Gestão da Qualidade, Gestão de Pessoas, Almoxarifado, Compras, Controle da Qualidade, Engenharia de Produtos, Manutenção, Marketing, PCP, Adm de Vendas, SESMT, Produção, Vendas Externas</t>
+          <t>Fornecedor</t>
         </is>
       </c>
       <c r="C11" s="41" t="n"/>
@@ -981,7 +981,7 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>2022.2, 2023.2</t>
+          <t>Laterais, Solda, Montagem</t>
         </is>
       </c>
       <c r="C12" s="41" t="n"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Amanda Prado</t>
+          <t>lauriene@cemag.com.br, Estefane Santos, Severiano Neto, evandro@cemag.com.br</t>
         </is>
       </c>
       <c r="C13" s="41" t="n"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B15" s="43" t="inlineStr">
         <is>
-          <t>Critico ⚠️️</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="C15" s="41" t="n"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B16" s="43" t="inlineStr">
         <is>
-          <t>Em andamento</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="C16" s="41" t="n"/>
@@ -1068,11 +1068,7 @@
     <row r="18" ht="142.5" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>Indicadores sem monitoramento adequado, indicador sem cálculo, indicador sem meta, não há riscos apontados na SWOT.
-MI: Não está sendo apresentado histórico do indicador IND MI-01.
-VE: Não é apresentado histórico do indicador "Taxa de Conversão".
-CO: Não está sendo realizada apresentação do indicador IND CO-01 (Avaliação de Desempenho de Fornecedores). Foi realizada apresentação da QUALIFICAÇÃO dos Fornecedores, porém sem histórico de resultados. (OM: melhorias na avaliação de desempenho, para que a mesma "alimente" a Qualificação anual)
-PCP: Indicador de Aderência de Previsão da Produção sem histórico.</t>
+          <t xml:space="preserve">Na montagem das laterais foi observado um erro no componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C - Saldo: 300,00 - Consumo Médio Mensal: 87,67. Onde foram inspecionando os 100,00 na produção mais os 300,00 no almoxarifado. Do total dos 400,00 foi encontrado 47,00 unidades com não conformidades que não podem ser aproveitadas. </t>
         </is>
       </c>
       <c r="B18" s="41" t="n"/>
@@ -1096,7 +1092,7 @@
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1YfVuMAU853AjbxaGZBYq8x1wyd7vJmuH/view?usp=drive_web</t>
+          <t>https://cemag.monday.com/protected_static/12861583/resources/947643825/ev%202.jpg, https://cemag.monday.com/protected_static/12861583/resources/947643833/ev%201.jpg</t>
         </is>
       </c>
       <c r="B20" s="41" t="n"/>
@@ -1152,22 +1148,18 @@
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Gestão de Pessoas</t>
+          <t>Controle de qualidade</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>Revisar Indicadores</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>08-04-2023</t>
-        </is>
-      </c>
+          <t>Segregar peças do componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr"/>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>Bianca Rodrigues, bruna@cemag.com.br</t>
+          <t>Estefane Santos, Severiano Neto</t>
         </is>
       </c>
       <c r="E23" s="9" t="inlineStr">
@@ -1182,314 +1174,134 @@
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Almoxarifado</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>Atualizar Planos de Ação</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>30-06-2023</t>
-        </is>
-      </c>
+          <t>Tranferir 47 peças do componente:240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C  para o estoque da qualidade</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr"/>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Laura Lavor</t>
+          <t>victor@cemag.com.br</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>Em andamento</t>
-        </is>
-      </c>
-      <c r="F24" s="9" t="inlineStr"/>
+          <t>Feito</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Manutenção</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="inlineStr"/>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>30-06-2023</t>
-        </is>
-      </c>
+          <t>Compras</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Entrar em contato com fornecedor do componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C , para informar sobre as 47 unidades de peças nao conformes encontradas.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr"/>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>luchese@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr"/>
-      <c r="F25" s="9" t="inlineStr"/>
+          <t>lauriene@cemag.com.br</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>Feito</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>SESMT</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="inlineStr">
-        <is>
-          <t>Apresentar histórico do indicador de acidentes de trabalho</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>08-03-2023</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>seguranca.trabalho@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="A26" s="6" t="inlineStr"/>
+      <c r="B26" s="7" t="inlineStr"/>
+      <c r="C26" s="8" t="inlineStr"/>
+      <c r="D26" s="9" t="inlineStr"/>
+      <c r="E26" s="9" t="inlineStr"/>
+      <c r="F26" s="9" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>Engenharia de Produtos</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>Revisar Matriz de Indicadores</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>08-03-2023</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>João Marcos</t>
-        </is>
-      </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F27" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="9" t="n"/>
+      <c r="E27" s="9" t="n"/>
+      <c r="F27" s="9" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>Controle de Qualidade</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>Unificar indicadores CQ01, 02, 03 e 04</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>15-02-2023</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Severiano Neto</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F28" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="9" t="n"/>
+      <c r="E28" s="9" t="n"/>
+      <c r="F28" s="9" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>Produção</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>Atualizar método de cálculo dos Indicadores</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <t>08-03-2023</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="inlineStr">
-        <is>
-          <t>abdias@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F29" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="9" t="n"/>
+      <c r="E29" s="9" t="n"/>
+      <c r="F29" s="9" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>Almoxarifado</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>Indicador de Acuracidade - transformar em um mais geral</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="inlineStr">
-        <is>
-          <t>victor@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F30" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>Compras</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="inlineStr">
-        <is>
-          <t>Apresentar histórico de todos os indicadores na reunião mensal</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>08-03-2023</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>lauriene@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F31" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
+      <c r="F31" s="9" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>Vendas</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>Implementação do indicador "Taxa de Conversão"</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
-        <is>
-          <t>31-07-2023</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>Katylene Coelho</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>Em andamento</t>
-        </is>
-      </c>
-      <c r="F32" s="9" t="inlineStr"/>
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="9" t="n"/>
+      <c r="E32" s="9" t="n"/>
+      <c r="F32" s="9" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>Compras</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t>Atualizar o preenchimento da avaliação de desempenho de fornecedores</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>30-06-2023</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>lauriene@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>Em andamento</t>
-        </is>
-      </c>
-      <c r="F33" s="9" t="inlineStr"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="7" t="n"/>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="9" t="n"/>
+      <c r="E33" s="9" t="n"/>
+      <c r="F33" s="9" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>PCP</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="inlineStr"/>
-      <c r="C34" s="8" t="inlineStr">
-        <is>
-          <t>30-06-2023</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>erica@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr"/>
-      <c r="F34" s="9" t="inlineStr"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="8" t="n"/>
+      <c r="D34" s="9" t="n"/>
+      <c r="E34" s="9" t="n"/>
+      <c r="F34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr"/>
-      <c r="B35" s="7" t="inlineStr"/>
-      <c r="C35" s="8" t="inlineStr"/>
-      <c r="D35" s="9" t="inlineStr"/>
-      <c r="E35" s="9" t="inlineStr"/>
-      <c r="F35" s="9" t="inlineStr"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="D35" s="9" t="n"/>
+      <c r="E35" s="9" t="n"/>
+      <c r="F35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
@@ -1544,7 +1356,11 @@
       <c r="F41" s="42" t="n"/>
     </row>
     <row r="42" ht="109.5" customHeight="1">
-      <c r="A42" s="7" t="n"/>
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>Compras entrou em contato com o fornecedor, controle da qualidade descreveu a não conformidade do componente atestando a nao usabilidade. Fornecedor enviou as 47 peças como cortesia.</t>
+        </is>
+      </c>
       <c r="B42" s="41" t="n"/>
       <c r="C42" s="41" t="n"/>
       <c r="D42" s="41" t="n"/>
@@ -1562,7 +1378,9 @@
           <t>Avaliação</t>
         </is>
       </c>
-      <c r="D44" s="7" t="inlineStr"/>
+      <c r="D44" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="E44" s="42" t="n"/>
     </row>
     <row r="45" ht="19.5" customHeight="1">
@@ -1573,7 +1391,7 @@
       </c>
       <c r="D45" s="7" t="inlineStr">
         <is>
-          <t>Amanda Prado jun 29, 2023 11:11</t>
+          <t>Estefane Santos jul 7, 2023 10:25 AM</t>
         </is>
       </c>
       <c r="E45" s="42" t="n"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -1068,7 +1068,7 @@
     <row r="18" ht="142.5" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Na montagem das laterais foi observado um erro no componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C - Saldo: 300,00 - Consumo Médio Mensal: 87,67. Onde foram inspecionando os 100,00 na produção mais os 300,00 no almoxarifado. Do total dos 400,00 foi encontrado 47,00 unidades com não conformidades que não podem ser aproveitadas. </t>
+          <t>https://cemag.monday.com/protected_static/12861583/resources/947643825/ev%202.jpg, https://cemag.monday.com/protected_static/12861583/resources/947643833/ev%201.jpg</t>
         </is>
       </c>
       <c r="B18" s="41" t="n"/>
@@ -1092,7 +1092,7 @@
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>https://cemag.monday.com/protected_static/12861583/resources/947643825/ev%202.jpg, https://cemag.monday.com/protected_static/12861583/resources/947643833/ev%201.jpg</t>
+          <t xml:space="preserve">Na montagem das laterais foi observado um erro no componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C - Saldo: 300,00 - Consumo Médio Mensal: 87,67. Onde foram inspecionando os 100,00 na produção mais os 300,00 no almoxarifado. Do total dos 400,00 foi encontrado 47,00 unidades com não conformidades que não podem ser aproveitadas. </t>
         </is>
       </c>
       <c r="B20" s="41" t="n"/>
@@ -1157,79 +1157,33 @@
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr"/>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>Estefane Santos, Severiano Neto</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Almoxarifado</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="inlineStr">
-        <is>
-          <t>Tranferir 47 peças do componente:240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C  para o estoque da qualidade</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr"/>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>victor@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="8" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Compras</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>Entrar em contato com fornecedor do componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C , para informar sobre as 47 unidades de peças nao conformes encontradas.</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr"/>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>lauriene@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="8" t="n"/>
+      <c r="D25" s="9" t="n"/>
+      <c r="E25" s="9" t="n"/>
+      <c r="F25" s="9" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr"/>
-      <c r="B26" s="7" t="inlineStr"/>
-      <c r="C26" s="8" t="inlineStr"/>
-      <c r="D26" s="9" t="inlineStr"/>
-      <c r="E26" s="9" t="inlineStr"/>
-      <c r="F26" s="9" t="inlineStr"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="8" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="n"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>4371398648</v>
+        <v>5171098296</v>
       </c>
       <c r="C7" s="41" t="n"/>
       <c r="D7" s="41" t="n"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Estefane Santos abr 26, 2023 10:44 AM</t>
+          <t>Estefane Santos set 15, 2023 04:30 PM</t>
         </is>
       </c>
       <c r="C9" s="41" t="n"/>
@@ -965,7 +965,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>Fornecedor</t>
+          <t>Montagem e Solda, Serralheria</t>
         </is>
       </c>
       <c r="C11" s="41" t="n"/>
@@ -981,7 +981,7 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Laterais, Solda, Montagem</t>
+          <t>Eixo</t>
         </is>
       </c>
       <c r="C12" s="41" t="n"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>lauriene@cemag.com.br, Estefane Santos, Severiano Neto, evandro@cemag.com.br</t>
+          <t>Estefane Santos, Severiano Neto, victor@cemag.com.br, abdias@cemag.com.br</t>
         </is>
       </c>
       <c r="C13" s="41" t="n"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B15" s="43" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Critico ⚠️️</t>
         </is>
       </c>
       <c r="C15" s="41" t="n"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B16" s="43" t="inlineStr">
         <is>
-          <t>Feito</t>
+          <t>Em andamento</t>
         </is>
       </c>
       <c r="C16" s="41" t="n"/>
@@ -1068,7 +1068,7 @@
     <row r="18" ht="142.5" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>https://cemag.monday.com/protected_static/12861583/resources/947643825/ev%202.jpg, https://cemag.monday.com/protected_static/12861583/resources/947643833/ev%201.jpg</t>
+          <t>https://cemag.monday.com/protected_static/12861583/resources/1041941236/WhatsApp%20Image%202023-09-15%20at%2011.11.13.jpeg, https://cemag.monday.com/protected_static/12861583/resources/1041941268/WhatsApp%20Image%202023-09-15%20at%2011.11.12.jpeg</t>
         </is>
       </c>
       <c r="B18" s="41" t="n"/>
@@ -1092,7 +1092,7 @@
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Na montagem das laterais foi observado um erro no componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C - Saldo: 300,00 - Consumo Médio Mensal: 87,67. Onde foram inspecionando os 100,00 na produção mais os 300,00 no almoxarifado. Do total dos 400,00 foi encontrado 47,00 unidades com não conformidades que não podem ser aproveitadas. </t>
+          <t>031244 eixo simples tandem - 6 unidades apresentando desenhalinhamento nos cubos de roda.</t>
         </is>
       </c>
       <c r="B20" s="41" t="n"/>
@@ -1148,12 +1148,12 @@
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Controle de qualidade</t>
+          <t>Controle da Qualidade</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>Segregar peças do componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C</t>
+          <t>Realizar teste de montagem</t>
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr"/>
@@ -1312,7 +1312,7 @@
     <row r="42" ht="109.5" customHeight="1">
       <c r="A42" s="7" t="inlineStr">
         <is>
-          <t>Compras entrou em contato com o fornecedor, controle da qualidade descreveu a não conformidade do componente atestando a nao usabilidade. Fornecedor enviou as 47 peças como cortesia.</t>
+          <t>Foi visto que o erro estava no padrão de sempre no mesmo lado do eixo, com isso foi constatado que o erro era no gabarito, foi feito o ajuste pela serralheiria junto ao Leonidas e ao Danião.</t>
         </is>
       </c>
       <c r="B42" s="41" t="n"/>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E44" s="42" t="n"/>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D45" s="7" t="inlineStr">
         <is>
-          <t>Estefane Santos jul 7, 2023 10:25 AM</t>
+          <t>Severiano Neto set 18, 2023 08:10 AM</t>
         </is>
       </c>
       <c r="E45" s="42" t="n"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -1068,7 +1068,7 @@
     <row r="18" ht="142.5" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>https://cemag.monday.com/protected_static/12861583/resources/1041941236/WhatsApp%20Image%202023-09-15%20at%2011.11.13.jpeg, https://cemag.monday.com/protected_static/12861583/resources/1041941268/WhatsApp%20Image%202023-09-15%20at%2011.11.12.jpeg</t>
+          <t>031244 eixo simples tandem - 6 unidades apresentando desenhalinhamento nos cubos de roda.</t>
         </is>
       </c>
       <c r="B18" s="41" t="n"/>
@@ -1092,7 +1092,7 @@
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>031244 eixo simples tandem - 6 unidades apresentando desenhalinhamento nos cubos de roda.</t>
+          <t>https://cemag.monday.com/protected_static/12861583/resources/1041941236/WhatsApp%20Image%202023-09-15%20at%2011.11.13.jpeg, https://cemag.monday.com/protected_static/12861583/resources/1041941268/WhatsApp%20Image%202023-09-15%20at%2011.11.12.jpeg</t>
         </is>
       </c>
       <c r="B20" s="41" t="n"/>
@@ -1157,33 +1157,69 @@
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr"/>
-      <c r="D23" s="9" t="n"/>
-      <c r="E23" s="9" t="n"/>
-      <c r="F23" s="9" t="n"/>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>Severiano Neto</t>
+        </is>
+      </c>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>Feito</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="9" t="n"/>
-      <c r="E24" s="9" t="n"/>
-      <c r="F24" s="9" t="n"/>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Serralheria / Controle</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>Ajustar Gabarito 031244</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr"/>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>victor@cemag.com.br</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>Feito</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="8" t="n"/>
-      <c r="D25" s="9" t="n"/>
-      <c r="E25" s="9" t="n"/>
-      <c r="F25" s="9" t="n"/>
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Controle da Qualidade</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr"/>
+      <c r="C25" s="8" t="inlineStr"/>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>Severiano Neto</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr"/>
+      <c r="F25" s="9" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="8" t="n"/>
-      <c r="D26" s="9" t="n"/>
-      <c r="E26" s="9" t="n"/>
-      <c r="F26" s="9" t="n"/>
+      <c r="A26" s="6" t="inlineStr"/>
+      <c r="B26" s="7" t="inlineStr"/>
+      <c r="C26" s="8" t="inlineStr"/>
+      <c r="D26" s="9" t="inlineStr"/>
+      <c r="E26" s="9" t="inlineStr"/>
+      <c r="F26" s="9" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="n"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -15,11 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -90,13 +89,6 @@
       <color theme="1"/>
       <sz val="12"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="18"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -126,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -462,21 +454,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -505,19 +482,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -563,7 +527,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -573,76 +537,8 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -653,14 +549,145 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -670,9 +697,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
@@ -684,21 +709,6 @@
       <right style="thin">
         <color rgb="FFC6C6C6"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
@@ -707,25 +717,29 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,27 +755,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -774,7 +790,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -783,6 +801,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -804,30 +833,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -841,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -861,36 +866,8 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -898,176 +875,197 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -1075,53 +1073,62 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1129,8 +1136,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1149,34 +1192,46 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1585,131 +1640,131 @@
   <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.28515625" bestFit="1" customWidth="1" style="67" min="1" max="1"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" style="67" min="2" max="2"/>
-    <col width="17.5703125" bestFit="1" customWidth="1" style="67" min="3" max="4"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" style="67" min="5" max="5"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="67" min="6" max="6"/>
-    <col width="17.140625" bestFit="1" customWidth="1" style="67" min="7" max="7"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="67" min="8" max="8"/>
-    <col width="32.140625" customWidth="1" style="68" min="9" max="9"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="67" min="10" max="27"/>
+    <col width="20.28515625" bestFit="1" customWidth="1" style="57" min="1" max="1"/>
+    <col width="19.5703125" bestFit="1" customWidth="1" style="57" min="2" max="2"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" style="57" min="3" max="4"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="57" min="5" max="5"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="57" min="6" max="6"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="57" min="7" max="7"/>
+    <col width="18.28515625" customWidth="1" style="57" min="8" max="8"/>
+    <col width="28.28515625" customWidth="1" style="58" min="9" max="9"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="10" max="27"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" s="67">
-      <c r="A1" s="99" t="n"/>
-      <c r="B1" s="100" t="inlineStr">
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="109" t="n"/>
+      <c r="B1" s="110" t="inlineStr">
         <is>
           <t>Relatório de Não Conformidade</t>
         </is>
       </c>
-      <c r="C1" s="101" t="n"/>
-      <c r="D1" s="101" t="n"/>
-      <c r="E1" s="101" t="n"/>
-      <c r="F1" s="102" t="n"/>
-      <c r="G1" s="103" t="inlineStr">
+      <c r="C1" s="111" t="n"/>
+      <c r="D1" s="111" t="n"/>
+      <c r="E1" s="111" t="n"/>
+      <c r="F1" s="112" t="n"/>
+      <c r="G1" s="113" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="H1" s="104" t="n"/>
+      <c r="H1" s="114" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
           <t>RNC GQ-001-000</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="23.25" customHeight="1" s="67">
-      <c r="A2" s="105" t="n"/>
-      <c r="B2" s="106" t="n"/>
-      <c r="C2" s="107" t="n"/>
-      <c r="D2" s="107" t="n"/>
-      <c r="E2" s="107" t="n"/>
-      <c r="F2" s="108" t="n"/>
-      <c r="G2" s="103" t="inlineStr">
+    <row r="2" ht="23.25" customHeight="1">
+      <c r="A2" s="115" t="n"/>
+      <c r="B2" s="116" t="n"/>
+      <c r="C2" s="117" t="n"/>
+      <c r="D2" s="117" t="n"/>
+      <c r="E2" s="117" t="n"/>
+      <c r="F2" s="118" t="n"/>
+      <c r="G2" s="113" t="inlineStr">
         <is>
           <t>Data de Emissão:</t>
         </is>
       </c>
-      <c r="H2" s="104" t="n"/>
+      <c r="H2" s="114" t="n"/>
       <c r="I2" s="4" t="n">
         <v>44487</v>
       </c>
     </row>
-    <row r="3" ht="23.25" customHeight="1" s="67">
-      <c r="A3" s="105" t="n"/>
-      <c r="B3" s="109" t="inlineStr">
+    <row r="3" ht="23.25" customHeight="1">
+      <c r="A3" s="115" t="n"/>
+      <c r="B3" s="119" t="inlineStr">
         <is>
           <t>Gestão da Qualidade</t>
         </is>
       </c>
-      <c r="C3" s="101" t="n"/>
-      <c r="D3" s="101" t="n"/>
-      <c r="E3" s="101" t="n"/>
-      <c r="F3" s="102" t="n"/>
-      <c r="G3" s="103" t="inlineStr">
+      <c r="C3" s="111" t="n"/>
+      <c r="D3" s="111" t="n"/>
+      <c r="E3" s="111" t="n"/>
+      <c r="F3" s="112" t="n"/>
+      <c r="G3" s="113" t="inlineStr">
         <is>
           <t>Data da Última Revisão:</t>
         </is>
       </c>
-      <c r="H3" s="104" t="n"/>
+      <c r="H3" s="114" t="n"/>
       <c r="I3" s="5" t="n"/>
     </row>
-    <row r="4" ht="24" customHeight="1" s="67">
-      <c r="A4" s="110" t="n"/>
-      <c r="B4" s="106" t="n"/>
-      <c r="C4" s="107" t="n"/>
-      <c r="D4" s="107" t="n"/>
-      <c r="E4" s="107" t="n"/>
-      <c r="F4" s="108" t="n"/>
-      <c r="G4" s="103" t="inlineStr">
+    <row r="4" ht="24" customHeight="1">
+      <c r="A4" s="120" t="n"/>
+      <c r="B4" s="116" t="n"/>
+      <c r="C4" s="117" t="n"/>
+      <c r="D4" s="117" t="n"/>
+      <c r="E4" s="117" t="n"/>
+      <c r="F4" s="118" t="n"/>
+      <c r="G4" s="113" t="inlineStr">
         <is>
           <t>Página:</t>
         </is>
       </c>
-      <c r="H4" s="104" t="n"/>
+      <c r="H4" s="114" t="n"/>
       <c r="I4" s="6" t="n">
         <v>44197</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="67">
-      <c r="A5" s="36" t="n"/>
-      <c r="B5" s="101" t="n"/>
-      <c r="C5" s="101" t="n"/>
-      <c r="D5" s="101" t="n"/>
-      <c r="E5" s="101" t="n"/>
-      <c r="F5" s="101" t="n"/>
-      <c r="G5" s="101" t="n"/>
-      <c r="H5" s="101" t="n"/>
-      <c r="I5" s="101" t="n"/>
-    </row>
-    <row r="6" ht="24.75" customHeight="1" s="67">
-      <c r="A6" s="38" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="35" t="n"/>
+      <c r="B5" s="111" t="n"/>
+      <c r="C5" s="111" t="n"/>
+      <c r="D5" s="111" t="n"/>
+      <c r="E5" s="111" t="n"/>
+      <c r="F5" s="111" t="n"/>
+      <c r="G5" s="111" t="n"/>
+      <c r="H5" s="111" t="n"/>
+      <c r="I5" s="111" t="n"/>
+    </row>
+    <row r="6" ht="24.75" customHeight="1">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>1ª ETAPA - ABERTURA</t>
         </is>
       </c>
-      <c r="B6" s="101" t="n"/>
-      <c r="C6" s="101" t="n"/>
-      <c r="D6" s="101" t="n"/>
-      <c r="E6" s="111" t="n"/>
+      <c r="B6" s="111" t="n"/>
+      <c r="C6" s="111" t="n"/>
+      <c r="D6" s="111" t="n"/>
+      <c r="E6" s="121" t="n"/>
       <c r="F6" s="7" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G6" s="39" t="inlineStr">
+      <c r="G6" s="38" t="inlineStr">
         <is>
           <t>Feito</t>
         </is>
       </c>
-      <c r="H6" s="112" t="n"/>
-      <c r="I6" s="113" t="n"/>
+      <c r="H6" s="122" t="n"/>
+      <c r="I6" s="123" t="n"/>
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
       <c r="L6" s="2" t="n"/>
@@ -1729,205 +1784,202 @@
       <c r="Z6" s="1" t="n"/>
       <c r="AA6" s="1" t="n"/>
     </row>
-    <row r="7" ht="22.5" customHeight="1" s="67">
-      <c r="A7" s="42" t="inlineStr">
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>RNC Nº</t>
         </is>
       </c>
-      <c r="B7" s="43" t="n">
-        <v>5350505100</v>
-      </c>
-      <c r="C7" s="43" t="inlineStr">
+      <c r="B7" s="41" t="n">
+        <v>5417229751</v>
+      </c>
+      <c r="C7" s="41" t="inlineStr">
         <is>
           <t>Origem:</t>
         </is>
       </c>
-      <c r="D7" s="45" t="inlineStr">
-        <is>
-          <t>Montagem e Solda</t>
-        </is>
-      </c>
-      <c r="E7" s="114" t="n"/>
-      <c r="F7" s="46" t="n"/>
-      <c r="G7" s="39" t="n"/>
-      <c r="H7" s="46" t="inlineStr">
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Fornecedor</t>
+        </is>
+      </c>
+      <c r="E7" s="124" t="n"/>
+      <c r="F7" s="44" t="n"/>
+      <c r="G7" s="38" t="n"/>
+      <c r="H7" s="44" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="I7" s="115" t="n">
-        <v>45184</v>
+      <c r="I7" s="12" t="inlineStr">
+        <is>
+          <t>17/07/2023</t>
+        </is>
       </c>
       <c r="L7" s="2" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="67">
-      <c r="A8" s="116" t="n"/>
-      <c r="B8" s="116" t="n"/>
-      <c r="C8" s="116" t="n"/>
-      <c r="D8" s="117" t="n"/>
-      <c r="E8" s="118" t="n"/>
-      <c r="F8" s="46" t="inlineStr">
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="125" t="n"/>
+      <c r="B8" s="125" t="n"/>
+      <c r="C8" s="125" t="n"/>
+      <c r="D8" s="126" t="n"/>
+      <c r="E8" s="127" t="n"/>
+      <c r="F8" s="44" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G8" s="39" t="inlineStr">
-        <is>
-          <t>Estefane Santos</t>
-        </is>
-      </c>
-      <c r="H8" s="112" t="n"/>
-      <c r="I8" s="113" t="n"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" s="67">
-      <c r="A9" s="46" t="inlineStr">
+      <c r="G8" s="38" t="inlineStr">
+        <is>
+          <t>Severiano Neto, lauriene@cemag.com.br</t>
+        </is>
+      </c>
+      <c r="H8" s="122" t="n"/>
+      <c r="I8" s="123" t="n"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="44" t="inlineStr">
         <is>
           <t>Descrição do Problema</t>
         </is>
       </c>
-      <c r="B9" s="112" t="n"/>
-      <c r="C9" s="112" t="n"/>
-      <c r="D9" s="112" t="n"/>
-      <c r="E9" s="112" t="n"/>
-      <c r="F9" s="112" t="n"/>
-      <c r="G9" s="112" t="n"/>
-      <c r="H9" s="112" t="n"/>
-      <c r="I9" s="113" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" s="67">
-      <c r="A10" s="47" t="inlineStr">
-        <is>
-          <t>Código da peça 031244 eixo simples tandem - 6 unidades apresentando desenhalinhamento(desnível) entre as pontas de eixo, sendo observado que o problema acontece sempre no mesmo lado do eixo.</t>
-        </is>
-      </c>
-      <c r="B10" s="119" t="n"/>
-      <c r="C10" s="119" t="n"/>
-      <c r="D10" s="119" t="n"/>
-      <c r="E10" s="119" t="n"/>
-      <c r="F10" s="119" t="n"/>
-      <c r="G10" s="119" t="n"/>
-      <c r="H10" s="119" t="n"/>
-      <c r="I10" s="114" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="67">
-      <c r="A11" s="117" t="n"/>
-      <c r="B11" s="120" t="n"/>
-      <c r="C11" s="120" t="n"/>
-      <c r="D11" s="120" t="n"/>
-      <c r="E11" s="120" t="n"/>
-      <c r="F11" s="120" t="n"/>
-      <c r="G11" s="120" t="n"/>
-      <c r="H11" s="120" t="n"/>
-      <c r="I11" s="118" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="67">
-      <c r="A12" s="50" t="n"/>
-      <c r="B12" s="119" t="n"/>
-      <c r="C12" s="119" t="n"/>
-      <c r="D12" s="119" t="n"/>
-      <c r="E12" s="119" t="n"/>
-      <c r="F12" s="119" t="n"/>
-      <c r="G12" s="119" t="n"/>
-      <c r="H12" s="119" t="n"/>
-      <c r="I12" s="119" t="n"/>
-    </row>
-    <row r="13" ht="23.25" customHeight="1" s="67">
-      <c r="A13" s="52" t="inlineStr">
+      <c r="B9" s="122" t="n"/>
+      <c r="C9" s="122" t="n"/>
+      <c r="D9" s="122" t="n"/>
+      <c r="E9" s="122" t="n"/>
+      <c r="F9" s="122" t="n"/>
+      <c r="G9" s="122" t="n"/>
+      <c r="H9" s="122" t="n"/>
+      <c r="I9" s="123" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="45" t="inlineStr">
+        <is>
+          <t>07/07/2023
+Cubos de roda referentes ao pedido de NF Nº. 000.037.127, apresentando dificuldade de montagem dos parafuso de roda no processo de fixação dos mesmo feito pelo almoxarifado. Uma amostra de cubo chegou a tricar devido a aplicação de força da máquina na tentativa de fixação.</t>
+        </is>
+      </c>
+      <c r="B10" s="128" t="n"/>
+      <c r="C10" s="128" t="n"/>
+      <c r="D10" s="128" t="n"/>
+      <c r="E10" s="128" t="n"/>
+      <c r="F10" s="128" t="n"/>
+      <c r="G10" s="128" t="n"/>
+      <c r="H10" s="128" t="n"/>
+      <c r="I10" s="124" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="126" t="n"/>
+      <c r="B11" s="129" t="n"/>
+      <c r="C11" s="129" t="n"/>
+      <c r="D11" s="129" t="n"/>
+      <c r="E11" s="129" t="n"/>
+      <c r="F11" s="129" t="n"/>
+      <c r="G11" s="129" t="n"/>
+      <c r="H11" s="129" t="n"/>
+      <c r="I11" s="127" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="48" t="n"/>
+      <c r="B12" s="128" t="n"/>
+      <c r="C12" s="128" t="n"/>
+      <c r="D12" s="128" t="n"/>
+      <c r="E12" s="128" t="n"/>
+      <c r="F12" s="128" t="n"/>
+      <c r="G12" s="128" t="n"/>
+      <c r="H12" s="128" t="n"/>
+      <c r="I12" s="128" t="n"/>
+    </row>
+    <row r="13" ht="23.25" customHeight="1">
+      <c r="A13" s="50" t="inlineStr">
         <is>
           <t>2ª ETAPA - AÇÃO IMEDIATA</t>
         </is>
       </c>
-      <c r="B13" s="101" t="n"/>
-      <c r="C13" s="101" t="n"/>
-      <c r="D13" s="101" t="n"/>
-      <c r="E13" s="111" t="n"/>
-      <c r="F13" s="11" t="n"/>
-      <c r="G13" s="39" t="n"/>
-      <c r="H13" s="11" t="inlineStr">
+      <c r="B13" s="111" t="n"/>
+      <c r="C13" s="111" t="n"/>
+      <c r="D13" s="111" t="n"/>
+      <c r="E13" s="121" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="38" t="n"/>
+      <c r="H13" s="13" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="I13" s="115" t="n">
-        <v>45184</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" s="67">
-      <c r="A14" s="121" t="n"/>
-      <c r="B14" s="122" t="n"/>
-      <c r="C14" s="122" t="n"/>
-      <c r="D14" s="122" t="n"/>
-      <c r="E14" s="123" t="n"/>
-      <c r="F14" s="12" t="inlineStr">
+      <c r="I13" s="12" t="inlineStr">
+        <is>
+          <t>17/07/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="130" t="n"/>
+      <c r="B14" s="131" t="n"/>
+      <c r="C14" s="131" t="n"/>
+      <c r="D14" s="131" t="n"/>
+      <c r="E14" s="132" t="n"/>
+      <c r="F14" s="14" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G14" s="55" t="inlineStr">
-        <is>
-          <t>Estefane Santos</t>
-        </is>
-      </c>
-      <c r="H14" s="119" t="n"/>
-      <c r="I14" s="114" t="n"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" s="67">
-      <c r="A15" s="46" t="inlineStr">
+      <c r="G14" s="53" t="inlineStr">
+        <is>
+          <t>Severiano Neto, lauriene@cemag.com.br</t>
+        </is>
+      </c>
+      <c r="H14" s="128" t="n"/>
+      <c r="I14" s="124" t="n"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="44" t="inlineStr">
         <is>
           <t>Ação imediata</t>
         </is>
       </c>
-      <c r="B15" s="112" t="n"/>
-      <c r="C15" s="112" t="n"/>
-      <c r="D15" s="112" t="n"/>
-      <c r="E15" s="112" t="n"/>
-      <c r="F15" s="112" t="n"/>
-      <c r="G15" s="112" t="n"/>
-      <c r="H15" s="112" t="n"/>
-      <c r="I15" s="113" t="n"/>
-    </row>
-    <row r="16" ht="27.95" customHeight="1" s="67">
-      <c r="A16" s="58" t="inlineStr">
-        <is>
-          <t>Os eixos foram segregados e levado para a seralheria para realizar os ajustes, foi observado a necessidade de um par de eixo para a carga do dia, devido o tempo de produção ser bem menor para montar um novo eixo do que para realizar o retrabalho, foi alinhado com a Erica a necessidade de produzir um novo par. Alinhado com o Victor sobre os eixos estarem em situação de aguardo de retrabalho.</t>
-        </is>
-      </c>
+      <c r="B15" s="122" t="n"/>
+      <c r="C15" s="122" t="n"/>
+      <c r="D15" s="122" t="n"/>
+      <c r="E15" s="122" t="n"/>
+      <c r="F15" s="122" t="n"/>
+      <c r="G15" s="122" t="n"/>
+      <c r="H15" s="122" t="n"/>
+      <c r="I15" s="123" t="n"/>
+    </row>
+    <row r="16" ht="27.95" customHeight="1">
+      <c r="A16" s="45" t="inlineStr">
+        <is>
+          <t>Cortar relações com fornecedor Fundição BB, segregar material e informar que só pode ser usado em cbhm4500 mediante reabertura dos furos.</t>
+        </is>
+      </c>
+      <c r="B16" s="128" t="n"/>
+      <c r="C16" s="128" t="n"/>
+      <c r="D16" s="128" t="n"/>
+      <c r="E16" s="128" t="n"/>
+      <c r="F16" s="128" t="n"/>
+      <c r="G16" s="128" t="n"/>
+      <c r="H16" s="128" t="n"/>
       <c r="I16" s="124" t="n"/>
     </row>
-    <row r="17" ht="27.95" customHeight="1" s="67">
-      <c r="A17" s="125" t="n"/>
-      <c r="I17" s="124" t="n"/>
-    </row>
-    <row r="18" ht="27.95" customHeight="1" s="67">
-      <c r="A18" s="121" t="n"/>
-      <c r="B18" s="122" t="n"/>
-      <c r="C18" s="122" t="n"/>
-      <c r="D18" s="122" t="n"/>
-      <c r="E18" s="122" t="n"/>
-      <c r="F18" s="122" t="n"/>
-      <c r="G18" s="122" t="n"/>
-      <c r="H18" s="122" t="n"/>
-      <c r="I18" s="123" t="n"/>
-    </row>
-    <row r="19" ht="23.25" customHeight="1" s="67">
-      <c r="A19" s="64" t="inlineStr">
-        <is>
-          <t>Necessita de uma análise de causa raiz? (Ação corretiva)</t>
-        </is>
-      </c>
-      <c r="B19" s="126" t="n"/>
-      <c r="C19" s="126" t="n"/>
-      <c r="D19" s="126" t="n"/>
-      <c r="E19" s="126" t="n"/>
-      <c r="F19" s="126" t="n"/>
-      <c r="G19" s="127" t="n"/>
-      <c r="H19" s="39" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="I19" s="113" t="n"/>
+    <row r="17" ht="27.95" customHeight="1">
+      <c r="A17" s="133" t="n"/>
+      <c r="I17" s="134" t="n"/>
+    </row>
+    <row r="18" ht="27.95" customHeight="1">
+      <c r="A18" s="133" t="n"/>
+      <c r="I18" s="134" t="n"/>
+    </row>
+    <row r="19" ht="23.25" customHeight="1">
+      <c r="A19" s="126" t="n"/>
+      <c r="B19" s="129" t="n"/>
+      <c r="C19" s="129" t="n"/>
+      <c r="D19" s="129" t="n"/>
+      <c r="E19" s="129" t="n"/>
+      <c r="F19" s="129" t="n"/>
+      <c r="G19" s="129" t="n"/>
+      <c r="H19" s="129" t="n"/>
+      <c r="I19" s="127" t="n"/>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
@@ -1947,205 +1999,193 @@
       <c r="Z19" s="1" t="n"/>
       <c r="AA19" s="1" t="n"/>
     </row>
-    <row r="20" ht="18.75" customHeight="1" s="67">
-      <c r="A20" s="66" t="n"/>
-      <c r="B20" s="128" t="n"/>
-      <c r="C20" s="128" t="n"/>
-      <c r="D20" s="128" t="n"/>
-      <c r="E20" s="128" t="n"/>
-      <c r="F20" s="128" t="n"/>
-      <c r="G20" s="128" t="n"/>
-      <c r="H20" s="128" t="n"/>
-      <c r="I20" s="129" t="n"/>
-    </row>
-    <row r="21" ht="23.25" customHeight="1" s="67">
-      <c r="A21" s="52" t="inlineStr">
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="98" t="n"/>
+      <c r="B20" s="131" t="n"/>
+      <c r="C20" s="131" t="n"/>
+      <c r="D20" s="131" t="n"/>
+      <c r="E20" s="131" t="n"/>
+      <c r="F20" s="131" t="n"/>
+      <c r="G20" s="131" t="n"/>
+      <c r="H20" s="131" t="n"/>
+      <c r="I20" s="132" t="n"/>
+    </row>
+    <row r="21" ht="23.25" customHeight="1">
+      <c r="A21" s="50" t="inlineStr">
         <is>
           <t>3ª ETAPA - ANÁLISE DE CAUZA RAIZ</t>
         </is>
       </c>
-      <c r="B21" s="101" t="n"/>
-      <c r="C21" s="101" t="n"/>
-      <c r="D21" s="101" t="n"/>
-      <c r="E21" s="111" t="n"/>
-      <c r="F21" s="14" t="n"/>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="14" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="I21" s="16" t="n"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1" s="67">
-      <c r="A22" s="121" t="n"/>
-      <c r="B22" s="122" t="n"/>
-      <c r="C22" s="122" t="n"/>
-      <c r="D22" s="122" t="n"/>
-      <c r="E22" s="123" t="n"/>
-      <c r="F22" s="17" t="inlineStr">
-        <is>
-          <t>Resp.:</t>
-        </is>
-      </c>
-      <c r="G22" s="69" t="n"/>
-      <c r="H22" s="130" t="n"/>
-      <c r="I22" s="131" t="n"/>
-    </row>
-    <row r="23" ht="45" customHeight="1" s="67">
-      <c r="A23" s="18" t="inlineStr">
+      <c r="B21" s="111" t="n"/>
+      <c r="C21" s="111" t="n"/>
+      <c r="D21" s="111" t="n"/>
+      <c r="E21" s="121" t="n"/>
+      <c r="F21" s="17" t="inlineStr">
+        <is>
+          <t>Data:</t>
+        </is>
+      </c>
+      <c r="G21" s="108" t="n">
+        <v/>
+      </c>
+      <c r="H21" s="135" t="n"/>
+      <c r="I21" s="112" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="130" t="n"/>
+      <c r="B22" s="131" t="n"/>
+      <c r="C22" s="131" t="n"/>
+      <c r="D22" s="131" t="n"/>
+      <c r="E22" s="132" t="n"/>
+      <c r="F22" s="66" t="n"/>
+      <c r="G22" s="136" t="n"/>
+      <c r="H22" s="117" t="n"/>
+      <c r="I22" s="118" t="n"/>
+    </row>
+    <row r="23" ht="45" customHeight="1">
+      <c r="A23" s="104" t="inlineStr">
         <is>
           <t>Máquina</t>
         </is>
       </c>
-      <c r="B23" s="71" t="inlineStr">
-        <is>
-          <t>MAQUINA</t>
-        </is>
-      </c>
-      <c r="C23" s="132" t="n"/>
-      <c r="D23" s="132" t="n"/>
-      <c r="E23" s="132" t="n"/>
-      <c r="F23" s="132" t="n"/>
-      <c r="G23" s="132" t="n"/>
-      <c r="H23" s="132" t="n"/>
-      <c r="I23" s="133" t="n"/>
-    </row>
-    <row r="24" ht="45" customHeight="1" s="67">
-      <c r="A24" s="18" t="inlineStr">
+      <c r="B23" s="105" t="n">
+        <v/>
+      </c>
+      <c r="C23" s="137" t="n"/>
+      <c r="D23" s="137" t="n"/>
+      <c r="E23" s="137" t="n"/>
+      <c r="F23" s="137" t="n"/>
+      <c r="G23" s="137" t="n"/>
+      <c r="H23" s="137" t="n"/>
+      <c r="I23" s="138" t="n"/>
+    </row>
+    <row r="24" ht="45" customHeight="1">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Mão-de-Obra</t>
         </is>
       </c>
-      <c r="B24" s="71" t="inlineStr">
-        <is>
-          <t>Soldador experiente na atividade.</t>
-        </is>
-      </c>
-      <c r="C24" s="132" t="n"/>
-      <c r="D24" s="132" t="n"/>
-      <c r="E24" s="132" t="n"/>
-      <c r="F24" s="132" t="n"/>
-      <c r="G24" s="132" t="n"/>
-      <c r="H24" s="132" t="n"/>
-      <c r="I24" s="133" t="n"/>
-    </row>
-    <row r="25" ht="45" customHeight="1" s="67">
-      <c r="A25" s="18" t="inlineStr">
+      <c r="B24" s="59" t="n">
+        <v/>
+      </c>
+      <c r="C24" s="137" t="n"/>
+      <c r="D24" s="137" t="n"/>
+      <c r="E24" s="137" t="n"/>
+      <c r="F24" s="137" t="n"/>
+      <c r="G24" s="137" t="n"/>
+      <c r="H24" s="137" t="n"/>
+      <c r="I24" s="138" t="n"/>
+    </row>
+    <row r="25" ht="45" customHeight="1">
+      <c r="A25" s="8" t="inlineStr">
         <is>
           <t>Matéria Prima</t>
         </is>
       </c>
-      <c r="B25" s="71" t="n">
+      <c r="B25" s="59" t="n">
         <v/>
       </c>
-      <c r="C25" s="132" t="n"/>
-      <c r="D25" s="132" t="n"/>
-      <c r="E25" s="132" t="n"/>
-      <c r="F25" s="132" t="n"/>
-      <c r="G25" s="132" t="n"/>
-      <c r="H25" s="132" t="n"/>
-      <c r="I25" s="133" t="n"/>
-    </row>
-    <row r="26" ht="45" customHeight="1" s="67">
-      <c r="A26" s="18" t="inlineStr">
+      <c r="C25" s="137" t="n"/>
+      <c r="D25" s="137" t="n"/>
+      <c r="E25" s="137" t="n"/>
+      <c r="F25" s="137" t="n"/>
+      <c r="G25" s="137" t="n"/>
+      <c r="H25" s="137" t="n"/>
+      <c r="I25" s="138" t="n"/>
+    </row>
+    <row r="26" ht="45" customHeight="1">
+      <c r="A26" s="8" t="inlineStr">
         <is>
           <t>Medição</t>
         </is>
       </c>
-      <c r="B26" s="71" t="inlineStr">
-        <is>
-          <t>Soldador possui os equipamentos de medição necessários para a atividade, trena e esquadro.</t>
-        </is>
-      </c>
-      <c r="C26" s="132" t="n"/>
-      <c r="D26" s="132" t="n"/>
-      <c r="E26" s="132" t="n"/>
-      <c r="F26" s="132" t="n"/>
-      <c r="G26" s="132" t="n"/>
-      <c r="H26" s="132" t="n"/>
-      <c r="I26" s="133" t="n"/>
-    </row>
-    <row r="27" ht="45" customHeight="1" s="67">
-      <c r="A27" s="18" t="inlineStr">
+      <c r="B26" s="59" t="n">
+        <v/>
+      </c>
+      <c r="C26" s="137" t="n"/>
+      <c r="D26" s="137" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="137" t="n"/>
+      <c r="G26" s="137" t="n"/>
+      <c r="H26" s="137" t="n"/>
+      <c r="I26" s="138" t="n"/>
+    </row>
+    <row r="27" ht="45" customHeight="1">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>Método</t>
         </is>
       </c>
-      <c r="B27" s="71" t="inlineStr">
-        <is>
-          <t>Foi observado folga de 6,5 mm no diâmetro (3,25 mm para cada lado) exagerada entre furo e ponta de eixo que poderia facilitar deslocamento da ponta de eixo. Foi observado que o gabarito na qual é montado a ponta de eixo, quando colocada no eixo para ser montado demonstra estar fora do esquadro quando encaixado.</t>
-        </is>
-      </c>
-      <c r="C27" s="132" t="n"/>
-      <c r="D27" s="132" t="n"/>
-      <c r="E27" s="132" t="n"/>
-      <c r="F27" s="132" t="n"/>
-      <c r="G27" s="132" t="n"/>
-      <c r="H27" s="132" t="n"/>
-      <c r="I27" s="133" t="n"/>
-    </row>
-    <row r="28" ht="45" customHeight="1" s="67">
-      <c r="A28" s="18" t="inlineStr">
+      <c r="B27" s="59" t="n">
+        <v/>
+      </c>
+      <c r="C27" s="137" t="n"/>
+      <c r="D27" s="137" t="n"/>
+      <c r="E27" s="137" t="n"/>
+      <c r="F27" s="137" t="n"/>
+      <c r="G27" s="137" t="n"/>
+      <c r="H27" s="137" t="n"/>
+      <c r="I27" s="138" t="n"/>
+    </row>
+    <row r="28" ht="45" customHeight="1">
+      <c r="A28" s="8" t="inlineStr">
         <is>
           <t>Meio Ambiente</t>
         </is>
       </c>
-      <c r="B28" s="71" t="n">
+      <c r="B28" s="59" t="n">
         <v/>
       </c>
-      <c r="C28" s="132" t="n"/>
-      <c r="D28" s="132" t="n"/>
-      <c r="E28" s="132" t="n"/>
-      <c r="F28" s="132" t="n"/>
-      <c r="G28" s="132" t="n"/>
-      <c r="H28" s="132" t="n"/>
-      <c r="I28" s="133" t="n"/>
-    </row>
-    <row r="29" ht="45" customHeight="1" s="67">
-      <c r="A29" s="74" t="inlineStr">
+      <c r="C28" s="137" t="n"/>
+      <c r="D28" s="137" t="n"/>
+      <c r="E28" s="137" t="n"/>
+      <c r="F28" s="137" t="n"/>
+      <c r="G28" s="137" t="n"/>
+      <c r="H28" s="137" t="n"/>
+      <c r="I28" s="138" t="n"/>
+    </row>
+    <row r="29" ht="45" customHeight="1">
+      <c r="A29" s="68" t="inlineStr">
         <is>
           <t>Presentes:</t>
         </is>
       </c>
-      <c r="B29" s="127" t="n"/>
-      <c r="C29" s="75" t="inlineStr">
-        <is>
-          <t>Estefane, Severiano, Victor, Damião e Leônidas</t>
-        </is>
-      </c>
-      <c r="D29" s="126" t="n"/>
-      <c r="E29" s="126" t="n"/>
-      <c r="F29" s="126" t="n"/>
-      <c r="G29" s="126" t="n"/>
-      <c r="H29" s="126" t="n"/>
-      <c r="I29" s="127" t="n"/>
-    </row>
-    <row r="30" ht="6" customHeight="1" s="67">
-      <c r="A30" s="66" t="n"/>
-      <c r="B30" s="128" t="n"/>
-      <c r="C30" s="128" t="n"/>
-      <c r="D30" s="128" t="n"/>
-      <c r="E30" s="128" t="n"/>
-      <c r="F30" s="128" t="n"/>
-      <c r="G30" s="128" t="n"/>
-      <c r="H30" s="128" t="n"/>
-      <c r="I30" s="129" t="n"/>
-    </row>
-    <row r="31" ht="36.75" customHeight="1" s="67">
-      <c r="A31" s="77" t="inlineStr">
+      <c r="B29" s="139" t="n"/>
+      <c r="C29" s="69" t="n">
+        <v/>
+      </c>
+      <c r="D29" s="136" t="n"/>
+      <c r="E29" s="136" t="n"/>
+      <c r="F29" s="136" t="n"/>
+      <c r="G29" s="136" t="n"/>
+      <c r="H29" s="136" t="n"/>
+      <c r="I29" s="139" t="n"/>
+    </row>
+    <row r="30" ht="6" customHeight="1">
+      <c r="A30" s="56" t="n"/>
+      <c r="B30" s="140" t="n"/>
+      <c r="C30" s="140" t="n"/>
+      <c r="D30" s="140" t="n"/>
+      <c r="E30" s="140" t="n"/>
+      <c r="F30" s="140" t="n"/>
+      <c r="G30" s="140" t="n"/>
+      <c r="H30" s="140" t="n"/>
+      <c r="I30" s="141" t="n"/>
+    </row>
+    <row r="31" ht="36.75" customHeight="1">
+      <c r="A31" s="72" t="inlineStr">
         <is>
           <t>3ªETAPA - PLANO DE AÇÃO</t>
         </is>
       </c>
-      <c r="B31" s="132" t="n"/>
-      <c r="C31" s="132" t="n"/>
-      <c r="D31" s="132" t="n"/>
-      <c r="E31" s="132" t="n"/>
-      <c r="F31" s="132" t="n"/>
-      <c r="G31" s="132" t="n"/>
-      <c r="H31" s="132" t="n"/>
-      <c r="I31" s="133" t="n"/>
+      <c r="B31" s="137" t="n"/>
+      <c r="C31" s="137" t="n"/>
+      <c r="D31" s="137" t="n"/>
+      <c r="E31" s="137" t="n"/>
+      <c r="F31" s="137" t="n"/>
+      <c r="G31" s="137" t="n"/>
+      <c r="H31" s="137" t="n"/>
+      <c r="I31" s="138" t="n"/>
       <c r="J31" s="1" t="n"/>
       <c r="K31" s="1" t="n"/>
       <c r="L31" s="1" t="n"/>
@@ -2165,214 +2205,224 @@
       <c r="Z31" s="1" t="n"/>
       <c r="AA31" s="1" t="n"/>
     </row>
-    <row r="32" ht="18.75" customHeight="1" s="67">
-      <c r="A32" s="79" t="inlineStr">
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="74" t="inlineStr">
         <is>
           <t>Atividade</t>
         </is>
       </c>
-      <c r="B32" s="101" t="n"/>
-      <c r="C32" s="101" t="n"/>
-      <c r="D32" s="111" t="n"/>
-      <c r="E32" s="80" t="inlineStr">
+      <c r="B32" s="111" t="n"/>
+      <c r="C32" s="111" t="n"/>
+      <c r="D32" s="121" t="n"/>
+      <c r="E32" s="75" t="inlineStr">
         <is>
           <t>Responsável</t>
         </is>
       </c>
-      <c r="F32" s="79" t="inlineStr">
+      <c r="F32" s="142" t="inlineStr">
+        <is>
+          <t>Executor</t>
+        </is>
+      </c>
+      <c r="G32" s="143" t="n"/>
+      <c r="H32" s="144" t="inlineStr">
         <is>
           <t>Previsão</t>
         </is>
       </c>
-      <c r="G32" s="111" t="n"/>
-      <c r="H32" s="79" t="inlineStr">
+      <c r="I32" s="144" t="inlineStr">
         <is>
           <t>Realizado</t>
         </is>
       </c>
-      <c r="I32" s="111" t="n"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1" s="67">
-      <c r="A33" s="121" t="n"/>
-      <c r="B33" s="122" t="n"/>
-      <c r="C33" s="122" t="n"/>
-      <c r="D33" s="123" t="n"/>
-      <c r="E33" s="134" t="n"/>
-      <c r="F33" s="121" t="n"/>
-      <c r="G33" s="123" t="n"/>
-      <c r="H33" s="121" t="n"/>
-      <c r="I33" s="123" t="n"/>
-    </row>
-    <row r="34" ht="28.5" customHeight="1" s="67">
-      <c r="A34" s="81" t="inlineStr">
-        <is>
-          <t>Realizar ajuste no gabarito de montagem do Eixo Tandem.</t>
-        </is>
-      </c>
-      <c r="B34" s="126" t="n"/>
-      <c r="C34" s="126" t="n"/>
-      <c r="D34" s="127" t="n"/>
-      <c r="E34" s="19" t="inlineStr">
-        <is>
-          <t>victor@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="F34" s="84" t="inlineStr">
-        <is>
-          <t>15-09-2023</t>
-        </is>
-      </c>
-      <c r="G34" s="127" t="n"/>
-      <c r="H34" s="84" t="n">
-        <v>45184</v>
-      </c>
-      <c r="I34" s="127" t="n"/>
-    </row>
-    <row r="35" ht="28.5" customHeight="1" s="67">
-      <c r="A35" s="81" t="inlineStr">
-        <is>
-          <t>Realizar inspeção dos eixos após a produção no gabarito.</t>
-        </is>
-      </c>
-      <c r="B35" s="126" t="n"/>
-      <c r="C35" s="126" t="n"/>
-      <c r="D35" s="127" t="n"/>
-      <c r="E35" s="19" t="inlineStr">
+    </row>
+    <row r="33" ht="9" customHeight="1">
+      <c r="A33" s="130" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="C33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="145" t="n"/>
+      <c r="F33" s="146" t="n"/>
+      <c r="G33" s="134" t="n"/>
+      <c r="H33" s="125" t="n"/>
+      <c r="I33" s="125" t="n"/>
+    </row>
+    <row r="34" ht="28.5" customHeight="1">
+      <c r="A34" s="82" t="inlineStr">
+        <is>
+          <t>Realizar ensaios necessáruos</t>
+        </is>
+      </c>
+      <c r="B34" s="136" t="n"/>
+      <c r="C34" s="136" t="n"/>
+      <c r="D34" s="139" t="n"/>
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>Severiano Neto</t>
         </is>
       </c>
-      <c r="F35" s="84" t="inlineStr">
-        <is>
-          <t>15-09-2023</t>
-        </is>
-      </c>
-      <c r="G35" s="127" t="n"/>
-      <c r="H35" s="84" t="n">
-        <v>45184</v>
-      </c>
-      <c r="I35" s="127" t="n"/>
-    </row>
-    <row r="36" ht="28.5" customHeight="1" s="67">
-      <c r="A36" s="81" t="inlineStr">
-        <is>
-          <t>Validar modificações no gabarito.</t>
-        </is>
-      </c>
-      <c r="B36" s="126" t="n"/>
-      <c r="C36" s="126" t="n"/>
-      <c r="D36" s="127" t="n"/>
-      <c r="E36" s="19" t="inlineStr">
-        <is>
-          <t>victor@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="F36" s="84" t="inlineStr">
-        <is>
-          <t>18-09-2023</t>
-        </is>
-      </c>
-      <c r="G36" s="127" t="n"/>
-      <c r="H36" s="84" t="n">
-        <v>45187</v>
-      </c>
-      <c r="I36" s="127" t="n"/>
-    </row>
-    <row r="37" ht="28.5" customHeight="1" s="67">
-      <c r="A37" s="81" t="inlineStr">
-        <is>
-          <t>Acompanhar a incidência de novas Não conformidades dessa natureza.</t>
-        </is>
-      </c>
-      <c r="B37" s="126" t="n"/>
-      <c r="C37" s="126" t="n"/>
-      <c r="D37" s="127" t="n"/>
-      <c r="E37" s="19" t="inlineStr">
-        <is>
-          <t>Severiano Neto</t>
-        </is>
-      </c>
-      <c r="F37" s="84" t="inlineStr">
-        <is>
-          <t>29-09-2023</t>
-        </is>
-      </c>
-      <c r="G37" s="127" t="n"/>
-      <c r="H37" s="84" t="n">
-        <v>45205</v>
-      </c>
-      <c r="I37" s="127" t="n"/>
-    </row>
-    <row r="38" ht="28.5" customHeight="1" s="67">
-      <c r="A38" s="81" t="inlineStr"/>
-      <c r="B38" s="126" t="n"/>
-      <c r="C38" s="126" t="n"/>
-      <c r="D38" s="127" t="n"/>
-      <c r="E38" s="19" t="inlineStr"/>
-      <c r="F38" s="84" t="inlineStr"/>
-      <c r="G38" s="127" t="n"/>
-      <c r="H38" s="84" t="inlineStr"/>
-      <c r="I38" s="127" t="n"/>
-    </row>
-    <row r="39" ht="6" customHeight="1" s="67">
+      <c r="F34" s="147" t="inlineStr">
+        <is>
+          <t>Severiano</t>
+        </is>
+      </c>
+      <c r="G34" s="123" t="n"/>
+      <c r="H34" s="18" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="I34" s="18" t="n">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="35" ht="28.5" customHeight="1">
+      <c r="A35" s="82" t="inlineStr">
+        <is>
+          <t>Repassar problemática para fornecedor</t>
+        </is>
+      </c>
+      <c r="B35" s="136" t="n"/>
+      <c r="C35" s="136" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>lauriene@cemag.com.br</t>
+        </is>
+      </c>
+      <c r="F35" s="147" t="inlineStr">
+        <is>
+          <t>Lauriene</t>
+        </is>
+      </c>
+      <c r="G35" s="123" t="n"/>
+      <c r="H35" s="18" t="inlineStr">
+        <is>
+          <t>17/07/2023</t>
+        </is>
+      </c>
+      <c r="I35" s="18" t="n">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="36" ht="28.5" customHeight="1">
+      <c r="A36" s="82" t="inlineStr">
+        <is>
+          <t>Segregar e identificar material</t>
+        </is>
+      </c>
+      <c r="B36" s="136" t="n"/>
+      <c r="C36" s="136" t="n"/>
+      <c r="D36" s="139" t="n"/>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>Estefane Santos</t>
+        </is>
+      </c>
+      <c r="F36" s="147" t="inlineStr">
+        <is>
+          <t>Estefane</t>
+        </is>
+      </c>
+      <c r="G36" s="123" t="n"/>
+      <c r="H36" s="18" t="inlineStr">
+        <is>
+          <t>17/07/2023</t>
+        </is>
+      </c>
+      <c r="I36" s="18" t="n">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" customHeight="1">
+      <c r="A37" s="82" t="inlineStr"/>
+      <c r="B37" s="136" t="n"/>
+      <c r="C37" s="136" t="n"/>
+      <c r="D37" s="139" t="n"/>
+      <c r="E37" s="9" t="inlineStr"/>
+      <c r="F37" s="147" t="inlineStr"/>
+      <c r="G37" s="123" t="n"/>
+      <c r="H37" s="18" t="inlineStr"/>
+      <c r="I37" s="18" t="inlineStr"/>
+    </row>
+    <row r="38" ht="28.5" customHeight="1">
+      <c r="A38" s="82" t="n"/>
+      <c r="B38" s="136" t="n"/>
+      <c r="C38" s="136" t="n"/>
+      <c r="D38" s="139" t="n"/>
+      <c r="E38" s="9" t="n"/>
+      <c r="F38" s="147" t="n"/>
+      <c r="G38" s="123" t="n"/>
+      <c r="H38" s="18" t="n"/>
+      <c r="I38" s="18" t="n"/>
+    </row>
+    <row r="39" ht="6" customHeight="1">
       <c r="A39" s="89" t="n"/>
-      <c r="B39" s="126" t="n"/>
-      <c r="C39" s="126" t="n"/>
-      <c r="D39" s="126" t="n"/>
-      <c r="E39" s="126" t="n"/>
-      <c r="F39" s="126" t="n"/>
-      <c r="G39" s="126" t="n"/>
-      <c r="H39" s="126" t="n"/>
-      <c r="I39" s="127" t="n"/>
-    </row>
-    <row r="40" ht="18.75" customHeight="1" s="67">
+      <c r="B39" s="136" t="n"/>
+      <c r="C39" s="136" t="n"/>
+      <c r="D39" s="136" t="n"/>
+      <c r="E39" s="136" t="n"/>
+      <c r="F39" s="136" t="n"/>
+      <c r="G39" s="136" t="n"/>
+      <c r="H39" s="136" t="n"/>
+      <c r="I39" s="139" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
       <c r="A40" s="91" t="inlineStr">
         <is>
           <t>4ª ETAPA - EFICÁCIA</t>
         </is>
       </c>
-      <c r="B40" s="135" t="n"/>
-      <c r="C40" s="135" t="n"/>
-      <c r="D40" s="135" t="n"/>
-      <c r="E40" s="136" t="n"/>
-      <c r="F40" s="20" t="n"/>
-      <c r="G40" s="21" t="n"/>
-      <c r="H40" s="20" t="inlineStr">
+      <c r="B40" s="148" t="n"/>
+      <c r="C40" s="148" t="n"/>
+      <c r="D40" s="148" t="n"/>
+      <c r="E40" s="149" t="n"/>
+      <c r="F40" s="19" t="n"/>
+      <c r="G40" s="20" t="n"/>
+      <c r="H40" s="19" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="I40" s="22" t="n"/>
-    </row>
-    <row r="41" ht="18.75" customHeight="1" s="67">
-      <c r="A41" s="121" t="n"/>
-      <c r="B41" s="122" t="n"/>
-      <c r="C41" s="122" t="n"/>
-      <c r="D41" s="122" t="n"/>
-      <c r="E41" s="123" t="n"/>
-      <c r="F41" s="23" t="inlineStr">
+      <c r="I40" s="21" t="inlineStr">
+        <is>
+          <t>06/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="130" t="n"/>
+      <c r="B41" s="131" t="n"/>
+      <c r="C41" s="131" t="n"/>
+      <c r="D41" s="131" t="n"/>
+      <c r="E41" s="132" t="n"/>
+      <c r="F41" s="22" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G41" s="93" t="n"/>
-      <c r="H41" s="128" t="n"/>
-      <c r="I41" s="129" t="n"/>
-    </row>
-    <row r="42" ht="25.5" customHeight="1" s="67">
-      <c r="A42" s="95" t="inlineStr">
+      <c r="G41" s="93" t="inlineStr">
+        <is>
+          <t>Estefane Santos</t>
+        </is>
+      </c>
+      <c r="H41" s="140" t="n"/>
+      <c r="I41" s="141" t="n"/>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="150" t="inlineStr">
         <is>
           <t>As ações corretivas foram eficazes? (Caso não, abrir nova RNC)</t>
         </is>
       </c>
-      <c r="B42" s="132" t="n"/>
-      <c r="C42" s="132" t="n"/>
-      <c r="D42" s="132" t="n"/>
-      <c r="E42" s="132" t="n"/>
-      <c r="F42" s="132" t="n"/>
-      <c r="G42" s="133" t="n"/>
-      <c r="H42" s="96" t="n"/>
-      <c r="I42" s="133" t="n"/>
+      <c r="B42" s="111" t="n"/>
+      <c r="C42" s="111" t="n"/>
+      <c r="D42" s="111" t="n"/>
+      <c r="E42" s="111" t="n"/>
+      <c r="F42" s="111" t="n"/>
+      <c r="G42" s="111" t="n"/>
+      <c r="H42" s="111" t="n"/>
+      <c r="I42" s="112" t="n"/>
       <c r="J42" s="1" t="n"/>
       <c r="K42" s="1" t="n"/>
       <c r="L42" s="1" t="n"/>
@@ -2392,31 +2442,31 @@
       <c r="Z42" s="1" t="n"/>
       <c r="AA42" s="1" t="n"/>
     </row>
-    <row r="43" ht="6" customHeight="1" s="67">
-      <c r="A43" s="66" t="n"/>
-      <c r="B43" s="128" t="n"/>
-      <c r="C43" s="128" t="n"/>
-      <c r="D43" s="128" t="n"/>
-      <c r="E43" s="128" t="n"/>
-      <c r="F43" s="128" t="n"/>
-      <c r="G43" s="128" t="n"/>
-      <c r="H43" s="128" t="n"/>
-      <c r="I43" s="129" t="n"/>
-    </row>
-    <row r="44" ht="36.75" customHeight="1" s="67">
-      <c r="A44" s="97" t="inlineStr">
+    <row r="43" ht="6" customHeight="1">
+      <c r="A43" s="56" t="n"/>
+      <c r="B43" s="140" t="n"/>
+      <c r="C43" s="140" t="n"/>
+      <c r="D43" s="140" t="n"/>
+      <c r="E43" s="140" t="n"/>
+      <c r="F43" s="140" t="n"/>
+      <c r="G43" s="140" t="n"/>
+      <c r="H43" s="140" t="n"/>
+      <c r="I43" s="141" t="n"/>
+    </row>
+    <row r="44" ht="36.75" customHeight="1">
+      <c r="A44" s="95" t="inlineStr">
         <is>
           <t>INFORMAÇÕES ADICIONAIS</t>
         </is>
       </c>
-      <c r="B44" s="132" t="n"/>
-      <c r="C44" s="132" t="n"/>
-      <c r="D44" s="132" t="n"/>
-      <c r="E44" s="132" t="n"/>
-      <c r="F44" s="132" t="n"/>
-      <c r="G44" s="132" t="n"/>
-      <c r="H44" s="132" t="n"/>
-      <c r="I44" s="133" t="n"/>
+      <c r="B44" s="137" t="n"/>
+      <c r="C44" s="137" t="n"/>
+      <c r="D44" s="137" t="n"/>
+      <c r="E44" s="137" t="n"/>
+      <c r="F44" s="137" t="n"/>
+      <c r="G44" s="137" t="n"/>
+      <c r="H44" s="137" t="n"/>
+      <c r="I44" s="138" t="n"/>
       <c r="J44" s="1" t="n"/>
       <c r="K44" s="1" t="n"/>
       <c r="L44" s="1" t="n"/>
@@ -2436,77 +2486,71 @@
       <c r="Z44" s="1" t="n"/>
       <c r="AA44" s="1" t="n"/>
     </row>
-    <row r="45" ht="42.75" customHeight="1" s="67">
-      <c r="A45" s="98">
+    <row r="45" ht="42.75" customHeight="1">
+      <c r="A45" s="96">
         <f>IF(H42="Não",VLOOKUP($B$7,#REF!,44),"")</f>
         <v/>
       </c>
-      <c r="B45" s="135" t="n"/>
-      <c r="C45" s="135" t="n"/>
-      <c r="D45" s="135" t="n"/>
-      <c r="E45" s="135" t="n"/>
-      <c r="F45" s="135" t="n"/>
-      <c r="G45" s="135" t="n"/>
-      <c r="H45" s="135" t="n"/>
-      <c r="I45" s="136" t="n"/>
-    </row>
-    <row r="46" ht="42.75" customHeight="1" s="67">
-      <c r="A46" s="121" t="n"/>
-      <c r="B46" s="122" t="n"/>
-      <c r="C46" s="122" t="n"/>
-      <c r="D46" s="122" t="n"/>
-      <c r="E46" s="122" t="n"/>
-      <c r="F46" s="122" t="n"/>
-      <c r="G46" s="122" t="n"/>
-      <c r="H46" s="122" t="n"/>
-      <c r="I46" s="123" t="n"/>
+      <c r="B45" s="148" t="n"/>
+      <c r="C45" s="148" t="n"/>
+      <c r="D45" s="148" t="n"/>
+      <c r="E45" s="148" t="n"/>
+      <c r="F45" s="148" t="n"/>
+      <c r="G45" s="148" t="n"/>
+      <c r="H45" s="148" t="n"/>
+      <c r="I45" s="149" t="n"/>
+    </row>
+    <row r="46" ht="42.75" customHeight="1">
+      <c r="A46" s="130" t="n"/>
+      <c r="B46" s="131" t="n"/>
+      <c r="C46" s="131" t="n"/>
+      <c r="D46" s="131" t="n"/>
+      <c r="E46" s="131" t="n"/>
+      <c r="F46" s="131" t="n"/>
+      <c r="G46" s="131" t="n"/>
+      <c r="H46" s="131" t="n"/>
+      <c r="I46" s="132" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H42:I42"/>
+  <mergeCells count="58">
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="A44:I44"/>
     <mergeCell ref="A45:I46"/>
+    <mergeCell ref="A42:I42"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A40:E41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A30:I30"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A32:D33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="A30:I30"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B25:I25"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:I26"/>
     <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A16:I19"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="B23:I23"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I11"/>
     <mergeCell ref="A12:I12"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -598,186 +598,63 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -801,17 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -824,6 +690,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -834,19 +711,142 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -914,263 +914,254 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -1192,43 +1183,43 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1637,42 +1628,42 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA46"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.28515625" bestFit="1" customWidth="1" style="57" min="1" max="1"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" style="57" min="2" max="2"/>
-    <col width="17.5703125" bestFit="1" customWidth="1" style="57" min="3" max="4"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" style="57" min="5" max="5"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="57" min="6" max="6"/>
-    <col width="17.140625" bestFit="1" customWidth="1" style="57" min="7" max="7"/>
-    <col width="18.28515625" customWidth="1" style="57" min="8" max="8"/>
-    <col width="28.28515625" customWidth="1" style="58" min="9" max="9"/>
+    <col width="20.28515625" bestFit="1" customWidth="1" style="25" min="1" max="1"/>
+    <col width="19.5703125" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" style="25" min="3" max="4"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="25" min="5" max="5"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="25" min="6" max="6"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="25" min="7" max="7"/>
+    <col width="18.28515625" customWidth="1" style="25" min="8" max="8"/>
+    <col width="28.28515625" customWidth="1" style="26" min="9" max="9"/>
     <col width="13.5703125" bestFit="1" customWidth="1" min="10" max="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="109" t="n"/>
-      <c r="B1" s="110" t="inlineStr">
+      <c r="A1" s="106" t="n"/>
+      <c r="B1" s="107" t="inlineStr">
         <is>
           <t>Relatório de Não Conformidade</t>
         </is>
       </c>
-      <c r="C1" s="111" t="n"/>
-      <c r="D1" s="111" t="n"/>
-      <c r="E1" s="111" t="n"/>
-      <c r="F1" s="112" t="n"/>
-      <c r="G1" s="113" t="inlineStr">
+      <c r="C1" s="108" t="n"/>
+      <c r="D1" s="108" t="n"/>
+      <c r="E1" s="108" t="n"/>
+      <c r="F1" s="109" t="n"/>
+      <c r="G1" s="110" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="H1" s="114" t="n"/>
+      <c r="H1" s="111" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
           <t>RNC GQ-001-000</t>
@@ -1680,91 +1671,91 @@
       </c>
     </row>
     <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="115" t="n"/>
-      <c r="B2" s="116" t="n"/>
-      <c r="C2" s="117" t="n"/>
-      <c r="D2" s="117" t="n"/>
-      <c r="E2" s="117" t="n"/>
-      <c r="F2" s="118" t="n"/>
-      <c r="G2" s="113" t="inlineStr">
+      <c r="A2" s="112" t="n"/>
+      <c r="B2" s="113" t="n"/>
+      <c r="C2" s="114" t="n"/>
+      <c r="D2" s="114" t="n"/>
+      <c r="E2" s="114" t="n"/>
+      <c r="F2" s="115" t="n"/>
+      <c r="G2" s="110" t="inlineStr">
         <is>
           <t>Data de Emissão:</t>
         </is>
       </c>
-      <c r="H2" s="114" t="n"/>
+      <c r="H2" s="111" t="n"/>
       <c r="I2" s="4" t="n">
         <v>44487</v>
       </c>
     </row>
     <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="115" t="n"/>
-      <c r="B3" s="119" t="inlineStr">
+      <c r="A3" s="112" t="n"/>
+      <c r="B3" s="116" t="inlineStr">
         <is>
           <t>Gestão da Qualidade</t>
         </is>
       </c>
-      <c r="C3" s="111" t="n"/>
-      <c r="D3" s="111" t="n"/>
-      <c r="E3" s="111" t="n"/>
-      <c r="F3" s="112" t="n"/>
-      <c r="G3" s="113" t="inlineStr">
+      <c r="C3" s="108" t="n"/>
+      <c r="D3" s="108" t="n"/>
+      <c r="E3" s="108" t="n"/>
+      <c r="F3" s="109" t="n"/>
+      <c r="G3" s="110" t="inlineStr">
         <is>
           <t>Data da Última Revisão:</t>
         </is>
       </c>
-      <c r="H3" s="114" t="n"/>
+      <c r="H3" s="111" t="n"/>
       <c r="I3" s="5" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="120" t="n"/>
-      <c r="B4" s="116" t="n"/>
-      <c r="C4" s="117" t="n"/>
-      <c r="D4" s="117" t="n"/>
-      <c r="E4" s="117" t="n"/>
-      <c r="F4" s="118" t="n"/>
-      <c r="G4" s="113" t="inlineStr">
+      <c r="A4" s="117" t="n"/>
+      <c r="B4" s="113" t="n"/>
+      <c r="C4" s="114" t="n"/>
+      <c r="D4" s="114" t="n"/>
+      <c r="E4" s="114" t="n"/>
+      <c r="F4" s="115" t="n"/>
+      <c r="G4" s="110" t="inlineStr">
         <is>
           <t>Página:</t>
         </is>
       </c>
-      <c r="H4" s="114" t="n"/>
+      <c r="H4" s="111" t="n"/>
       <c r="I4" s="6" t="n">
         <v>44197</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="35" t="n"/>
-      <c r="B5" s="111" t="n"/>
-      <c r="C5" s="111" t="n"/>
-      <c r="D5" s="111" t="n"/>
-      <c r="E5" s="111" t="n"/>
-      <c r="F5" s="111" t="n"/>
-      <c r="G5" s="111" t="n"/>
-      <c r="H5" s="111" t="n"/>
-      <c r="I5" s="111" t="n"/>
+      <c r="A5" s="94" t="n"/>
+      <c r="B5" s="108" t="n"/>
+      <c r="C5" s="108" t="n"/>
+      <c r="D5" s="108" t="n"/>
+      <c r="E5" s="108" t="n"/>
+      <c r="F5" s="108" t="n"/>
+      <c r="G5" s="108" t="n"/>
+      <c r="H5" s="108" t="n"/>
+      <c r="I5" s="108" t="n"/>
     </row>
     <row r="6" ht="24.75" customHeight="1">
-      <c r="A6" s="37" t="inlineStr">
+      <c r="A6" s="96" t="inlineStr">
         <is>
           <t>1ª ETAPA - ABERTURA</t>
         </is>
       </c>
-      <c r="B6" s="111" t="n"/>
-      <c r="C6" s="111" t="n"/>
-      <c r="D6" s="111" t="n"/>
-      <c r="E6" s="121" t="n"/>
+      <c r="B6" s="108" t="n"/>
+      <c r="C6" s="108" t="n"/>
+      <c r="D6" s="108" t="n"/>
+      <c r="E6" s="118" t="n"/>
       <c r="F6" s="7" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G6" s="38" t="inlineStr">
+      <c r="G6" s="97" t="inlineStr">
         <is>
           <t>Feito</t>
         </is>
       </c>
-      <c r="H6" s="122" t="n"/>
-      <c r="I6" s="123" t="n"/>
+      <c r="H6" s="119" t="n"/>
+      <c r="I6" s="120" t="n"/>
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
       <c r="L6" s="2" t="n"/>
@@ -1785,123 +1776,122 @@
       <c r="AA6" s="1" t="n"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="41" t="inlineStr">
+      <c r="A7" s="99" t="inlineStr">
         <is>
           <t>RNC Nº</t>
         </is>
       </c>
-      <c r="B7" s="41" t="n">
-        <v>5417229751</v>
-      </c>
-      <c r="C7" s="41" t="inlineStr">
+      <c r="B7" s="99" t="n">
+        <v>5328477757</v>
+      </c>
+      <c r="C7" s="99" t="inlineStr">
         <is>
           <t>Origem:</t>
         </is>
       </c>
-      <c r="D7" s="43" t="inlineStr">
-        <is>
-          <t>Fornecedor</t>
-        </is>
-      </c>
-      <c r="E7" s="124" t="n"/>
-      <c r="F7" s="44" t="n"/>
-      <c r="G7" s="38" t="n"/>
-      <c r="H7" s="44" t="inlineStr">
+      <c r="D7" s="100" t="inlineStr">
+        <is>
+          <t>Corte e Estamparia</t>
+        </is>
+      </c>
+      <c r="E7" s="121" t="n"/>
+      <c r="F7" s="76" t="n"/>
+      <c r="G7" s="97" t="n"/>
+      <c r="H7" s="76" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
       <c r="I7" s="12" t="inlineStr">
         <is>
-          <t>17/07/2023</t>
+          <t>06/10/2023</t>
         </is>
       </c>
       <c r="L7" s="2" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="125" t="n"/>
-      <c r="B8" s="125" t="n"/>
-      <c r="C8" s="125" t="n"/>
-      <c r="D8" s="126" t="n"/>
-      <c r="E8" s="127" t="n"/>
-      <c r="F8" s="44" t="inlineStr">
+      <c r="A8" s="122" t="n"/>
+      <c r="B8" s="122" t="n"/>
+      <c r="C8" s="122" t="n"/>
+      <c r="D8" s="123" t="n"/>
+      <c r="E8" s="124" t="n"/>
+      <c r="F8" s="76" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G8" s="38" t="inlineStr">
-        <is>
-          <t>Severiano Neto, lauriene@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="H8" s="122" t="n"/>
-      <c r="I8" s="123" t="n"/>
+      <c r="G8" s="97" t="inlineStr">
+        <is>
+          <t>abdias@cemag.com.br</t>
+        </is>
+      </c>
+      <c r="H8" s="119" t="n"/>
+      <c r="I8" s="120" t="n"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="44" t="inlineStr">
+      <c r="A9" s="76" t="inlineStr">
         <is>
           <t>Descrição do Problema</t>
         </is>
       </c>
-      <c r="B9" s="122" t="n"/>
-      <c r="C9" s="122" t="n"/>
-      <c r="D9" s="122" t="n"/>
-      <c r="E9" s="122" t="n"/>
-      <c r="F9" s="122" t="n"/>
-      <c r="G9" s="122" t="n"/>
-      <c r="H9" s="122" t="n"/>
-      <c r="I9" s="123" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="45" t="inlineStr">
-        <is>
-          <t>07/07/2023
-Cubos de roda referentes ao pedido de NF Nº. 000.037.127, apresentando dificuldade de montagem dos parafuso de roda no processo de fixação dos mesmo feito pelo almoxarifado. Uma amostra de cubo chegou a tricar devido a aplicação de força da máquina na tentativa de fixação.</t>
-        </is>
-      </c>
-      <c r="B10" s="128" t="n"/>
-      <c r="C10" s="128" t="n"/>
-      <c r="D10" s="128" t="n"/>
-      <c r="E10" s="128" t="n"/>
-      <c r="F10" s="128" t="n"/>
-      <c r="G10" s="128" t="n"/>
-      <c r="H10" s="128" t="n"/>
-      <c r="I10" s="124" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="126" t="n"/>
-      <c r="B11" s="129" t="n"/>
-      <c r="C11" s="129" t="n"/>
-      <c r="D11" s="129" t="n"/>
-      <c r="E11" s="129" t="n"/>
-      <c r="F11" s="129" t="n"/>
-      <c r="G11" s="129" t="n"/>
-      <c r="H11" s="129" t="n"/>
-      <c r="I11" s="127" t="n"/>
+      <c r="B9" s="119" t="n"/>
+      <c r="C9" s="119" t="n"/>
+      <c r="D9" s="119" t="n"/>
+      <c r="E9" s="119" t="n"/>
+      <c r="F9" s="119" t="n"/>
+      <c r="G9" s="119" t="n"/>
+      <c r="H9" s="119" t="n"/>
+      <c r="I9" s="120" t="n"/>
+    </row>
+    <row r="10" ht="24.95" customHeight="1">
+      <c r="A10" s="82" t="inlineStr">
+        <is>
+          <t>No dia 06/10/2023 foram produzidas 80 que tem por código 025546 - FECHAM EIXO F4 (NOV13...) apresentando medida de virada 10mm menor.</t>
+        </is>
+      </c>
+      <c r="B10" s="125" t="n"/>
+      <c r="C10" s="125" t="n"/>
+      <c r="D10" s="125" t="n"/>
+      <c r="E10" s="125" t="n"/>
+      <c r="F10" s="125" t="n"/>
+      <c r="G10" s="125" t="n"/>
+      <c r="H10" s="125" t="n"/>
+      <c r="I10" s="121" t="n"/>
+    </row>
+    <row r="11" ht="24.95" customHeight="1">
+      <c r="A11" s="123" t="n"/>
+      <c r="B11" s="126" t="n"/>
+      <c r="C11" s="126" t="n"/>
+      <c r="D11" s="126" t="n"/>
+      <c r="E11" s="126" t="n"/>
+      <c r="F11" s="126" t="n"/>
+      <c r="G11" s="126" t="n"/>
+      <c r="H11" s="126" t="n"/>
+      <c r="I11" s="124" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="48" t="n"/>
-      <c r="B12" s="128" t="n"/>
-      <c r="C12" s="128" t="n"/>
-      <c r="D12" s="128" t="n"/>
-      <c r="E12" s="128" t="n"/>
-      <c r="F12" s="128" t="n"/>
-      <c r="G12" s="128" t="n"/>
-      <c r="H12" s="128" t="n"/>
-      <c r="I12" s="128" t="n"/>
+      <c r="A12" s="87" t="n"/>
+      <c r="B12" s="125" t="n"/>
+      <c r="C12" s="125" t="n"/>
+      <c r="D12" s="125" t="n"/>
+      <c r="E12" s="125" t="n"/>
+      <c r="F12" s="125" t="n"/>
+      <c r="G12" s="125" t="n"/>
+      <c r="H12" s="125" t="n"/>
+      <c r="I12" s="125" t="n"/>
     </row>
     <row r="13" ht="23.25" customHeight="1">
-      <c r="A13" s="50" t="inlineStr">
+      <c r="A13" s="83" t="inlineStr">
         <is>
           <t>2ª ETAPA - AÇÃO IMEDIATA</t>
         </is>
       </c>
-      <c r="B13" s="111" t="n"/>
-      <c r="C13" s="111" t="n"/>
-      <c r="D13" s="111" t="n"/>
-      <c r="E13" s="121" t="n"/>
+      <c r="B13" s="108" t="n"/>
+      <c r="C13" s="108" t="n"/>
+      <c r="D13" s="108" t="n"/>
+      <c r="E13" s="118" t="n"/>
       <c r="F13" s="13" t="n"/>
-      <c r="G13" s="38" t="n"/>
+      <c r="G13" s="97" t="n"/>
       <c r="H13" s="13" t="inlineStr">
         <is>
           <t>Data</t>
@@ -1909,77 +1899,77 @@
       </c>
       <c r="I13" s="12" t="inlineStr">
         <is>
-          <t>17/07/2023</t>
+          <t>06/10/2023</t>
         </is>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="130" t="n"/>
-      <c r="B14" s="131" t="n"/>
-      <c r="C14" s="131" t="n"/>
-      <c r="D14" s="131" t="n"/>
-      <c r="E14" s="132" t="n"/>
+      <c r="A14" s="127" t="n"/>
+      <c r="B14" s="128" t="n"/>
+      <c r="C14" s="128" t="n"/>
+      <c r="D14" s="128" t="n"/>
+      <c r="E14" s="129" t="n"/>
       <c r="F14" s="14" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G14" s="53" t="inlineStr">
-        <is>
-          <t>Severiano Neto, lauriene@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="H14" s="128" t="n"/>
-      <c r="I14" s="124" t="n"/>
+      <c r="G14" s="91" t="inlineStr">
+        <is>
+          <t>abdias@cemag.com.br</t>
+        </is>
+      </c>
+      <c r="H14" s="125" t="n"/>
+      <c r="I14" s="121" t="n"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="44" t="inlineStr">
+      <c r="A15" s="76" t="inlineStr">
         <is>
           <t>Ação imediata</t>
         </is>
       </c>
-      <c r="B15" s="122" t="n"/>
-      <c r="C15" s="122" t="n"/>
-      <c r="D15" s="122" t="n"/>
-      <c r="E15" s="122" t="n"/>
-      <c r="F15" s="122" t="n"/>
-      <c r="G15" s="122" t="n"/>
-      <c r="H15" s="122" t="n"/>
-      <c r="I15" s="123" t="n"/>
+      <c r="B15" s="119" t="n"/>
+      <c r="C15" s="119" t="n"/>
+      <c r="D15" s="119" t="n"/>
+      <c r="E15" s="119" t="n"/>
+      <c r="F15" s="119" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="119" t="n"/>
+      <c r="I15" s="120" t="n"/>
     </row>
     <row r="16" ht="27.95" customHeight="1">
-      <c r="A16" s="45" t="inlineStr">
-        <is>
-          <t>Cortar relações com fornecedor Fundição BB, segregar material e informar que só pode ser usado em cbhm4500 mediante reabertura dos furos.</t>
-        </is>
-      </c>
-      <c r="B16" s="128" t="n"/>
-      <c r="C16" s="128" t="n"/>
-      <c r="D16" s="128" t="n"/>
-      <c r="E16" s="128" t="n"/>
-      <c r="F16" s="128" t="n"/>
-      <c r="G16" s="128" t="n"/>
-      <c r="H16" s="128" t="n"/>
-      <c r="I16" s="124" t="n"/>
+      <c r="A16" s="82" t="inlineStr">
+        <is>
+          <t>Inspetor Gutemberg no dia 06/10/2023 realizou retrabalho das 80 peças utilizando calandra para desfazer a virada e as peças retornaram para serem viradas na produção.</t>
+        </is>
+      </c>
+      <c r="B16" s="125" t="n"/>
+      <c r="C16" s="125" t="n"/>
+      <c r="D16" s="125" t="n"/>
+      <c r="E16" s="125" t="n"/>
+      <c r="F16" s="125" t="n"/>
+      <c r="G16" s="125" t="n"/>
+      <c r="H16" s="125" t="n"/>
+      <c r="I16" s="121" t="n"/>
     </row>
     <row r="17" ht="27.95" customHeight="1">
-      <c r="A17" s="133" t="n"/>
-      <c r="I17" s="134" t="n"/>
+      <c r="A17" s="130" t="n"/>
+      <c r="I17" s="131" t="n"/>
     </row>
     <row r="18" ht="27.95" customHeight="1">
-      <c r="A18" s="133" t="n"/>
-      <c r="I18" s="134" t="n"/>
+      <c r="A18" s="130" t="n"/>
+      <c r="I18" s="131" t="n"/>
     </row>
     <row r="19" ht="23.25" customHeight="1">
-      <c r="A19" s="126" t="n"/>
-      <c r="B19" s="129" t="n"/>
-      <c r="C19" s="129" t="n"/>
-      <c r="D19" s="129" t="n"/>
-      <c r="E19" s="129" t="n"/>
-      <c r="F19" s="129" t="n"/>
-      <c r="G19" s="129" t="n"/>
-      <c r="H19" s="129" t="n"/>
-      <c r="I19" s="127" t="n"/>
+      <c r="A19" s="123" t="n"/>
+      <c r="B19" s="126" t="n"/>
+      <c r="C19" s="126" t="n"/>
+      <c r="D19" s="126" t="n"/>
+      <c r="E19" s="126" t="n"/>
+      <c r="F19" s="126" t="n"/>
+      <c r="G19" s="126" t="n"/>
+      <c r="H19" s="126" t="n"/>
+      <c r="I19" s="124" t="n"/>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
@@ -2000,64 +1990,68 @@
       <c r="AA19" s="1" t="n"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="98" t="n"/>
-      <c r="B20" s="131" t="n"/>
-      <c r="C20" s="131" t="n"/>
-      <c r="D20" s="131" t="n"/>
-      <c r="E20" s="131" t="n"/>
-      <c r="F20" s="131" t="n"/>
-      <c r="G20" s="131" t="n"/>
-      <c r="H20" s="131" t="n"/>
-      <c r="I20" s="132" t="n"/>
+      <c r="A20" s="79" t="n"/>
+      <c r="B20" s="128" t="n"/>
+      <c r="C20" s="128" t="n"/>
+      <c r="D20" s="128" t="n"/>
+      <c r="E20" s="128" t="n"/>
+      <c r="F20" s="128" t="n"/>
+      <c r="G20" s="128" t="n"/>
+      <c r="H20" s="128" t="n"/>
+      <c r="I20" s="129" t="n"/>
     </row>
     <row r="21" ht="23.25" customHeight="1">
-      <c r="A21" s="50" t="inlineStr">
+      <c r="A21" s="83" t="inlineStr">
         <is>
           <t>3ª ETAPA - ANÁLISE DE CAUZA RAIZ</t>
         </is>
       </c>
-      <c r="B21" s="111" t="n"/>
-      <c r="C21" s="111" t="n"/>
-      <c r="D21" s="111" t="n"/>
-      <c r="E21" s="121" t="n"/>
+      <c r="B21" s="108" t="n"/>
+      <c r="C21" s="108" t="n"/>
+      <c r="D21" s="108" t="n"/>
+      <c r="E21" s="118" t="n"/>
       <c r="F21" s="17" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="G21" s="108" t="n">
-        <v/>
-      </c>
-      <c r="H21" s="135" t="n"/>
-      <c r="I21" s="112" t="n"/>
+      <c r="G21" s="23" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="H21" s="132" t="n"/>
+      <c r="I21" s="109" t="n"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="130" t="n"/>
-      <c r="B22" s="131" t="n"/>
-      <c r="C22" s="131" t="n"/>
-      <c r="D22" s="131" t="n"/>
-      <c r="E22" s="132" t="n"/>
-      <c r="F22" s="66" t="n"/>
-      <c r="G22" s="136" t="n"/>
-      <c r="H22" s="117" t="n"/>
-      <c r="I22" s="118" t="n"/>
+      <c r="A22" s="127" t="n"/>
+      <c r="B22" s="128" t="n"/>
+      <c r="C22" s="128" t="n"/>
+      <c r="D22" s="128" t="n"/>
+      <c r="E22" s="129" t="n"/>
+      <c r="F22" s="74" t="n"/>
+      <c r="G22" s="133" t="n"/>
+      <c r="H22" s="114" t="n"/>
+      <c r="I22" s="115" t="n"/>
     </row>
     <row r="23" ht="45" customHeight="1">
-      <c r="A23" s="104" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Máquina</t>
         </is>
       </c>
-      <c r="B23" s="105" t="n">
-        <v/>
-      </c>
-      <c r="C23" s="137" t="n"/>
-      <c r="D23" s="137" t="n"/>
-      <c r="E23" s="137" t="n"/>
-      <c r="F23" s="137" t="n"/>
-      <c r="G23" s="137" t="n"/>
-      <c r="H23" s="137" t="n"/>
-      <c r="I23" s="138" t="n"/>
+      <c r="B23" s="84" t="inlineStr">
+        <is>
+          <t>Virada realizada na viradeira 4, como de costume.</t>
+        </is>
+      </c>
+      <c r="C23" s="134" t="n"/>
+      <c r="D23" s="134" t="n"/>
+      <c r="E23" s="134" t="n"/>
+      <c r="F23" s="134" t="n"/>
+      <c r="G23" s="134" t="n"/>
+      <c r="H23" s="134" t="n"/>
+      <c r="I23" s="135" t="n"/>
     </row>
     <row r="24" ht="45" customHeight="1">
       <c r="A24" s="8" t="inlineStr">
@@ -2065,16 +2059,18 @@
           <t>Mão-de-Obra</t>
         </is>
       </c>
-      <c r="B24" s="59" t="n">
-        <v/>
-      </c>
-      <c r="C24" s="137" t="n"/>
-      <c r="D24" s="137" t="n"/>
-      <c r="E24" s="137" t="n"/>
-      <c r="F24" s="137" t="n"/>
-      <c r="G24" s="137" t="n"/>
-      <c r="H24" s="137" t="n"/>
-      <c r="I24" s="138" t="n"/>
+      <c r="B24" s="63" t="inlineStr">
+        <is>
+          <t>Colaborador que realizou a virada foi Célio (Gato a Jato), esse colaborador não é um operador treinado, ele é um ajudante.</t>
+        </is>
+      </c>
+      <c r="C24" s="134" t="n"/>
+      <c r="D24" s="134" t="n"/>
+      <c r="E24" s="134" t="n"/>
+      <c r="F24" s="134" t="n"/>
+      <c r="G24" s="134" t="n"/>
+      <c r="H24" s="134" t="n"/>
+      <c r="I24" s="135" t="n"/>
     </row>
     <row r="25" ht="45" customHeight="1">
       <c r="A25" s="8" t="inlineStr">
@@ -2082,16 +2078,18 @@
           <t>Matéria Prima</t>
         </is>
       </c>
-      <c r="B25" s="59" t="n">
-        <v/>
-      </c>
-      <c r="C25" s="137" t="n"/>
-      <c r="D25" s="137" t="n"/>
-      <c r="E25" s="137" t="n"/>
-      <c r="F25" s="137" t="n"/>
-      <c r="G25" s="137" t="n"/>
-      <c r="H25" s="137" t="n"/>
-      <c r="I25" s="138" t="n"/>
+      <c r="B25" s="63" t="inlineStr">
+        <is>
+          <t>Medidas da peça cortada estavam corformes.</t>
+        </is>
+      </c>
+      <c r="C25" s="134" t="n"/>
+      <c r="D25" s="134" t="n"/>
+      <c r="E25" s="134" t="n"/>
+      <c r="F25" s="134" t="n"/>
+      <c r="G25" s="134" t="n"/>
+      <c r="H25" s="134" t="n"/>
+      <c r="I25" s="135" t="n"/>
     </row>
     <row r="26" ht="45" customHeight="1">
       <c r="A26" s="8" t="inlineStr">
@@ -2099,16 +2097,18 @@
           <t>Medição</t>
         </is>
       </c>
-      <c r="B26" s="59" t="n">
-        <v/>
-      </c>
-      <c r="C26" s="137" t="n"/>
-      <c r="D26" s="137" t="n"/>
-      <c r="E26" s="137" t="n"/>
-      <c r="F26" s="137" t="n"/>
-      <c r="G26" s="137" t="n"/>
-      <c r="H26" s="137" t="n"/>
-      <c r="I26" s="138" t="n"/>
+      <c r="B26" s="63" t="inlineStr">
+        <is>
+          <t>Operador possui uma trena em pessima condições, com graduações descascando e nao estando no plano de calibração.</t>
+        </is>
+      </c>
+      <c r="C26" s="134" t="n"/>
+      <c r="D26" s="134" t="n"/>
+      <c r="E26" s="134" t="n"/>
+      <c r="F26" s="134" t="n"/>
+      <c r="G26" s="134" t="n"/>
+      <c r="H26" s="134" t="n"/>
+      <c r="I26" s="135" t="n"/>
     </row>
     <row r="27" ht="45" customHeight="1">
       <c r="A27" s="8" t="inlineStr">
@@ -2116,16 +2116,18 @@
           <t>Método</t>
         </is>
       </c>
-      <c r="B27" s="59" t="n">
-        <v/>
-      </c>
-      <c r="C27" s="137" t="n"/>
-      <c r="D27" s="137" t="n"/>
-      <c r="E27" s="137" t="n"/>
-      <c r="F27" s="137" t="n"/>
-      <c r="G27" s="137" t="n"/>
-      <c r="H27" s="137" t="n"/>
-      <c r="I27" s="138" t="n"/>
+      <c r="B27" s="63" t="inlineStr">
+        <is>
+          <t>O supervisor ao repassar a  atividade informou sobre o gabarito na viradeira a qual a peça deveria encostar para realizar a virada.</t>
+        </is>
+      </c>
+      <c r="C27" s="134" t="n"/>
+      <c r="D27" s="134" t="n"/>
+      <c r="E27" s="134" t="n"/>
+      <c r="F27" s="134" t="n"/>
+      <c r="G27" s="134" t="n"/>
+      <c r="H27" s="134" t="n"/>
+      <c r="I27" s="135" t="n"/>
     </row>
     <row r="28" ht="45" customHeight="1">
       <c r="A28" s="8" t="inlineStr">
@@ -2133,59 +2135,61 @@
           <t>Meio Ambiente</t>
         </is>
       </c>
-      <c r="B28" s="59" t="n">
+      <c r="B28" s="63" t="n">
         <v/>
       </c>
-      <c r="C28" s="137" t="n"/>
-      <c r="D28" s="137" t="n"/>
-      <c r="E28" s="137" t="n"/>
-      <c r="F28" s="137" t="n"/>
-      <c r="G28" s="137" t="n"/>
-      <c r="H28" s="137" t="n"/>
-      <c r="I28" s="138" t="n"/>
+      <c r="C28" s="134" t="n"/>
+      <c r="D28" s="134" t="n"/>
+      <c r="E28" s="134" t="n"/>
+      <c r="F28" s="134" t="n"/>
+      <c r="G28" s="134" t="n"/>
+      <c r="H28" s="134" t="n"/>
+      <c r="I28" s="135" t="n"/>
     </row>
     <row r="29" ht="45" customHeight="1">
-      <c r="A29" s="68" t="inlineStr">
+      <c r="A29" s="66" t="inlineStr">
         <is>
           <t>Presentes:</t>
         </is>
       </c>
-      <c r="B29" s="139" t="n"/>
-      <c r="C29" s="69" t="n">
-        <v/>
-      </c>
-      <c r="D29" s="136" t="n"/>
-      <c r="E29" s="136" t="n"/>
-      <c r="F29" s="136" t="n"/>
-      <c r="G29" s="136" t="n"/>
-      <c r="H29" s="136" t="n"/>
-      <c r="I29" s="139" t="n"/>
+      <c r="B29" s="136" t="n"/>
+      <c r="C29" s="68" t="inlineStr">
+        <is>
+          <t>Estefane, Severiano, Guthemberg</t>
+        </is>
+      </c>
+      <c r="D29" s="133" t="n"/>
+      <c r="E29" s="133" t="n"/>
+      <c r="F29" s="133" t="n"/>
+      <c r="G29" s="133" t="n"/>
+      <c r="H29" s="133" t="n"/>
+      <c r="I29" s="136" t="n"/>
     </row>
     <row r="30" ht="6" customHeight="1">
-      <c r="A30" s="56" t="n"/>
-      <c r="B30" s="140" t="n"/>
-      <c r="C30" s="140" t="n"/>
-      <c r="D30" s="140" t="n"/>
-      <c r="E30" s="140" t="n"/>
-      <c r="F30" s="140" t="n"/>
-      <c r="G30" s="140" t="n"/>
-      <c r="H30" s="140" t="n"/>
-      <c r="I30" s="141" t="n"/>
+      <c r="A30" s="24" t="n"/>
+      <c r="B30" s="137" t="n"/>
+      <c r="C30" s="137" t="n"/>
+      <c r="D30" s="137" t="n"/>
+      <c r="E30" s="137" t="n"/>
+      <c r="F30" s="137" t="n"/>
+      <c r="G30" s="137" t="n"/>
+      <c r="H30" s="137" t="n"/>
+      <c r="I30" s="138" t="n"/>
     </row>
     <row r="31" ht="36.75" customHeight="1">
-      <c r="A31" s="72" t="inlineStr">
+      <c r="A31" s="52" t="inlineStr">
         <is>
           <t>3ªETAPA - PLANO DE AÇÃO</t>
         </is>
       </c>
-      <c r="B31" s="137" t="n"/>
-      <c r="C31" s="137" t="n"/>
-      <c r="D31" s="137" t="n"/>
-      <c r="E31" s="137" t="n"/>
-      <c r="F31" s="137" t="n"/>
-      <c r="G31" s="137" t="n"/>
-      <c r="H31" s="137" t="n"/>
-      <c r="I31" s="138" t="n"/>
+      <c r="B31" s="134" t="n"/>
+      <c r="C31" s="134" t="n"/>
+      <c r="D31" s="134" t="n"/>
+      <c r="E31" s="134" t="n"/>
+      <c r="F31" s="134" t="n"/>
+      <c r="G31" s="134" t="n"/>
+      <c r="H31" s="134" t="n"/>
+      <c r="I31" s="135" t="n"/>
       <c r="J31" s="1" t="n"/>
       <c r="K31" s="1" t="n"/>
       <c r="L31" s="1" t="n"/>
@@ -2206,356 +2210,379 @@
       <c r="AA31" s="1" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="74" t="inlineStr">
+      <c r="A32" s="53" t="inlineStr">
         <is>
           <t>Atividade</t>
         </is>
       </c>
-      <c r="B32" s="111" t="n"/>
-      <c r="C32" s="111" t="n"/>
-      <c r="D32" s="121" t="n"/>
-      <c r="E32" s="75" t="inlineStr">
+      <c r="B32" s="108" t="n"/>
+      <c r="C32" s="108" t="n"/>
+      <c r="D32" s="118" t="n"/>
+      <c r="E32" s="55" t="inlineStr">
         <is>
           <t>Responsável</t>
         </is>
       </c>
-      <c r="F32" s="142" t="inlineStr">
+      <c r="F32" s="139" t="inlineStr">
         <is>
           <t>Executor</t>
         </is>
       </c>
-      <c r="G32" s="143" t="n"/>
-      <c r="H32" s="144" t="inlineStr">
+      <c r="G32" s="140" t="n"/>
+      <c r="H32" s="141" t="inlineStr">
         <is>
           <t>Previsão</t>
         </is>
       </c>
-      <c r="I32" s="144" t="inlineStr">
+      <c r="I32" s="141" t="inlineStr">
         <is>
           <t>Realizado</t>
         </is>
       </c>
     </row>
     <row r="33" ht="9" customHeight="1">
-      <c r="A33" s="130" t="n"/>
-      <c r="B33" s="131" t="n"/>
-      <c r="C33" s="131" t="n"/>
-      <c r="D33" s="132" t="n"/>
-      <c r="E33" s="145" t="n"/>
-      <c r="F33" s="146" t="n"/>
-      <c r="G33" s="134" t="n"/>
-      <c r="H33" s="125" t="n"/>
-      <c r="I33" s="125" t="n"/>
+      <c r="A33" s="127" t="n"/>
+      <c r="B33" s="128" t="n"/>
+      <c r="C33" s="128" t="n"/>
+      <c r="D33" s="129" t="n"/>
+      <c r="E33" s="142" t="n"/>
+      <c r="F33" s="143" t="n"/>
+      <c r="G33" s="131" t="n"/>
+      <c r="H33" s="122" t="n"/>
+      <c r="I33" s="122" t="n"/>
     </row>
     <row r="34" ht="28.5" customHeight="1">
-      <c r="A34" s="82" t="inlineStr">
-        <is>
-          <t>Realizar ensaios necessáruos</t>
-        </is>
-      </c>
-      <c r="B34" s="136" t="n"/>
-      <c r="C34" s="136" t="n"/>
-      <c r="D34" s="139" t="n"/>
+      <c r="A34" s="38" t="inlineStr">
+        <is>
+          <t>Entregar trena calibrada para o colaborador.</t>
+        </is>
+      </c>
+      <c r="B34" s="133" t="n"/>
+      <c r="C34" s="133" t="n"/>
+      <c r="D34" s="136" t="n"/>
       <c r="E34" s="9" t="inlineStr">
         <is>
-          <t>Severiano Neto</t>
-        </is>
-      </c>
-      <c r="F34" s="147" t="inlineStr">
-        <is>
-          <t>Severiano</t>
-        </is>
-      </c>
-      <c r="G34" s="123" t="n"/>
+          <t>Estefane Santos</t>
+        </is>
+      </c>
+      <c r="F34" s="144" t="inlineStr">
+        <is>
+          <t>Estefane</t>
+        </is>
+      </c>
+      <c r="G34" s="120" t="n"/>
       <c r="H34" s="18" t="inlineStr">
         <is>
-          <t>07/07/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="I34" s="18" t="n">
-        <v>45118</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="35" ht="28.5" customHeight="1">
-      <c r="A35" s="82" t="inlineStr">
-        <is>
-          <t>Repassar problemática para fornecedor</t>
-        </is>
-      </c>
-      <c r="B35" s="136" t="n"/>
-      <c r="C35" s="136" t="n"/>
-      <c r="D35" s="139" t="n"/>
+      <c r="A35" s="38" t="inlineStr">
+        <is>
+          <t>Reforçar com inspetor da área a importancia do acompanhamento das atividades que forem exercidas pela 1° Vez</t>
+        </is>
+      </c>
+      <c r="B35" s="133" t="n"/>
+      <c r="C35" s="133" t="n"/>
+      <c r="D35" s="136" t="n"/>
       <c r="E35" s="9" t="inlineStr">
         <is>
-          <t>lauriene@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="F35" s="147" t="inlineStr">
-        <is>
-          <t>Lauriene</t>
-        </is>
-      </c>
-      <c r="G35" s="123" t="n"/>
+          <t>Estefane Santos</t>
+        </is>
+      </c>
+      <c r="F35" s="144" t="inlineStr">
+        <is>
+          <t>Estefane</t>
+        </is>
+      </c>
+      <c r="G35" s="120" t="n"/>
       <c r="H35" s="18" t="inlineStr">
         <is>
-          <t>17/07/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="I35" s="18" t="n">
-        <v>45124</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="36" ht="28.5" customHeight="1">
-      <c r="A36" s="82" t="inlineStr">
-        <is>
-          <t>Segregar e identificar material</t>
-        </is>
-      </c>
-      <c r="B36" s="136" t="n"/>
-      <c r="C36" s="136" t="n"/>
-      <c r="D36" s="139" t="n"/>
+      <c r="A36" s="38" t="inlineStr">
+        <is>
+          <t>Alinhar com a Supervisão que a atividade de virada não pode ser realizada por um ajudante não treinado</t>
+        </is>
+      </c>
+      <c r="B36" s="133" t="n"/>
+      <c r="C36" s="133" t="n"/>
+      <c r="D36" s="136" t="n"/>
       <c r="E36" s="9" t="inlineStr">
         <is>
-          <t>Estefane Santos</t>
-        </is>
-      </c>
-      <c r="F36" s="147" t="inlineStr">
-        <is>
-          <t>Estefane</t>
-        </is>
-      </c>
-      <c r="G36" s="123" t="n"/>
+          <t>Severiano Neto, Estefane Santos</t>
+        </is>
+      </c>
+      <c r="F36" s="144" t="inlineStr">
+        <is>
+          <t>Alex, Severiano, Estefane, Guthemberg</t>
+        </is>
+      </c>
+      <c r="G36" s="120" t="n"/>
       <c r="H36" s="18" t="inlineStr">
         <is>
-          <t>17/07/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="I36" s="18" t="n">
-        <v>45229</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="37" ht="28.5" customHeight="1">
-      <c r="A37" s="82" t="inlineStr"/>
-      <c r="B37" s="136" t="n"/>
-      <c r="C37" s="136" t="n"/>
-      <c r="D37" s="139" t="n"/>
+      <c r="A37" s="38" t="inlineStr"/>
+      <c r="B37" s="133" t="n"/>
+      <c r="C37" s="133" t="n"/>
+      <c r="D37" s="136" t="n"/>
       <c r="E37" s="9" t="inlineStr"/>
-      <c r="F37" s="147" t="inlineStr"/>
-      <c r="G37" s="123" t="n"/>
+      <c r="F37" s="144" t="inlineStr"/>
+      <c r="G37" s="120" t="n"/>
       <c r="H37" s="18" t="inlineStr"/>
       <c r="I37" s="18" t="inlineStr"/>
     </row>
     <row r="38" ht="28.5" customHeight="1">
-      <c r="A38" s="82" t="n"/>
-      <c r="B38" s="136" t="n"/>
-      <c r="C38" s="136" t="n"/>
-      <c r="D38" s="139" t="n"/>
+      <c r="A38" s="38" t="n"/>
+      <c r="B38" s="133" t="n"/>
+      <c r="C38" s="133" t="n"/>
+      <c r="D38" s="136" t="n"/>
       <c r="E38" s="9" t="n"/>
-      <c r="F38" s="147" t="n"/>
-      <c r="G38" s="123" t="n"/>
+      <c r="F38" s="144" t="n"/>
+      <c r="G38" s="120" t="n"/>
       <c r="H38" s="18" t="n"/>
       <c r="I38" s="18" t="n"/>
     </row>
-    <row r="39" ht="6" customHeight="1">
-      <c r="A39" s="89" t="n"/>
-      <c r="B39" s="136" t="n"/>
-      <c r="C39" s="136" t="n"/>
+    <row r="39" ht="28.5" customHeight="1">
+      <c r="A39" s="38" t="n"/>
+      <c r="B39" s="133" t="n"/>
+      <c r="C39" s="133" t="n"/>
       <c r="D39" s="136" t="n"/>
-      <c r="E39" s="136" t="n"/>
-      <c r="F39" s="136" t="n"/>
-      <c r="G39" s="136" t="n"/>
-      <c r="H39" s="136" t="n"/>
-      <c r="I39" s="139" t="n"/>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="91" t="inlineStr">
+      <c r="E39" s="9" t="n"/>
+      <c r="F39" s="144" t="n"/>
+      <c r="G39" s="120" t="n"/>
+      <c r="H39" s="18" t="n"/>
+      <c r="I39" s="18" t="n"/>
+    </row>
+    <row r="40" ht="28.5" customHeight="1">
+      <c r="A40" s="38" t="n"/>
+      <c r="B40" s="133" t="n"/>
+      <c r="C40" s="133" t="n"/>
+      <c r="D40" s="136" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="144" t="n"/>
+      <c r="G40" s="120" t="n"/>
+      <c r="H40" s="18" t="n"/>
+      <c r="I40" s="18" t="n"/>
+    </row>
+    <row r="41" ht="28.5" customHeight="1">
+      <c r="A41" s="38" t="n"/>
+      <c r="B41" s="133" t="n"/>
+      <c r="C41" s="133" t="n"/>
+      <c r="D41" s="136" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="144" t="n"/>
+      <c r="G41" s="120" t="n"/>
+      <c r="H41" s="18" t="n"/>
+      <c r="I41" s="18" t="n"/>
+    </row>
+    <row r="42" ht="28.5" customHeight="1">
+      <c r="A42" s="38" t="n"/>
+      <c r="B42" s="133" t="n"/>
+      <c r="C42" s="133" t="n"/>
+      <c r="D42" s="136" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="144" t="n"/>
+      <c r="G42" s="120" t="n"/>
+      <c r="H42" s="18" t="n"/>
+      <c r="I42" s="18" t="n"/>
+    </row>
+    <row r="43" ht="28.5" customHeight="1">
+      <c r="A43" s="38" t="n"/>
+      <c r="B43" s="133" t="n"/>
+      <c r="C43" s="133" t="n"/>
+      <c r="D43" s="136" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="144" t="n"/>
+      <c r="G43" s="120" t="n"/>
+      <c r="H43" s="18" t="n"/>
+      <c r="I43" s="18" t="n"/>
+    </row>
+    <row r="44" ht="6" customHeight="1">
+      <c r="A44" s="43" t="n"/>
+      <c r="B44" s="133" t="n"/>
+      <c r="C44" s="133" t="n"/>
+      <c r="D44" s="133" t="n"/>
+      <c r="E44" s="133" t="n"/>
+      <c r="F44" s="133" t="n"/>
+      <c r="G44" s="133" t="n"/>
+      <c r="H44" s="133" t="n"/>
+      <c r="I44" s="136" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="46" t="inlineStr">
         <is>
           <t>4ª ETAPA - EFICÁCIA</t>
         </is>
       </c>
-      <c r="B40" s="148" t="n"/>
-      <c r="C40" s="148" t="n"/>
-      <c r="D40" s="148" t="n"/>
-      <c r="E40" s="149" t="n"/>
-      <c r="F40" s="19" t="n"/>
-      <c r="G40" s="20" t="n"/>
-      <c r="H40" s="19" t="inlineStr">
+      <c r="B45" s="145" t="n"/>
+      <c r="C45" s="145" t="n"/>
+      <c r="D45" s="145" t="n"/>
+      <c r="E45" s="146" t="n"/>
+      <c r="F45" s="19" t="n"/>
+      <c r="G45" s="20" t="n"/>
+      <c r="H45" s="19" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="I40" s="21" t="inlineStr">
-        <is>
-          <t>06/11/2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="130" t="n"/>
-      <c r="B41" s="131" t="n"/>
-      <c r="C41" s="131" t="n"/>
-      <c r="D41" s="131" t="n"/>
-      <c r="E41" s="132" t="n"/>
-      <c r="F41" s="22" t="inlineStr">
+      <c r="I45" s="21" t="inlineStr"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="127" t="n"/>
+      <c r="B46" s="128" t="n"/>
+      <c r="C46" s="128" t="n"/>
+      <c r="D46" s="128" t="n"/>
+      <c r="E46" s="129" t="n"/>
+      <c r="F46" s="22" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G41" s="93" t="inlineStr">
-        <is>
-          <t>Estefane Santos</t>
-        </is>
-      </c>
-      <c r="H41" s="140" t="n"/>
-      <c r="I41" s="141" t="n"/>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="A42" s="150" t="inlineStr">
+      <c r="G46" s="49" t="n">
+        <v/>
+      </c>
+      <c r="H46" s="137" t="n"/>
+      <c r="I46" s="138" t="n"/>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="147" t="inlineStr">
         <is>
           <t>As ações corretivas foram eficazes? (Caso não, abrir nova RNC)</t>
         </is>
       </c>
-      <c r="B42" s="111" t="n"/>
-      <c r="C42" s="111" t="n"/>
-      <c r="D42" s="111" t="n"/>
-      <c r="E42" s="111" t="n"/>
-      <c r="F42" s="111" t="n"/>
-      <c r="G42" s="111" t="n"/>
-      <c r="H42" s="111" t="n"/>
-      <c r="I42" s="112" t="n"/>
-      <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
-      <c r="L42" s="1" t="n"/>
-      <c r="M42" s="1" t="n"/>
-      <c r="N42" s="1" t="n"/>
-      <c r="O42" s="1" t="n"/>
-      <c r="P42" s="1" t="n"/>
-      <c r="Q42" s="1" t="n"/>
-      <c r="R42" s="1" t="n"/>
-      <c r="S42" s="1" t="n"/>
-      <c r="T42" s="1" t="n"/>
-      <c r="U42" s="1" t="n"/>
-      <c r="V42" s="1" t="n"/>
-      <c r="W42" s="1" t="n"/>
-      <c r="X42" s="1" t="n"/>
-      <c r="Y42" s="1" t="n"/>
-      <c r="Z42" s="1" t="n"/>
-      <c r="AA42" s="1" t="n"/>
-    </row>
-    <row r="43" ht="6" customHeight="1">
-      <c r="A43" s="56" t="n"/>
-      <c r="B43" s="140" t="n"/>
-      <c r="C43" s="140" t="n"/>
-      <c r="D43" s="140" t="n"/>
-      <c r="E43" s="140" t="n"/>
-      <c r="F43" s="140" t="n"/>
-      <c r="G43" s="140" t="n"/>
-      <c r="H43" s="140" t="n"/>
-      <c r="I43" s="141" t="n"/>
-    </row>
-    <row r="44" ht="36.75" customHeight="1">
-      <c r="A44" s="95" t="inlineStr">
+      <c r="B47" s="108" t="n"/>
+      <c r="C47" s="108" t="n"/>
+      <c r="D47" s="108" t="n"/>
+      <c r="E47" s="108" t="n"/>
+      <c r="F47" s="108" t="n"/>
+      <c r="G47" s="108" t="n"/>
+      <c r="H47" s="108" t="n"/>
+      <c r="I47" s="109" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+      <c r="O47" s="1" t="n"/>
+      <c r="P47" s="1" t="n"/>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="n"/>
+      <c r="S47" s="1" t="n"/>
+      <c r="T47" s="1" t="n"/>
+      <c r="U47" s="1" t="n"/>
+      <c r="V47" s="1" t="n"/>
+      <c r="W47" s="1" t="n"/>
+      <c r="X47" s="1" t="n"/>
+      <c r="Y47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n"/>
+      <c r="AA47" s="1" t="n"/>
+    </row>
+    <row r="48" ht="6" customHeight="1">
+      <c r="A48" s="24" t="n"/>
+      <c r="B48" s="137" t="n"/>
+      <c r="C48" s="137" t="n"/>
+      <c r="D48" s="137" t="n"/>
+      <c r="E48" s="137" t="n"/>
+      <c r="F48" s="137" t="n"/>
+      <c r="G48" s="137" t="n"/>
+      <c r="H48" s="137" t="n"/>
+      <c r="I48" s="138" t="n"/>
+    </row>
+    <row r="49" ht="36.75" customHeight="1">
+      <c r="A49" s="27" t="inlineStr">
         <is>
           <t>INFORMAÇÕES ADICIONAIS</t>
         </is>
       </c>
-      <c r="B44" s="137" t="n"/>
-      <c r="C44" s="137" t="n"/>
-      <c r="D44" s="137" t="n"/>
-      <c r="E44" s="137" t="n"/>
-      <c r="F44" s="137" t="n"/>
-      <c r="G44" s="137" t="n"/>
-      <c r="H44" s="137" t="n"/>
-      <c r="I44" s="138" t="n"/>
-      <c r="J44" s="1" t="n"/>
-      <c r="K44" s="1" t="n"/>
-      <c r="L44" s="1" t="n"/>
-      <c r="M44" s="1" t="n"/>
-      <c r="N44" s="1" t="n"/>
-      <c r="O44" s="1" t="n"/>
-      <c r="P44" s="1" t="n"/>
-      <c r="Q44" s="1" t="n"/>
-      <c r="R44" s="1" t="n"/>
-      <c r="S44" s="1" t="n"/>
-      <c r="T44" s="1" t="n"/>
-      <c r="U44" s="1" t="n"/>
-      <c r="V44" s="1" t="n"/>
-      <c r="W44" s="1" t="n"/>
-      <c r="X44" s="1" t="n"/>
-      <c r="Y44" s="1" t="n"/>
-      <c r="Z44" s="1" t="n"/>
-      <c r="AA44" s="1" t="n"/>
-    </row>
-    <row r="45" ht="42.75" customHeight="1">
-      <c r="A45" s="96">
-        <f>IF(H42="Não",VLOOKUP($B$7,#REF!,44),"")</f>
+      <c r="B49" s="134" t="n"/>
+      <c r="C49" s="134" t="n"/>
+      <c r="D49" s="134" t="n"/>
+      <c r="E49" s="134" t="n"/>
+      <c r="F49" s="134" t="n"/>
+      <c r="G49" s="134" t="n"/>
+      <c r="H49" s="134" t="n"/>
+      <c r="I49" s="135" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n"/>
+      <c r="O49" s="1" t="n"/>
+      <c r="P49" s="1" t="n"/>
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="n"/>
+      <c r="S49" s="1" t="n"/>
+      <c r="T49" s="1" t="n"/>
+      <c r="U49" s="1" t="n"/>
+      <c r="V49" s="1" t="n"/>
+      <c r="W49" s="1" t="n"/>
+      <c r="X49" s="1" t="n"/>
+      <c r="Y49" s="1" t="n"/>
+      <c r="Z49" s="1" t="n"/>
+      <c r="AA49" s="1" t="n"/>
+    </row>
+    <row r="50" ht="42.75" customHeight="1">
+      <c r="A50" s="30">
+        <f>IF(H47="Não",VLOOKUP($B$7,#REF!,44),"")</f>
         <v/>
       </c>
-      <c r="B45" s="148" t="n"/>
-      <c r="C45" s="148" t="n"/>
-      <c r="D45" s="148" t="n"/>
-      <c r="E45" s="148" t="n"/>
-      <c r="F45" s="148" t="n"/>
-      <c r="G45" s="148" t="n"/>
-      <c r="H45" s="148" t="n"/>
-      <c r="I45" s="149" t="n"/>
-    </row>
-    <row r="46" ht="42.75" customHeight="1">
-      <c r="A46" s="130" t="n"/>
-      <c r="B46" s="131" t="n"/>
-      <c r="C46" s="131" t="n"/>
-      <c r="D46" s="131" t="n"/>
-      <c r="E46" s="131" t="n"/>
-      <c r="F46" s="131" t="n"/>
-      <c r="G46" s="131" t="n"/>
-      <c r="H46" s="131" t="n"/>
-      <c r="I46" s="132" t="n"/>
+      <c r="B50" s="145" t="n"/>
+      <c r="C50" s="145" t="n"/>
+      <c r="D50" s="145" t="n"/>
+      <c r="E50" s="145" t="n"/>
+      <c r="F50" s="145" t="n"/>
+      <c r="G50" s="145" t="n"/>
+      <c r="H50" s="145" t="n"/>
+      <c r="I50" s="146" t="n"/>
+    </row>
+    <row r="51" ht="42.75" customHeight="1">
+      <c r="A51" s="127" t="n"/>
+      <c r="B51" s="128" t="n"/>
+      <c r="C51" s="128" t="n"/>
+      <c r="D51" s="128" t="n"/>
+      <c r="E51" s="128" t="n"/>
+      <c r="F51" s="128" t="n"/>
+      <c r="G51" s="128" t="n"/>
+      <c r="H51" s="128" t="n"/>
+      <c r="I51" s="129" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I46"/>
-    <mergeCell ref="A42:I42"/>
+  <mergeCells count="68">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A16:I19"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2564,13 +2591,49 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A16:I19"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I51"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:E46"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,10 +84,17 @@
       <sz val="14"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="6">
@@ -118,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -382,73 +389,28 @@
         <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,41 +559,76 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,13 +645,166 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -678,6 +828,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -690,17 +864,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -711,142 +874,19 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -866,28 +906,208 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -896,83 +1116,41 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -980,7 +1158,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -989,179 +1167,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -1183,46 +1244,50 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,132 +1695,136 @@
   </sheetPr>
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.28515625" bestFit="1" customWidth="1" style="25" min="1" max="1"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
-    <col width="17.5703125" bestFit="1" customWidth="1" style="25" min="3" max="4"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" style="25" min="5" max="5"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="25" min="6" max="6"/>
-    <col width="17.140625" bestFit="1" customWidth="1" style="25" min="7" max="7"/>
-    <col width="18.28515625" customWidth="1" style="25" min="8" max="8"/>
-    <col width="28.28515625" customWidth="1" style="26" min="9" max="9"/>
+    <col width="20.28515625" bestFit="1" customWidth="1" style="75" min="1" max="1"/>
+    <col width="19.5703125" bestFit="1" customWidth="1" style="75" min="2" max="2"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" style="75" min="3" max="4"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="75" min="5" max="5"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="75" min="6" max="6"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="75" min="7" max="7"/>
+    <col width="18.28515625" customWidth="1" style="75" min="8" max="8"/>
+    <col width="28.28515625" customWidth="1" style="76" min="9" max="9"/>
     <col width="13.5703125" bestFit="1" customWidth="1" min="10" max="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="106" t="n"/>
-      <c r="B1" s="107" t="inlineStr">
+      <c r="A1" s="113" t="n"/>
+      <c r="B1" s="114" t="inlineStr">
         <is>
           <t>Relatório de Não Conformidade</t>
         </is>
       </c>
-      <c r="C1" s="108" t="n"/>
-      <c r="D1" s="108" t="n"/>
-      <c r="E1" s="108" t="n"/>
-      <c r="F1" s="109" t="n"/>
-      <c r="G1" s="110" t="inlineStr">
+      <c r="C1" s="115" t="n"/>
+      <c r="D1" s="115" t="n"/>
+      <c r="E1" s="115" t="n"/>
+      <c r="F1" s="116" t="n"/>
+      <c r="G1" s="117" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="H1" s="111" t="n"/>
+      <c r="H1" s="118" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>RNC GQ-001-000</t>
+          <t>RNC GQ-035-000</t>
         </is>
       </c>
     </row>
     <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="112" t="n"/>
-      <c r="B2" s="113" t="n"/>
-      <c r="C2" s="114" t="n"/>
-      <c r="D2" s="114" t="n"/>
-      <c r="E2" s="114" t="n"/>
-      <c r="F2" s="115" t="n"/>
-      <c r="G2" s="110" t="inlineStr">
+      <c r="A2" s="119" t="n"/>
+      <c r="B2" s="120" t="n"/>
+      <c r="C2" s="121" t="n"/>
+      <c r="D2" s="121" t="n"/>
+      <c r="E2" s="121" t="n"/>
+      <c r="F2" s="122" t="n"/>
+      <c r="G2" s="117" t="inlineStr">
         <is>
           <t>Data de Emissão:</t>
         </is>
       </c>
-      <c r="H2" s="111" t="n"/>
+      <c r="H2" s="118" t="n"/>
       <c r="I2" s="4" t="n">
-        <v>44487</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="112" t="n"/>
-      <c r="B3" s="116" t="inlineStr">
+      <c r="A3" s="119" t="n"/>
+      <c r="B3" s="123" t="inlineStr">
         <is>
           <t>Gestão da Qualidade</t>
         </is>
       </c>
-      <c r="C3" s="108" t="n"/>
-      <c r="D3" s="108" t="n"/>
-      <c r="E3" s="108" t="n"/>
-      <c r="F3" s="109" t="n"/>
-      <c r="G3" s="110" t="inlineStr">
+      <c r="C3" s="115" t="n"/>
+      <c r="D3" s="115" t="n"/>
+      <c r="E3" s="115" t="n"/>
+      <c r="F3" s="116" t="n"/>
+      <c r="G3" s="117" t="inlineStr">
         <is>
           <t>Data da Última Revisão:</t>
         </is>
       </c>
-      <c r="H3" s="111" t="n"/>
-      <c r="I3" s="5" t="n"/>
+      <c r="H3" s="118" t="n"/>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="117" t="n"/>
-      <c r="B4" s="113" t="n"/>
-      <c r="C4" s="114" t="n"/>
-      <c r="D4" s="114" t="n"/>
-      <c r="E4" s="114" t="n"/>
-      <c r="F4" s="115" t="n"/>
-      <c r="G4" s="110" t="inlineStr">
+      <c r="A4" s="124" t="n"/>
+      <c r="B4" s="120" t="n"/>
+      <c r="C4" s="121" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="121" t="n"/>
+      <c r="F4" s="122" t="n"/>
+      <c r="G4" s="117" t="inlineStr">
         <is>
           <t>Página:</t>
         </is>
       </c>
-      <c r="H4" s="111" t="n"/>
+      <c r="H4" s="118" t="n"/>
       <c r="I4" s="6" t="n">
         <v>44197</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="94" t="n"/>
-      <c r="B5" s="108" t="n"/>
-      <c r="C5" s="108" t="n"/>
-      <c r="D5" s="108" t="n"/>
-      <c r="E5" s="108" t="n"/>
-      <c r="F5" s="108" t="n"/>
-      <c r="G5" s="108" t="n"/>
-      <c r="H5" s="108" t="n"/>
-      <c r="I5" s="108" t="n"/>
+      <c r="A5" s="35" t="n"/>
+      <c r="B5" s="115" t="n"/>
+      <c r="C5" s="115" t="n"/>
+      <c r="D5" s="115" t="n"/>
+      <c r="E5" s="115" t="n"/>
+      <c r="F5" s="115" t="n"/>
+      <c r="G5" s="115" t="n"/>
+      <c r="H5" s="115" t="n"/>
+      <c r="I5" s="115" t="n"/>
     </row>
     <row r="6" ht="24.75" customHeight="1">
-      <c r="A6" s="96" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>1ª ETAPA - ABERTURA</t>
         </is>
       </c>
-      <c r="B6" s="108" t="n"/>
-      <c r="C6" s="108" t="n"/>
-      <c r="D6" s="108" t="n"/>
-      <c r="E6" s="118" t="n"/>
+      <c r="B6" s="115" t="n"/>
+      <c r="C6" s="115" t="n"/>
+      <c r="D6" s="115" t="n"/>
+      <c r="E6" s="125" t="n"/>
       <c r="F6" s="7" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G6" s="97" t="inlineStr">
+      <c r="G6" s="38" t="inlineStr">
         <is>
           <t>Feito</t>
         </is>
       </c>
-      <c r="H6" s="119" t="n"/>
-      <c r="I6" s="120" t="n"/>
+      <c r="H6" s="126" t="n"/>
+      <c r="I6" s="127" t="n"/>
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
       <c r="L6" s="2" t="n"/>
@@ -1776,200 +1845,200 @@
       <c r="AA6" s="1" t="n"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="99" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>RNC Nº</t>
         </is>
       </c>
-      <c r="B7" s="99" t="n">
-        <v>5328477757</v>
-      </c>
-      <c r="C7" s="99" t="inlineStr">
+      <c r="B7" s="41" t="n">
+        <v>4371398648</v>
+      </c>
+      <c r="C7" s="41" t="inlineStr">
         <is>
           <t>Origem:</t>
         </is>
       </c>
-      <c r="D7" s="100" t="inlineStr">
-        <is>
-          <t>Corte e Estamparia</t>
-        </is>
-      </c>
-      <c r="E7" s="121" t="n"/>
-      <c r="F7" s="76" t="n"/>
-      <c r="G7" s="97" t="n"/>
-      <c r="H7" s="76" t="inlineStr">
+      <c r="D7" s="44" t="inlineStr">
+        <is>
+          <t>Fornecedor Material</t>
+        </is>
+      </c>
+      <c r="E7" s="128" t="n"/>
+      <c r="F7" s="51" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="I7" s="12" t="inlineStr">
-        <is>
-          <t>06/10/2023</t>
-        </is>
-      </c>
+      <c r="G7" s="129" t="inlineStr">
+        <is>
+          <t>26/04/2023</t>
+        </is>
+      </c>
+      <c r="H7" s="126" t="n"/>
+      <c r="I7" s="127" t="n"/>
       <c r="L7" s="2" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="122" t="n"/>
-      <c r="B8" s="122" t="n"/>
-      <c r="C8" s="122" t="n"/>
-      <c r="D8" s="123" t="n"/>
-      <c r="E8" s="124" t="n"/>
-      <c r="F8" s="76" t="inlineStr">
+    <row r="8" ht="41.25" customHeight="1">
+      <c r="A8" s="130" t="n"/>
+      <c r="B8" s="130" t="n"/>
+      <c r="C8" s="130" t="n"/>
+      <c r="D8" s="131" t="n"/>
+      <c r="E8" s="132" t="n"/>
+      <c r="F8" s="51" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G8" s="97" t="inlineStr">
-        <is>
-          <t>abdias@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="H8" s="119" t="n"/>
-      <c r="I8" s="120" t="n"/>
+      <c r="G8" s="45" t="inlineStr">
+        <is>
+          <t>Lauriene Vargas, Estefane Santos, Severiano Neto, Evandro Passos</t>
+        </is>
+      </c>
+      <c r="H8" s="126" t="n"/>
+      <c r="I8" s="127" t="n"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="76" t="inlineStr">
+      <c r="A9" s="51" t="inlineStr">
         <is>
           <t>Descrição do Problema</t>
         </is>
       </c>
-      <c r="B9" s="119" t="n"/>
-      <c r="C9" s="119" t="n"/>
-      <c r="D9" s="119" t="n"/>
-      <c r="E9" s="119" t="n"/>
-      <c r="F9" s="119" t="n"/>
-      <c r="G9" s="119" t="n"/>
-      <c r="H9" s="119" t="n"/>
-      <c r="I9" s="120" t="n"/>
+      <c r="B9" s="126" t="n"/>
+      <c r="C9" s="126" t="n"/>
+      <c r="D9" s="126" t="n"/>
+      <c r="E9" s="126" t="n"/>
+      <c r="F9" s="126" t="n"/>
+      <c r="G9" s="126" t="n"/>
+      <c r="H9" s="126" t="n"/>
+      <c r="I9" s="127" t="n"/>
     </row>
     <row r="10" ht="24.95" customHeight="1">
-      <c r="A10" s="82" t="inlineStr">
-        <is>
-          <t>No dia 06/10/2023 foram produzidas 80 que tem por código 025546 - FECHAM EIXO F4 (NOV13...) apresentando medida de virada 10mm menor.</t>
-        </is>
-      </c>
-      <c r="B10" s="125" t="n"/>
-      <c r="C10" s="125" t="n"/>
-      <c r="D10" s="125" t="n"/>
-      <c r="E10" s="125" t="n"/>
-      <c r="F10" s="125" t="n"/>
-      <c r="G10" s="125" t="n"/>
-      <c r="H10" s="125" t="n"/>
-      <c r="I10" s="121" t="n"/>
-    </row>
-    <row r="11" ht="24.95" customHeight="1">
-      <c r="A11" s="123" t="n"/>
-      <c r="B11" s="126" t="n"/>
-      <c r="C11" s="126" t="n"/>
-      <c r="D11" s="126" t="n"/>
-      <c r="E11" s="126" t="n"/>
-      <c r="F11" s="126" t="n"/>
-      <c r="G11" s="126" t="n"/>
-      <c r="H11" s="126" t="n"/>
-      <c r="I11" s="124" t="n"/>
+      <c r="A10" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Na montagem das laterais foi observado um erro no componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C - Saldo: 300,00 - Consumo Médio Mensal: 87,67. Onde foram inspecionando os 100,00 na produção mais os 300,00 no almoxarifado. Do total dos 400,00 foi encontrado 47,00 unidades com não conformidades que não podem ser aproveitadas. </t>
+        </is>
+      </c>
+      <c r="B10" s="133" t="n"/>
+      <c r="C10" s="133" t="n"/>
+      <c r="D10" s="133" t="n"/>
+      <c r="E10" s="133" t="n"/>
+      <c r="F10" s="133" t="n"/>
+      <c r="G10" s="133" t="n"/>
+      <c r="H10" s="133" t="n"/>
+      <c r="I10" s="128" t="n"/>
+    </row>
+    <row r="11" ht="66.75" customHeight="1">
+      <c r="A11" s="131" t="n"/>
+      <c r="B11" s="134" t="n"/>
+      <c r="C11" s="134" t="n"/>
+      <c r="D11" s="134" t="n"/>
+      <c r="E11" s="134" t="n"/>
+      <c r="F11" s="134" t="n"/>
+      <c r="G11" s="134" t="n"/>
+      <c r="H11" s="134" t="n"/>
+      <c r="I11" s="132" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="87" t="n"/>
-      <c r="B12" s="125" t="n"/>
-      <c r="C12" s="125" t="n"/>
-      <c r="D12" s="125" t="n"/>
-      <c r="E12" s="125" t="n"/>
-      <c r="F12" s="125" t="n"/>
-      <c r="G12" s="125" t="n"/>
-      <c r="H12" s="125" t="n"/>
-      <c r="I12" s="125" t="n"/>
+      <c r="A12" s="56" t="n"/>
+      <c r="B12" s="133" t="n"/>
+      <c r="C12" s="133" t="n"/>
+      <c r="D12" s="133" t="n"/>
+      <c r="E12" s="133" t="n"/>
+      <c r="F12" s="133" t="n"/>
+      <c r="G12" s="133" t="n"/>
+      <c r="H12" s="133" t="n"/>
+      <c r="I12" s="133" t="n"/>
     </row>
     <row r="13" ht="23.25" customHeight="1">
-      <c r="A13" s="83" t="inlineStr">
+      <c r="A13" s="58" t="inlineStr">
         <is>
           <t>2ª ETAPA - AÇÃO IMEDIATA</t>
         </is>
       </c>
-      <c r="B13" s="108" t="n"/>
-      <c r="C13" s="108" t="n"/>
-      <c r="D13" s="108" t="n"/>
-      <c r="E13" s="118" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="97" t="n"/>
-      <c r="H13" s="13" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="I13" s="12" t="inlineStr">
-        <is>
-          <t>06/10/2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="127" t="n"/>
-      <c r="B14" s="128" t="n"/>
-      <c r="C14" s="128" t="n"/>
-      <c r="D14" s="128" t="n"/>
-      <c r="E14" s="129" t="n"/>
-      <c r="F14" s="14" t="inlineStr">
+      <c r="B13" s="115" t="n"/>
+      <c r="C13" s="115" t="n"/>
+      <c r="D13" s="115" t="n"/>
+      <c r="E13" s="125" t="n"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Data:</t>
+        </is>
+      </c>
+      <c r="G13" s="129" t="inlineStr">
+        <is>
+          <t>26/04/2023</t>
+        </is>
+      </c>
+      <c r="H13" s="126" t="n"/>
+      <c r="I13" s="127" t="n"/>
+    </row>
+    <row r="14" ht="48" customHeight="1">
+      <c r="A14" s="135" t="n"/>
+      <c r="B14" s="136" t="n"/>
+      <c r="C14" s="136" t="n"/>
+      <c r="D14" s="136" t="n"/>
+      <c r="E14" s="137" t="n"/>
+      <c r="F14" s="13" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G14" s="91" t="inlineStr">
-        <is>
-          <t>abdias@cemag.com.br</t>
-        </is>
-      </c>
-      <c r="H14" s="125" t="n"/>
-      <c r="I14" s="121" t="n"/>
+      <c r="G14" s="97" t="inlineStr">
+        <is>
+          <t>Lauriene Vargas, Estefane Santos, Severiano Neto, Evandro Passos</t>
+        </is>
+      </c>
+      <c r="H14" s="133" t="n"/>
+      <c r="I14" s="128" t="n"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="76" t="inlineStr">
+      <c r="A15" s="51" t="inlineStr">
         <is>
           <t>Ação imediata</t>
         </is>
       </c>
-      <c r="B15" s="119" t="n"/>
-      <c r="C15" s="119" t="n"/>
-      <c r="D15" s="119" t="n"/>
-      <c r="E15" s="119" t="n"/>
-      <c r="F15" s="119" t="n"/>
-      <c r="G15" s="119" t="n"/>
-      <c r="H15" s="119" t="n"/>
-      <c r="I15" s="120" t="n"/>
+      <c r="B15" s="126" t="n"/>
+      <c r="C15" s="126" t="n"/>
+      <c r="D15" s="126" t="n"/>
+      <c r="E15" s="126" t="n"/>
+      <c r="F15" s="126" t="n"/>
+      <c r="G15" s="126" t="n"/>
+      <c r="H15" s="126" t="n"/>
+      <c r="I15" s="127" t="n"/>
     </row>
     <row r="16" ht="27.95" customHeight="1">
-      <c r="A16" s="82" t="inlineStr">
-        <is>
-          <t>Inspetor Gutemberg no dia 06/10/2023 realizou retrabalho das 80 peças utilizando calandra para desfazer a virada e as peças retornaram para serem viradas na produção.</t>
-        </is>
-      </c>
-      <c r="B16" s="125" t="n"/>
-      <c r="C16" s="125" t="n"/>
-      <c r="D16" s="125" t="n"/>
-      <c r="E16" s="125" t="n"/>
-      <c r="F16" s="125" t="n"/>
-      <c r="G16" s="125" t="n"/>
-      <c r="H16" s="125" t="n"/>
-      <c r="I16" s="121" t="n"/>
+      <c r="A16" s="53" t="inlineStr">
+        <is>
+          <t>Material encontrado não conforme segregado, realizado inspeção 100% nos componentes no almoxarifado e nos que já estavam na célula de montagem.</t>
+        </is>
+      </c>
+      <c r="B16" s="133" t="n"/>
+      <c r="C16" s="133" t="n"/>
+      <c r="D16" s="133" t="n"/>
+      <c r="E16" s="133" t="n"/>
+      <c r="F16" s="133" t="n"/>
+      <c r="G16" s="133" t="n"/>
+      <c r="H16" s="133" t="n"/>
+      <c r="I16" s="128" t="n"/>
     </row>
     <row r="17" ht="27.95" customHeight="1">
-      <c r="A17" s="130" t="n"/>
-      <c r="I17" s="131" t="n"/>
+      <c r="A17" s="138" t="n"/>
+      <c r="I17" s="139" t="n"/>
     </row>
     <row r="18" ht="27.95" customHeight="1">
-      <c r="A18" s="130" t="n"/>
-      <c r="I18" s="131" t="n"/>
+      <c r="A18" s="138" t="n"/>
+      <c r="I18" s="139" t="n"/>
     </row>
     <row r="19" ht="23.25" customHeight="1">
-      <c r="A19" s="123" t="n"/>
-      <c r="B19" s="126" t="n"/>
-      <c r="C19" s="126" t="n"/>
-      <c r="D19" s="126" t="n"/>
-      <c r="E19" s="126" t="n"/>
-      <c r="F19" s="126" t="n"/>
-      <c r="G19" s="126" t="n"/>
-      <c r="H19" s="126" t="n"/>
-      <c r="I19" s="124" t="n"/>
+      <c r="A19" s="131" t="n"/>
+      <c r="B19" s="134" t="n"/>
+      <c r="C19" s="134" t="n"/>
+      <c r="D19" s="134" t="n"/>
+      <c r="E19" s="134" t="n"/>
+      <c r="F19" s="134" t="n"/>
+      <c r="G19" s="134" t="n"/>
+      <c r="H19" s="134" t="n"/>
+      <c r="I19" s="132" t="n"/>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
@@ -1990,49 +2059,49 @@
       <c r="AA19" s="1" t="n"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="79" t="n"/>
-      <c r="B20" s="128" t="n"/>
-      <c r="C20" s="128" t="n"/>
-      <c r="D20" s="128" t="n"/>
-      <c r="E20" s="128" t="n"/>
-      <c r="F20" s="128" t="n"/>
-      <c r="G20" s="128" t="n"/>
-      <c r="H20" s="128" t="n"/>
-      <c r="I20" s="129" t="n"/>
+      <c r="A20" s="62" t="n"/>
+      <c r="B20" s="136" t="n"/>
+      <c r="C20" s="136" t="n"/>
+      <c r="D20" s="136" t="n"/>
+      <c r="E20" s="136" t="n"/>
+      <c r="F20" s="136" t="n"/>
+      <c r="G20" s="136" t="n"/>
+      <c r="H20" s="136" t="n"/>
+      <c r="I20" s="137" t="n"/>
     </row>
     <row r="21" ht="23.25" customHeight="1">
-      <c r="A21" s="83" t="inlineStr">
+      <c r="A21" s="58" t="inlineStr">
         <is>
           <t>3ª ETAPA - ANÁLISE DE CAUZA RAIZ</t>
         </is>
       </c>
-      <c r="B21" s="108" t="n"/>
-      <c r="C21" s="108" t="n"/>
-      <c r="D21" s="108" t="n"/>
-      <c r="E21" s="118" t="n"/>
-      <c r="F21" s="17" t="inlineStr">
+      <c r="B21" s="115" t="n"/>
+      <c r="C21" s="115" t="n"/>
+      <c r="D21" s="115" t="n"/>
+      <c r="E21" s="125" t="n"/>
+      <c r="F21" s="72" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="G21" s="23" t="inlineStr">
-        <is>
-          <t>13/10/2023</t>
-        </is>
-      </c>
-      <c r="H21" s="132" t="n"/>
-      <c r="I21" s="109" t="n"/>
+      <c r="G21" s="71" t="inlineStr">
+        <is>
+          <t>26/04/2023</t>
+        </is>
+      </c>
+      <c r="H21" s="133" t="n"/>
+      <c r="I21" s="128" t="n"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="127" t="n"/>
-      <c r="B22" s="128" t="n"/>
-      <c r="C22" s="128" t="n"/>
-      <c r="D22" s="128" t="n"/>
-      <c r="E22" s="129" t="n"/>
-      <c r="F22" s="74" t="n"/>
-      <c r="G22" s="133" t="n"/>
-      <c r="H22" s="114" t="n"/>
-      <c r="I22" s="115" t="n"/>
+      <c r="A22" s="135" t="n"/>
+      <c r="B22" s="136" t="n"/>
+      <c r="C22" s="136" t="n"/>
+      <c r="D22" s="136" t="n"/>
+      <c r="E22" s="137" t="n"/>
+      <c r="F22" s="130" t="n"/>
+      <c r="G22" s="131" t="n"/>
+      <c r="H22" s="134" t="n"/>
+      <c r="I22" s="132" t="n"/>
     </row>
     <row r="23" ht="45" customHeight="1">
       <c r="A23" s="8" t="inlineStr">
@@ -2040,18 +2109,18 @@
           <t>Máquina</t>
         </is>
       </c>
-      <c r="B23" s="84" t="inlineStr">
-        <is>
-          <t>Virada realizada na viradeira 4, como de costume.</t>
-        </is>
-      </c>
-      <c r="C23" s="134" t="n"/>
-      <c r="D23" s="134" t="n"/>
-      <c r="E23" s="134" t="n"/>
-      <c r="F23" s="134" t="n"/>
-      <c r="G23" s="134" t="n"/>
-      <c r="H23" s="134" t="n"/>
-      <c r="I23" s="135" t="n"/>
+      <c r="B23" s="65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C23" s="140" t="n"/>
+      <c r="D23" s="140" t="n"/>
+      <c r="E23" s="140" t="n"/>
+      <c r="F23" s="140" t="n"/>
+      <c r="G23" s="140" t="n"/>
+      <c r="H23" s="140" t="n"/>
+      <c r="I23" s="141" t="n"/>
     </row>
     <row r="24" ht="45" customHeight="1">
       <c r="A24" s="8" t="inlineStr">
@@ -2059,18 +2128,18 @@
           <t>Mão-de-Obra</t>
         </is>
       </c>
-      <c r="B24" s="63" t="inlineStr">
-        <is>
-          <t>Colaborador que realizou a virada foi Célio (Gato a Jato), esse colaborador não é um operador treinado, ele é um ajudante.</t>
-        </is>
-      </c>
-      <c r="C24" s="134" t="n"/>
-      <c r="D24" s="134" t="n"/>
-      <c r="E24" s="134" t="n"/>
-      <c r="F24" s="134" t="n"/>
-      <c r="G24" s="134" t="n"/>
-      <c r="H24" s="134" t="n"/>
-      <c r="I24" s="135" t="n"/>
+      <c r="B24" s="69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C24" s="140" t="n"/>
+      <c r="D24" s="140" t="n"/>
+      <c r="E24" s="140" t="n"/>
+      <c r="F24" s="140" t="n"/>
+      <c r="G24" s="140" t="n"/>
+      <c r="H24" s="140" t="n"/>
+      <c r="I24" s="141" t="n"/>
     </row>
     <row r="25" ht="45" customHeight="1">
       <c r="A25" s="8" t="inlineStr">
@@ -2078,18 +2147,18 @@
           <t>Matéria Prima</t>
         </is>
       </c>
-      <c r="B25" s="63" t="inlineStr">
-        <is>
-          <t>Medidas da peça cortada estavam corformes.</t>
-        </is>
-      </c>
-      <c r="C25" s="134" t="n"/>
-      <c r="D25" s="134" t="n"/>
-      <c r="E25" s="134" t="n"/>
-      <c r="F25" s="134" t="n"/>
-      <c r="G25" s="134" t="n"/>
-      <c r="H25" s="134" t="n"/>
-      <c r="I25" s="135" t="n"/>
+      <c r="B25" s="69" t="inlineStr">
+        <is>
+          <t>Ganchos encontrados com desalinhamento</t>
+        </is>
+      </c>
+      <c r="C25" s="140" t="n"/>
+      <c r="D25" s="140" t="n"/>
+      <c r="E25" s="140" t="n"/>
+      <c r="F25" s="140" t="n"/>
+      <c r="G25" s="140" t="n"/>
+      <c r="H25" s="140" t="n"/>
+      <c r="I25" s="141" t="n"/>
     </row>
     <row r="26" ht="45" customHeight="1">
       <c r="A26" s="8" t="inlineStr">
@@ -2097,18 +2166,18 @@
           <t>Medição</t>
         </is>
       </c>
-      <c r="B26" s="63" t="inlineStr">
-        <is>
-          <t>Operador possui uma trena em pessima condições, com graduações descascando e nao estando no plano de calibração.</t>
-        </is>
-      </c>
-      <c r="C26" s="134" t="n"/>
-      <c r="D26" s="134" t="n"/>
-      <c r="E26" s="134" t="n"/>
-      <c r="F26" s="134" t="n"/>
-      <c r="G26" s="134" t="n"/>
-      <c r="H26" s="134" t="n"/>
-      <c r="I26" s="135" t="n"/>
+      <c r="B26" s="69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C26" s="140" t="n"/>
+      <c r="D26" s="140" t="n"/>
+      <c r="E26" s="140" t="n"/>
+      <c r="F26" s="140" t="n"/>
+      <c r="G26" s="140" t="n"/>
+      <c r="H26" s="140" t="n"/>
+      <c r="I26" s="141" t="n"/>
     </row>
     <row r="27" ht="45" customHeight="1">
       <c r="A27" s="8" t="inlineStr">
@@ -2116,18 +2185,18 @@
           <t>Método</t>
         </is>
       </c>
-      <c r="B27" s="63" t="inlineStr">
-        <is>
-          <t>O supervisor ao repassar a  atividade informou sobre o gabarito na viradeira a qual a peça deveria encostar para realizar a virada.</t>
-        </is>
-      </c>
-      <c r="C27" s="134" t="n"/>
-      <c r="D27" s="134" t="n"/>
-      <c r="E27" s="134" t="n"/>
-      <c r="F27" s="134" t="n"/>
-      <c r="G27" s="134" t="n"/>
-      <c r="H27" s="134" t="n"/>
-      <c r="I27" s="135" t="n"/>
+      <c r="B27" s="69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C27" s="140" t="n"/>
+      <c r="D27" s="140" t="n"/>
+      <c r="E27" s="140" t="n"/>
+      <c r="F27" s="140" t="n"/>
+      <c r="G27" s="140" t="n"/>
+      <c r="H27" s="140" t="n"/>
+      <c r="I27" s="141" t="n"/>
     </row>
     <row r="28" ht="45" customHeight="1">
       <c r="A28" s="8" t="inlineStr">
@@ -2135,61 +2204,63 @@
           <t>Meio Ambiente</t>
         </is>
       </c>
-      <c r="B28" s="63" t="n">
-        <v/>
-      </c>
-      <c r="C28" s="134" t="n"/>
-      <c r="D28" s="134" t="n"/>
-      <c r="E28" s="134" t="n"/>
-      <c r="F28" s="134" t="n"/>
-      <c r="G28" s="134" t="n"/>
-      <c r="H28" s="134" t="n"/>
-      <c r="I28" s="135" t="n"/>
+      <c r="B28" s="69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C28" s="140" t="n"/>
+      <c r="D28" s="140" t="n"/>
+      <c r="E28" s="140" t="n"/>
+      <c r="F28" s="140" t="n"/>
+      <c r="G28" s="140" t="n"/>
+      <c r="H28" s="140" t="n"/>
+      <c r="I28" s="141" t="n"/>
     </row>
     <row r="29" ht="45" customHeight="1">
-      <c r="A29" s="66" t="inlineStr">
+      <c r="A29" s="73" t="inlineStr">
         <is>
           <t>Presentes:</t>
         </is>
       </c>
-      <c r="B29" s="136" t="n"/>
-      <c r="C29" s="68" t="inlineStr">
-        <is>
-          <t>Estefane, Severiano, Guthemberg</t>
-        </is>
-      </c>
-      <c r="D29" s="133" t="n"/>
-      <c r="E29" s="133" t="n"/>
-      <c r="F29" s="133" t="n"/>
-      <c r="G29" s="133" t="n"/>
-      <c r="H29" s="133" t="n"/>
-      <c r="I29" s="136" t="n"/>
+      <c r="B29" s="142" t="n"/>
+      <c r="C29" s="111" t="inlineStr">
+        <is>
+          <t>Estefane e Leonidas</t>
+        </is>
+      </c>
+      <c r="D29" s="143" t="n"/>
+      <c r="E29" s="143" t="n"/>
+      <c r="F29" s="143" t="n"/>
+      <c r="G29" s="143" t="n"/>
+      <c r="H29" s="143" t="n"/>
+      <c r="I29" s="142" t="n"/>
     </row>
     <row r="30" ht="6" customHeight="1">
-      <c r="A30" s="24" t="n"/>
-      <c r="B30" s="137" t="n"/>
-      <c r="C30" s="137" t="n"/>
-      <c r="D30" s="137" t="n"/>
-      <c r="E30" s="137" t="n"/>
-      <c r="F30" s="137" t="n"/>
-      <c r="G30" s="137" t="n"/>
-      <c r="H30" s="137" t="n"/>
-      <c r="I30" s="138" t="n"/>
+      <c r="A30" s="74" t="n"/>
+      <c r="B30" s="144" t="n"/>
+      <c r="C30" s="144" t="n"/>
+      <c r="D30" s="144" t="n"/>
+      <c r="E30" s="144" t="n"/>
+      <c r="F30" s="144" t="n"/>
+      <c r="G30" s="144" t="n"/>
+      <c r="H30" s="144" t="n"/>
+      <c r="I30" s="145" t="n"/>
     </row>
     <row r="31" ht="36.75" customHeight="1">
-      <c r="A31" s="52" t="inlineStr">
+      <c r="A31" s="77" t="inlineStr">
         <is>
           <t>3ªETAPA - PLANO DE AÇÃO</t>
         </is>
       </c>
-      <c r="B31" s="134" t="n"/>
-      <c r="C31" s="134" t="n"/>
-      <c r="D31" s="134" t="n"/>
-      <c r="E31" s="134" t="n"/>
-      <c r="F31" s="134" t="n"/>
-      <c r="G31" s="134" t="n"/>
-      <c r="H31" s="134" t="n"/>
-      <c r="I31" s="135" t="n"/>
+      <c r="B31" s="140" t="n"/>
+      <c r="C31" s="140" t="n"/>
+      <c r="D31" s="140" t="n"/>
+      <c r="E31" s="140" t="n"/>
+      <c r="F31" s="140" t="n"/>
+      <c r="G31" s="140" t="n"/>
+      <c r="H31" s="140" t="n"/>
+      <c r="I31" s="141" t="n"/>
       <c r="J31" s="1" t="n"/>
       <c r="K31" s="1" t="n"/>
       <c r="L31" s="1" t="n"/>
@@ -2210,272 +2281,260 @@
       <c r="AA31" s="1" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="53" t="inlineStr">
+      <c r="A32" s="79" t="inlineStr">
         <is>
           <t>Atividade</t>
         </is>
       </c>
-      <c r="B32" s="108" t="n"/>
-      <c r="C32" s="108" t="n"/>
-      <c r="D32" s="118" t="n"/>
-      <c r="E32" s="55" t="inlineStr">
+      <c r="B32" s="115" t="n"/>
+      <c r="C32" s="115" t="n"/>
+      <c r="D32" s="125" t="n"/>
+      <c r="E32" s="80" t="inlineStr">
         <is>
           <t>Responsável</t>
         </is>
       </c>
-      <c r="F32" s="139" t="inlineStr">
+      <c r="F32" s="146" t="inlineStr">
         <is>
           <t>Executor</t>
         </is>
       </c>
-      <c r="G32" s="140" t="n"/>
-      <c r="H32" s="141" t="inlineStr">
+      <c r="G32" s="147" t="n"/>
+      <c r="H32" s="148" t="inlineStr">
         <is>
           <t>Previsão</t>
         </is>
       </c>
-      <c r="I32" s="141" t="inlineStr">
+      <c r="I32" s="148" t="inlineStr">
         <is>
           <t>Realizado</t>
         </is>
       </c>
     </row>
     <row r="33" ht="9" customHeight="1">
-      <c r="A33" s="127" t="n"/>
-      <c r="B33" s="128" t="n"/>
-      <c r="C33" s="128" t="n"/>
-      <c r="D33" s="129" t="n"/>
-      <c r="E33" s="142" t="n"/>
-      <c r="F33" s="143" t="n"/>
-      <c r="G33" s="131" t="n"/>
-      <c r="H33" s="122" t="n"/>
-      <c r="I33" s="122" t="n"/>
-    </row>
-    <row r="34" ht="28.5" customHeight="1">
-      <c r="A34" s="38" t="inlineStr">
-        <is>
-          <t>Entregar trena calibrada para o colaborador.</t>
-        </is>
-      </c>
-      <c r="B34" s="133" t="n"/>
-      <c r="C34" s="133" t="n"/>
-      <c r="D34" s="136" t="n"/>
-      <c r="E34" s="9" t="inlineStr">
+      <c r="A33" s="135" t="n"/>
+      <c r="B33" s="136" t="n"/>
+      <c r="C33" s="136" t="n"/>
+      <c r="D33" s="137" t="n"/>
+      <c r="E33" s="149" t="n"/>
+      <c r="F33" s="150" t="n"/>
+      <c r="G33" s="139" t="n"/>
+      <c r="H33" s="130" t="n"/>
+      <c r="I33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="151" t="inlineStr">
+        <is>
+          <t>Segregar material para não ser utilizado na produção</t>
+        </is>
+      </c>
+      <c r="B34" s="143" t="n"/>
+      <c r="C34" s="143" t="n"/>
+      <c r="D34" s="118" t="n"/>
+      <c r="E34" s="16" t="inlineStr">
+        <is>
+          <t>Estefane Santos, Severiano Neto</t>
+        </is>
+      </c>
+      <c r="F34" s="152" t="inlineStr">
+        <is>
+          <t>Guthemberg</t>
+        </is>
+      </c>
+      <c r="G34" s="127" t="n"/>
+      <c r="H34" s="17" t="inlineStr">
+        <is>
+          <t>26/04/2023</t>
+        </is>
+      </c>
+      <c r="I34" s="17" t="n">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" s="151" t="inlineStr">
+        <is>
+          <t>Abrir garantia junto ao fornecedor</t>
+        </is>
+      </c>
+      <c r="B35" s="143" t="n"/>
+      <c r="C35" s="143" t="n"/>
+      <c r="D35" s="118" t="n"/>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>Lauriene Vargas</t>
+        </is>
+      </c>
+      <c r="F35" s="152" t="inlineStr">
+        <is>
+          <t>Evandro</t>
+        </is>
+      </c>
+      <c r="G35" s="127" t="n"/>
+      <c r="H35" s="17" t="inlineStr">
+        <is>
+          <t>06/05/2023</t>
+        </is>
+      </c>
+      <c r="I35" s="17" t="n">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" s="151" t="inlineStr"/>
+      <c r="B36" s="143" t="n"/>
+      <c r="C36" s="143" t="n"/>
+      <c r="D36" s="118" t="n"/>
+      <c r="E36" s="16" t="inlineStr"/>
+      <c r="F36" s="152" t="inlineStr"/>
+      <c r="G36" s="127" t="n"/>
+      <c r="H36" s="17" t="inlineStr"/>
+      <c r="I36" s="17" t="inlineStr"/>
+    </row>
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" s="151" t="n"/>
+      <c r="B37" s="143" t="n"/>
+      <c r="C37" s="143" t="n"/>
+      <c r="D37" s="118" t="n"/>
+      <c r="E37" s="16" t="n"/>
+      <c r="F37" s="152" t="n"/>
+      <c r="G37" s="127" t="n"/>
+      <c r="H37" s="17" t="n"/>
+      <c r="I37" s="17" t="n"/>
+    </row>
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" s="151" t="n"/>
+      <c r="B38" s="143" t="n"/>
+      <c r="C38" s="143" t="n"/>
+      <c r="D38" s="118" t="n"/>
+      <c r="E38" s="16" t="n"/>
+      <c r="F38" s="152" t="n"/>
+      <c r="G38" s="127" t="n"/>
+      <c r="H38" s="17" t="n"/>
+      <c r="I38" s="17" t="n"/>
+    </row>
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" s="151" t="n"/>
+      <c r="B39" s="143" t="n"/>
+      <c r="C39" s="143" t="n"/>
+      <c r="D39" s="118" t="n"/>
+      <c r="E39" s="16" t="n"/>
+      <c r="F39" s="152" t="n"/>
+      <c r="G39" s="127" t="n"/>
+      <c r="H39" s="17" t="n"/>
+      <c r="I39" s="17" t="n"/>
+    </row>
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" s="151" t="n"/>
+      <c r="B40" s="143" t="n"/>
+      <c r="C40" s="143" t="n"/>
+      <c r="D40" s="118" t="n"/>
+      <c r="E40" s="16" t="n"/>
+      <c r="F40" s="152" t="n"/>
+      <c r="G40" s="127" t="n"/>
+      <c r="H40" s="17" t="n"/>
+      <c r="I40" s="17" t="n"/>
+    </row>
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" s="151" t="n"/>
+      <c r="B41" s="143" t="n"/>
+      <c r="C41" s="143" t="n"/>
+      <c r="D41" s="118" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="152" t="n"/>
+      <c r="G41" s="127" t="n"/>
+      <c r="H41" s="17" t="n"/>
+      <c r="I41" s="17" t="n"/>
+    </row>
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" s="151" t="n"/>
+      <c r="B42" s="143" t="n"/>
+      <c r="C42" s="143" t="n"/>
+      <c r="D42" s="118" t="n"/>
+      <c r="E42" s="16" t="n"/>
+      <c r="F42" s="152" t="n"/>
+      <c r="G42" s="127" t="n"/>
+      <c r="H42" s="17" t="n"/>
+      <c r="I42" s="17" t="n"/>
+    </row>
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" s="151" t="n"/>
+      <c r="B43" s="143" t="n"/>
+      <c r="C43" s="143" t="n"/>
+      <c r="D43" s="118" t="n"/>
+      <c r="E43" s="16" t="n"/>
+      <c r="F43" s="153" t="n"/>
+      <c r="G43" s="154" t="n"/>
+      <c r="H43" s="17" t="n"/>
+      <c r="I43" s="17" t="n"/>
+    </row>
+    <row r="44" ht="6" customHeight="1">
+      <c r="A44" s="89" t="n"/>
+      <c r="B44" s="143" t="n"/>
+      <c r="C44" s="143" t="n"/>
+      <c r="D44" s="143" t="n"/>
+      <c r="E44" s="143" t="n"/>
+      <c r="F44" s="143" t="n"/>
+      <c r="G44" s="143" t="n"/>
+      <c r="H44" s="143" t="n"/>
+      <c r="I44" s="142" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="92" t="inlineStr">
+        <is>
+          <t>4ª ETAPA - EFICÁCIA</t>
+        </is>
+      </c>
+      <c r="B45" s="155" t="n"/>
+      <c r="C45" s="155" t="n"/>
+      <c r="D45" s="155" t="n"/>
+      <c r="E45" s="156" t="n"/>
+      <c r="F45" s="14" t="inlineStr">
+        <is>
+          <t>Data:</t>
+        </is>
+      </c>
+      <c r="G45" s="96" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
+        </is>
+      </c>
+      <c r="H45" s="126" t="n"/>
+      <c r="I45" s="127" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="136" t="n"/>
+      <c r="C46" s="136" t="n"/>
+      <c r="D46" s="136" t="n"/>
+      <c r="E46" s="137" t="n"/>
+      <c r="F46" s="15" t="inlineStr">
+        <is>
+          <t>Resp.:</t>
+        </is>
+      </c>
+      <c r="G46" s="94" t="inlineStr">
         <is>
           <t>Estefane Santos</t>
         </is>
       </c>
-      <c r="F34" s="144" t="inlineStr">
-        <is>
-          <t>Estefane</t>
-        </is>
-      </c>
-      <c r="G34" s="120" t="n"/>
-      <c r="H34" s="18" t="inlineStr">
-        <is>
-          <t>16/10/2023</t>
-        </is>
-      </c>
-      <c r="I34" s="18" t="n">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="35" ht="28.5" customHeight="1">
-      <c r="A35" s="38" t="inlineStr">
-        <is>
-          <t>Reforçar com inspetor da área a importancia do acompanhamento das atividades que forem exercidas pela 1° Vez</t>
-        </is>
-      </c>
-      <c r="B35" s="133" t="n"/>
-      <c r="C35" s="133" t="n"/>
-      <c r="D35" s="136" t="n"/>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>Estefane Santos</t>
-        </is>
-      </c>
-      <c r="F35" s="144" t="inlineStr">
-        <is>
-          <t>Estefane</t>
-        </is>
-      </c>
-      <c r="G35" s="120" t="n"/>
-      <c r="H35" s="18" t="inlineStr">
-        <is>
-          <t>17/10/2023</t>
-        </is>
-      </c>
-      <c r="I35" s="18" t="n">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="36" ht="28.5" customHeight="1">
-      <c r="A36" s="38" t="inlineStr">
-        <is>
-          <t>Alinhar com a Supervisão que a atividade de virada não pode ser realizada por um ajudante não treinado</t>
-        </is>
-      </c>
-      <c r="B36" s="133" t="n"/>
-      <c r="C36" s="133" t="n"/>
-      <c r="D36" s="136" t="n"/>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>Severiano Neto, Estefane Santos</t>
-        </is>
-      </c>
-      <c r="F36" s="144" t="inlineStr">
-        <is>
-          <t>Alex, Severiano, Estefane, Guthemberg</t>
-        </is>
-      </c>
-      <c r="G36" s="120" t="n"/>
-      <c r="H36" s="18" t="inlineStr">
-        <is>
-          <t>17/10/2023</t>
-        </is>
-      </c>
-      <c r="I36" s="18" t="n">
-        <v>45238</v>
-      </c>
-    </row>
-    <row r="37" ht="28.5" customHeight="1">
-      <c r="A37" s="38" t="inlineStr"/>
-      <c r="B37" s="133" t="n"/>
-      <c r="C37" s="133" t="n"/>
-      <c r="D37" s="136" t="n"/>
-      <c r="E37" s="9" t="inlineStr"/>
-      <c r="F37" s="144" t="inlineStr"/>
-      <c r="G37" s="120" t="n"/>
-      <c r="H37" s="18" t="inlineStr"/>
-      <c r="I37" s="18" t="inlineStr"/>
-    </row>
-    <row r="38" ht="28.5" customHeight="1">
-      <c r="A38" s="38" t="n"/>
-      <c r="B38" s="133" t="n"/>
-      <c r="C38" s="133" t="n"/>
-      <c r="D38" s="136" t="n"/>
-      <c r="E38" s="9" t="n"/>
-      <c r="F38" s="144" t="n"/>
-      <c r="G38" s="120" t="n"/>
-      <c r="H38" s="18" t="n"/>
-      <c r="I38" s="18" t="n"/>
-    </row>
-    <row r="39" ht="28.5" customHeight="1">
-      <c r="A39" s="38" t="n"/>
-      <c r="B39" s="133" t="n"/>
-      <c r="C39" s="133" t="n"/>
-      <c r="D39" s="136" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="144" t="n"/>
-      <c r="G39" s="120" t="n"/>
-      <c r="H39" s="18" t="n"/>
-      <c r="I39" s="18" t="n"/>
-    </row>
-    <row r="40" ht="28.5" customHeight="1">
-      <c r="A40" s="38" t="n"/>
-      <c r="B40" s="133" t="n"/>
-      <c r="C40" s="133" t="n"/>
-      <c r="D40" s="136" t="n"/>
-      <c r="E40" s="9" t="n"/>
-      <c r="F40" s="144" t="n"/>
-      <c r="G40" s="120" t="n"/>
-      <c r="H40" s="18" t="n"/>
-      <c r="I40" s="18" t="n"/>
-    </row>
-    <row r="41" ht="28.5" customHeight="1">
-      <c r="A41" s="38" t="n"/>
-      <c r="B41" s="133" t="n"/>
-      <c r="C41" s="133" t="n"/>
-      <c r="D41" s="136" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="144" t="n"/>
-      <c r="G41" s="120" t="n"/>
-      <c r="H41" s="18" t="n"/>
-      <c r="I41" s="18" t="n"/>
-    </row>
-    <row r="42" ht="28.5" customHeight="1">
-      <c r="A42" s="38" t="n"/>
-      <c r="B42" s="133" t="n"/>
-      <c r="C42" s="133" t="n"/>
-      <c r="D42" s="136" t="n"/>
-      <c r="E42" s="9" t="n"/>
-      <c r="F42" s="144" t="n"/>
-      <c r="G42" s="120" t="n"/>
-      <c r="H42" s="18" t="n"/>
-      <c r="I42" s="18" t="n"/>
-    </row>
-    <row r="43" ht="28.5" customHeight="1">
-      <c r="A43" s="38" t="n"/>
-      <c r="B43" s="133" t="n"/>
-      <c r="C43" s="133" t="n"/>
-      <c r="D43" s="136" t="n"/>
-      <c r="E43" s="9" t="n"/>
-      <c r="F43" s="144" t="n"/>
-      <c r="G43" s="120" t="n"/>
-      <c r="H43" s="18" t="n"/>
-      <c r="I43" s="18" t="n"/>
-    </row>
-    <row r="44" ht="6" customHeight="1">
-      <c r="A44" s="43" t="n"/>
-      <c r="B44" s="133" t="n"/>
-      <c r="C44" s="133" t="n"/>
-      <c r="D44" s="133" t="n"/>
-      <c r="E44" s="133" t="n"/>
-      <c r="F44" s="133" t="n"/>
-      <c r="G44" s="133" t="n"/>
-      <c r="H44" s="133" t="n"/>
-      <c r="I44" s="136" t="n"/>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="46" t="inlineStr">
-        <is>
-          <t>4ª ETAPA - EFICÁCIA</t>
-        </is>
-      </c>
-      <c r="B45" s="145" t="n"/>
-      <c r="C45" s="145" t="n"/>
-      <c r="D45" s="145" t="n"/>
-      <c r="E45" s="146" t="n"/>
-      <c r="F45" s="19" t="n"/>
-      <c r="G45" s="20" t="n"/>
-      <c r="H45" s="19" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="I45" s="21" t="inlineStr"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="127" t="n"/>
-      <c r="B46" s="128" t="n"/>
-      <c r="C46" s="128" t="n"/>
-      <c r="D46" s="128" t="n"/>
-      <c r="E46" s="129" t="n"/>
-      <c r="F46" s="22" t="inlineStr">
-        <is>
-          <t>Resp.:</t>
-        </is>
-      </c>
-      <c r="G46" s="49" t="n">
-        <v/>
-      </c>
-      <c r="H46" s="137" t="n"/>
-      <c r="I46" s="138" t="n"/>
+      <c r="H46" s="133" t="n"/>
+      <c r="I46" s="128" t="n"/>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="A47" s="147" t="inlineStr">
-        <is>
-          <t>As ações corretivas foram eficazes? (Caso não, abrir nova RNC)</t>
-        </is>
-      </c>
-      <c r="B47" s="108" t="n"/>
-      <c r="C47" s="108" t="n"/>
-      <c r="D47" s="108" t="n"/>
-      <c r="E47" s="108" t="n"/>
-      <c r="F47" s="108" t="n"/>
-      <c r="G47" s="108" t="n"/>
-      <c r="H47" s="108" t="n"/>
-      <c r="I47" s="109" t="n"/>
+      <c r="A47" s="51" t="inlineStr">
+        <is>
+          <t>As ações corretivas foram eficazes?</t>
+        </is>
+      </c>
+      <c r="B47" s="126" t="n"/>
+      <c r="C47" s="126" t="n"/>
+      <c r="D47" s="126" t="n"/>
+      <c r="E47" s="126" t="n"/>
+      <c r="F47" s="126" t="n"/>
+      <c r="G47" s="126" t="n"/>
+      <c r="H47" s="126" t="n"/>
+      <c r="I47" s="127" t="n"/>
       <c r="J47" s="1" t="n"/>
       <c r="K47" s="1" t="n"/>
       <c r="L47" s="1" t="n"/>
@@ -2495,31 +2554,35 @@
       <c r="Z47" s="1" t="n"/>
       <c r="AA47" s="1" t="n"/>
     </row>
-    <row r="48" ht="6" customHeight="1">
-      <c r="A48" s="24" t="n"/>
-      <c r="B48" s="137" t="n"/>
-      <c r="C48" s="137" t="n"/>
-      <c r="D48" s="137" t="n"/>
-      <c r="E48" s="137" t="n"/>
-      <c r="F48" s="137" t="n"/>
-      <c r="G48" s="137" t="n"/>
-      <c r="H48" s="137" t="n"/>
-      <c r="I48" s="138" t="n"/>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="38" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B48" s="126" t="n"/>
+      <c r="C48" s="126" t="n"/>
+      <c r="D48" s="126" t="n"/>
+      <c r="E48" s="126" t="n"/>
+      <c r="F48" s="126" t="n"/>
+      <c r="G48" s="126" t="n"/>
+      <c r="H48" s="126" t="n"/>
+      <c r="I48" s="127" t="n"/>
     </row>
     <row r="49" ht="36.75" customHeight="1">
-      <c r="A49" s="27" t="inlineStr">
-        <is>
-          <t>INFORMAÇÕES ADICIONAIS</t>
-        </is>
-      </c>
-      <c r="B49" s="134" t="n"/>
-      <c r="C49" s="134" t="n"/>
-      <c r="D49" s="134" t="n"/>
-      <c r="E49" s="134" t="n"/>
-      <c r="F49" s="134" t="n"/>
-      <c r="G49" s="134" t="n"/>
-      <c r="H49" s="134" t="n"/>
-      <c r="I49" s="135" t="n"/>
+      <c r="A49" s="100" t="inlineStr">
+        <is>
+          <t>CONCLUSÃO</t>
+        </is>
+      </c>
+      <c r="B49" s="136" t="n"/>
+      <c r="C49" s="136" t="n"/>
+      <c r="D49" s="136" t="n"/>
+      <c r="E49" s="136" t="n"/>
+      <c r="F49" s="136" t="n"/>
+      <c r="G49" s="136" t="n"/>
+      <c r="H49" s="136" t="n"/>
+      <c r="I49" s="137" t="n"/>
       <c r="J49" s="1" t="n"/>
       <c r="K49" s="1" t="n"/>
       <c r="L49" s="1" t="n"/>
@@ -2540,32 +2603,94 @@
       <c r="AA49" s="1" t="n"/>
     </row>
     <row r="50" ht="42.75" customHeight="1">
-      <c r="A50" s="30">
-        <f>IF(H47="Não",VLOOKUP($B$7,#REF!,44),"")</f>
-        <v/>
-      </c>
-      <c r="B50" s="145" t="n"/>
-      <c r="C50" s="145" t="n"/>
-      <c r="D50" s="145" t="n"/>
-      <c r="E50" s="145" t="n"/>
-      <c r="F50" s="145" t="n"/>
-      <c r="G50" s="145" t="n"/>
-      <c r="H50" s="145" t="n"/>
-      <c r="I50" s="146" t="n"/>
+      <c r="A50" s="103" t="inlineStr">
+        <is>
+          <t>Compras entrou em contato com o fornecedor, controle da qualidade descreveu a não conformidade do componente atestando a nao usabilidade. Fornecedor enviou as 47 peças como cortesia.</t>
+        </is>
+      </c>
+      <c r="B50" s="155" t="n"/>
+      <c r="C50" s="155" t="n"/>
+      <c r="D50" s="155" t="n"/>
+      <c r="E50" s="155" t="n"/>
+      <c r="F50" s="155" t="n"/>
+      <c r="G50" s="155" t="n"/>
+      <c r="H50" s="155" t="n"/>
+      <c r="I50" s="156" t="n"/>
     </row>
     <row r="51" ht="42.75" customHeight="1">
-      <c r="A51" s="127" t="n"/>
-      <c r="B51" s="128" t="n"/>
-      <c r="C51" s="128" t="n"/>
-      <c r="D51" s="128" t="n"/>
-      <c r="E51" s="128" t="n"/>
-      <c r="F51" s="128" t="n"/>
-      <c r="G51" s="128" t="n"/>
-      <c r="H51" s="128" t="n"/>
-      <c r="I51" s="129" t="n"/>
+      <c r="A51" s="135" t="n"/>
+      <c r="B51" s="136" t="n"/>
+      <c r="C51" s="136" t="n"/>
+      <c r="D51" s="136" t="n"/>
+      <c r="E51" s="136" t="n"/>
+      <c r="F51" s="136" t="n"/>
+      <c r="G51" s="136" t="n"/>
+      <c r="H51" s="136" t="n"/>
+      <c r="I51" s="137" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="71">
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I51"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="G21:I22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A16:I19"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="A38:D38"/>
@@ -2576,64 +2701,6 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A16:I19"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I51"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:E46"/>
-    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B7" s="37" t="n">
-        <v>4371398648</v>
+        <v>5029299110</v>
       </c>
       <c r="C7" s="37" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D7" s="40" t="inlineStr">
         <is>
-          <t>Fornecedor Material</t>
+          <t>Corte e Estamparia</t>
         </is>
       </c>
       <c r="E7" s="115" t="n"/>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G7" s="41" t="inlineStr">
         <is>
-          <t>26/04/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H7" s="125" t="n"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="G8" s="44" t="inlineStr">
         <is>
-          <t>Lauriene Vargas, Estefane Santos, Severiano Neto, Evandro Passos</t>
+          <t>Severiano Neto, Abdias</t>
         </is>
       </c>
       <c r="H8" s="125" t="n"/>
@@ -1636,7 +1636,7 @@
     <row r="10" ht="24.95" customFormat="1" customHeight="1" s="9">
       <c r="A10" s="49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Na montagem das laterais foi observado um erro no componente: 240642 - GANCHO MENOR P/ F.RÁPIDO CÓD.FT 0040-C - Saldo: 300,00 - Consumo Médio Mensal: 87,67. Onde foram inspecionando os 100,00 na produção mais os 300,00 no almoxarifado. Do total dos 400,00 foi encontrado 47,00 unidades com não conformidades que não podem ser aproveitadas. </t>
+          <t>No dia 21/08/2023 foi encontrado no fechamento da caçamba CBH5000 logotipo com desnivelamento, o pedido a qual essa caçamba faz parte conta com 2 produtos CBH5000.</t>
         </is>
       </c>
       <c r="B10" s="114" t="n"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="G13" s="41" t="inlineStr">
         <is>
-          <t>26/04/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H13" s="125" t="n"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G14" s="55" t="inlineStr">
         <is>
-          <t>Lauriene Vargas, Estefane Santos, Severiano Neto, Evandro Passos</t>
+          <t>Severiano Neto, Abdias</t>
         </is>
       </c>
       <c r="H14" s="123" t="n"/>
@@ -1730,7 +1730,7 @@
     <row r="16" ht="27.95" customFormat="1" customHeight="1" s="9">
       <c r="A16" s="49" t="inlineStr">
         <is>
-          <t>Material encontrado não conforme segregado, realizado inspeção 100% nos componentes no almoxarifado e nos que já estavam na célula de montagem.</t>
+          <t>Estampar placa com logotipo "CEMAG" para posicionar sobre o logotipo desnivelado.</t>
         </is>
       </c>
       <c r="B16" s="114" t="n"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="G21" s="65" t="inlineStr">
         <is>
-          <t>26/04/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H21" s="114" t="n"/>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B25" s="71" t="inlineStr">
         <is>
-          <t>Ganchos encontrados com desalinhamento</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C25" s="123" t="n"/>
@@ -1945,10 +1945,8 @@
         </is>
       </c>
       <c r="B29" s="126" t="n"/>
-      <c r="C29" s="74" t="inlineStr">
-        <is>
-          <t>Estefane e Leonidas</t>
-        </is>
+      <c r="C29" s="74" t="n">
+        <v/>
       </c>
       <c r="D29" s="125" t="n"/>
       <c r="E29" s="125" t="n"/>
@@ -2044,73 +2042,37 @@
       <c r="I33" s="137" t="n"/>
     </row>
     <row r="34" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A34" s="138" t="inlineStr">
-        <is>
-          <t>Segregar material para não ser utilizado na produção</t>
-        </is>
-      </c>
+      <c r="A34" s="138" t="n"/>
       <c r="B34" s="125" t="n"/>
       <c r="C34" s="125" t="n"/>
       <c r="D34" s="116" t="n"/>
-      <c r="E34" s="88" t="inlineStr">
-        <is>
-          <t>Estefane Santos, Severiano Neto</t>
-        </is>
-      </c>
-      <c r="F34" s="14" t="inlineStr">
-        <is>
-          <t>Guthemberg</t>
-        </is>
-      </c>
+      <c r="E34" s="88" t="n"/>
+      <c r="F34" s="14" t="n"/>
       <c r="G34" s="116" t="n"/>
-      <c r="H34" s="14" t="inlineStr">
-        <is>
-          <t>26/04/2023</t>
-        </is>
-      </c>
-      <c r="I34" s="14" t="n">
-        <v>45042</v>
-      </c>
+      <c r="H34" s="14" t="n"/>
+      <c r="I34" s="14" t="n"/>
     </row>
     <row r="35" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A35" s="138" t="inlineStr">
-        <is>
-          <t>Abrir garantia junto ao fornecedor</t>
-        </is>
-      </c>
+      <c r="A35" s="138" t="n"/>
       <c r="B35" s="125" t="n"/>
       <c r="C35" s="125" t="n"/>
       <c r="D35" s="116" t="n"/>
-      <c r="E35" s="88" t="inlineStr">
-        <is>
-          <t>Lauriene Vargas</t>
-        </is>
-      </c>
-      <c r="F35" s="14" t="inlineStr">
-        <is>
-          <t>Evandro</t>
-        </is>
-      </c>
+      <c r="E35" s="88" t="n"/>
+      <c r="F35" s="14" t="n"/>
       <c r="G35" s="116" t="n"/>
-      <c r="H35" s="14" t="inlineStr">
-        <is>
-          <t>06/05/2023</t>
-        </is>
-      </c>
-      <c r="I35" s="14" t="n">
-        <v>45065</v>
-      </c>
+      <c r="H35" s="14" t="n"/>
+      <c r="I35" s="14" t="n"/>
     </row>
     <row r="36" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A36" s="138" t="inlineStr"/>
+      <c r="A36" s="138" t="n"/>
       <c r="B36" s="125" t="n"/>
       <c r="C36" s="125" t="n"/>
       <c r="D36" s="116" t="n"/>
-      <c r="E36" s="88" t="inlineStr"/>
-      <c r="F36" s="14" t="inlineStr"/>
+      <c r="E36" s="88" t="n"/>
+      <c r="F36" s="14" t="n"/>
       <c r="G36" s="116" t="n"/>
-      <c r="H36" s="14" t="inlineStr"/>
-      <c r="I36" s="14" t="inlineStr"/>
+      <c r="H36" s="14" t="n"/>
+      <c r="I36" s="14" t="n"/>
     </row>
     <row r="37" ht="60" customFormat="1" customHeight="1" s="9">
       <c r="A37" s="138" t="n"/>
@@ -2217,7 +2179,7 @@
       </c>
       <c r="G45" s="107" t="inlineStr">
         <is>
-          <t>19/05/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H45" s="125" t="n"/>
@@ -2326,7 +2288,7 @@
     <row r="50" ht="42.75" customFormat="1" customHeight="1" s="9">
       <c r="A50" s="96" t="inlineStr">
         <is>
-          <t>Compras entrou em contato com o fornecedor, controle da qualidade descreveu a não conformidade do componente atestando a nao usabilidade. Fornecedor enviou as 47 peças como cortesia.</t>
+          <t>Foram colocado 2 plaquinhas estampadas com a logo CEMAG para cobrir o local do erro, esse reparo foi feito nas duas caçambas do pedido do cliente.</t>
         </is>
       </c>
       <c r="B50" s="139" t="n"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B7" s="37" t="n">
-        <v>5029299110</v>
+        <v>5417229751</v>
       </c>
       <c r="C7" s="37" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D7" s="40" t="inlineStr">
         <is>
-          <t>Corte e Estamparia</t>
+          <t>Fornecedor Material</t>
         </is>
       </c>
       <c r="E7" s="115" t="n"/>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G7" s="41" t="inlineStr">
         <is>
-          <t>22/08/2023</t>
+          <t>17/07/2023</t>
         </is>
       </c>
       <c r="H7" s="125" t="n"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="G8" s="44" t="inlineStr">
         <is>
-          <t>Severiano Neto, Abdias</t>
+          <t>Severiano Neto, Lauriene Vargas</t>
         </is>
       </c>
       <c r="H8" s="125" t="n"/>
@@ -1636,7 +1636,8 @@
     <row r="10" ht="24.95" customFormat="1" customHeight="1" s="9">
       <c r="A10" s="49" t="inlineStr">
         <is>
-          <t>No dia 21/08/2023 foi encontrado no fechamento da caçamba CBH5000 logotipo com desnivelamento, o pedido a qual essa caçamba faz parte conta com 2 produtos CBH5000.</t>
+          <t>07/07/2023
+Cubos de roda referentes ao pedido de NF Nº. 000.037.127, apresentando dificuldade de montagem dos parafuso de roda no processo de fixação dos mesmo feito pelo almoxarifado. Uma amostra de cubo chegou a tricar devido a aplicação de força da máquina na tentativa de fixação.</t>
         </is>
       </c>
       <c r="B10" s="114" t="n"/>
@@ -1687,7 +1688,7 @@
       </c>
       <c r="G13" s="41" t="inlineStr">
         <is>
-          <t>22/08/2023</t>
+          <t>17/07/2023</t>
         </is>
       </c>
       <c r="H13" s="125" t="n"/>
@@ -1706,7 +1707,7 @@
       </c>
       <c r="G14" s="55" t="inlineStr">
         <is>
-          <t>Severiano Neto, Abdias</t>
+          <t>Severiano Neto, Lauriene Vargas</t>
         </is>
       </c>
       <c r="H14" s="123" t="n"/>
@@ -1730,7 +1731,7 @@
     <row r="16" ht="27.95" customFormat="1" customHeight="1" s="9">
       <c r="A16" s="49" t="inlineStr">
         <is>
-          <t>Estampar placa com logotipo "CEMAG" para posicionar sobre o logotipo desnivelado.</t>
+          <t>Segregar e identificar o material no almoxarifado, e comunicar que o material  só deverá ser utilizado após  a reabertura de seus furo  e somente para monatgem de eixos  de CBHM4500.</t>
         </is>
       </c>
       <c r="B16" s="114" t="n"/>
@@ -1807,7 +1808,7 @@
       </c>
       <c r="G21" s="65" t="inlineStr">
         <is>
-          <t>22/08/2023</t>
+          <t>07/07/2023</t>
         </is>
       </c>
       <c r="H21" s="114" t="n"/>
@@ -1870,7 +1871,7 @@
       </c>
       <c r="B25" s="71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Caracteristicas e especificações do material não foram atendidas.</t>
         </is>
       </c>
       <c r="C25" s="123" t="n"/>
@@ -1889,7 +1890,7 @@
       </c>
       <c r="B26" s="71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Dureza do material fora do especificado.</t>
         </is>
       </c>
       <c r="C26" s="123" t="n"/>
@@ -1945,8 +1946,10 @@
         </is>
       </c>
       <c r="B29" s="126" t="n"/>
-      <c r="C29" s="74" t="n">
-        <v/>
+      <c r="C29" s="74" t="inlineStr">
+        <is>
+          <t>Severiano, Olindo, Lauriene</t>
+        </is>
       </c>
       <c r="D29" s="125" t="n"/>
       <c r="E29" s="125" t="n"/>
@@ -2042,59 +2045,131 @@
       <c r="I33" s="137" t="n"/>
     </row>
     <row r="34" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A34" s="138" t="n"/>
+      <c r="A34" s="138" t="inlineStr">
+        <is>
+          <t>Realizar ensaio de dureza</t>
+        </is>
+      </c>
       <c r="B34" s="125" t="n"/>
       <c r="C34" s="125" t="n"/>
       <c r="D34" s="116" t="n"/>
-      <c r="E34" s="88" t="n"/>
-      <c r="F34" s="14" t="n"/>
+      <c r="E34" s="88" t="inlineStr">
+        <is>
+          <t>Severiano Neto</t>
+        </is>
+      </c>
+      <c r="F34" s="14" t="inlineStr">
+        <is>
+          <t>Severiano</t>
+        </is>
+      </c>
       <c r="G34" s="116" t="n"/>
-      <c r="H34" s="14" t="n"/>
-      <c r="I34" s="14" t="n"/>
+      <c r="H34" s="14" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="I34" s="14" t="n">
+        <v>45118</v>
+      </c>
     </row>
     <row r="35" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A35" s="138" t="n"/>
+      <c r="A35" s="138" t="inlineStr">
+        <is>
+          <t>Repassar problemática para fornecedor</t>
+        </is>
+      </c>
       <c r="B35" s="125" t="n"/>
       <c r="C35" s="125" t="n"/>
       <c r="D35" s="116" t="n"/>
-      <c r="E35" s="88" t="n"/>
-      <c r="F35" s="14" t="n"/>
+      <c r="E35" s="88" t="inlineStr">
+        <is>
+          <t>Lauriene Vargas</t>
+        </is>
+      </c>
+      <c r="F35" s="14" t="inlineStr">
+        <is>
+          <t>Lauriene</t>
+        </is>
+      </c>
       <c r="G35" s="116" t="n"/>
-      <c r="H35" s="14" t="n"/>
-      <c r="I35" s="14" t="n"/>
+      <c r="H35" s="14" t="inlineStr">
+        <is>
+          <t>17/07/2023</t>
+        </is>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>45124</v>
+      </c>
     </row>
     <row r="36" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A36" s="138" t="n"/>
+      <c r="A36" s="138" t="inlineStr">
+        <is>
+          <t>Realizar  ensaio de dureza Senai para contraprova dos testes realizados internamente.</t>
+        </is>
+      </c>
       <c r="B36" s="125" t="n"/>
       <c r="C36" s="125" t="n"/>
       <c r="D36" s="116" t="n"/>
-      <c r="E36" s="88" t="n"/>
-      <c r="F36" s="14" t="n"/>
+      <c r="E36" s="88" t="inlineStr">
+        <is>
+          <t>Lauriene Vargas</t>
+        </is>
+      </c>
+      <c r="F36" s="14" t="inlineStr">
+        <is>
+          <t>Lauriene</t>
+        </is>
+      </c>
       <c r="G36" s="116" t="n"/>
-      <c r="H36" s="14" t="n"/>
-      <c r="I36" s="14" t="n"/>
+      <c r="H36" s="14" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>45184</v>
+      </c>
     </row>
     <row r="37" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A37" s="138" t="n"/>
+      <c r="A37" s="138" t="inlineStr">
+        <is>
+          <t>Segregar e identificar material no almoxarifado</t>
+        </is>
+      </c>
       <c r="B37" s="125" t="n"/>
       <c r="C37" s="125" t="n"/>
       <c r="D37" s="116" t="n"/>
-      <c r="E37" s="88" t="n"/>
-      <c r="F37" s="14" t="n"/>
+      <c r="E37" s="88" t="inlineStr">
+        <is>
+          <t>Estefane Santos</t>
+        </is>
+      </c>
+      <c r="F37" s="14" t="inlineStr">
+        <is>
+          <t>Estefane</t>
+        </is>
+      </c>
       <c r="G37" s="116" t="n"/>
-      <c r="H37" s="14" t="n"/>
-      <c r="I37" s="14" t="n"/>
+      <c r="H37" s="14" t="inlineStr">
+        <is>
+          <t>17/07/2023</t>
+        </is>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>45229</v>
+      </c>
     </row>
     <row r="38" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A38" s="138" t="n"/>
+      <c r="A38" s="138" t="inlineStr"/>
       <c r="B38" s="125" t="n"/>
       <c r="C38" s="125" t="n"/>
       <c r="D38" s="116" t="n"/>
-      <c r="E38" s="88" t="n"/>
-      <c r="F38" s="14" t="n"/>
+      <c r="E38" s="88" t="inlineStr"/>
+      <c r="F38" s="14" t="inlineStr"/>
       <c r="G38" s="116" t="n"/>
-      <c r="H38" s="14" t="n"/>
-      <c r="I38" s="14" t="n"/>
+      <c r="H38" s="14" t="inlineStr"/>
+      <c r="I38" s="14" t="inlineStr"/>
     </row>
     <row r="39" ht="60" customFormat="1" customHeight="1" s="9">
       <c r="A39" s="138" t="n"/>
@@ -2179,7 +2254,7 @@
       </c>
       <c r="G45" s="107" t="inlineStr">
         <is>
-          <t>22/08/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="H45" s="125" t="n"/>
@@ -2288,7 +2363,7 @@
     <row r="50" ht="42.75" customFormat="1" customHeight="1" s="9">
       <c r="A50" s="96" t="inlineStr">
         <is>
-          <t>Foram colocado 2 plaquinhas estampadas com a logo CEMAG para cobrir o local do erro, esse reparo foi feito nas duas caçambas do pedido do cliente.</t>
+          <t>Feedback repassado para o fornecedor para que os paramentros fossem alterados para o acordado.</t>
         </is>
       </c>
       <c r="B50" s="139" t="n"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RNCAC GQ-001-000" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,6 +89,18 @@
       <color rgb="FF000000"/>
       <sz val="16"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -118,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -468,6 +480,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -629,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -640,12 +724,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -691,9 +769,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -733,9 +808,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -964,8 +1036,32 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -977,32 +1073,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,42 +1515,42 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.28515625" bestFit="1" customWidth="1" style="17" min="1" max="1"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" style="17" min="2" max="2"/>
-    <col width="17.5703125" bestFit="1" customWidth="1" style="17" min="3" max="4"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="17" min="6" max="6"/>
-    <col width="17.140625" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
-    <col width="18.28515625" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
-    <col width="28.28515625" bestFit="1" customWidth="1" style="18" min="9" max="9"/>
+    <col width="20.28515625" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="19.5703125" bestFit="1" customWidth="1" style="15" min="2" max="2"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" style="15" min="3" max="4"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="15" min="5" max="5"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="15" min="6" max="6"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="15" min="7" max="7"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="15" min="8" max="8"/>
+    <col width="28.28515625" bestFit="1" customWidth="1" style="16" min="9" max="9"/>
     <col width="13.5703125" bestFit="1" customWidth="1" min="10" max="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="112" t="n"/>
-      <c r="B1" s="113" t="inlineStr">
+      <c r="A1" s="17" t="n"/>
+      <c r="B1" s="117" t="inlineStr">
         <is>
           <t>Relatório de Não Conformidade</t>
         </is>
       </c>
-      <c r="C1" s="114" t="n"/>
-      <c r="D1" s="114" t="n"/>
-      <c r="E1" s="114" t="n"/>
-      <c r="F1" s="115" t="n"/>
-      <c r="G1" s="92" t="inlineStr">
+      <c r="C1" s="118" t="n"/>
+      <c r="D1" s="118" t="n"/>
+      <c r="E1" s="118" t="n"/>
+      <c r="F1" s="119" t="n"/>
+      <c r="G1" s="88" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="H1" s="116" t="n"/>
+      <c r="H1" s="120" t="n"/>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RQ-CQ-035-000</t>
@@ -1457,211 +1558,216 @@
       </c>
     </row>
     <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="117" t="n"/>
-      <c r="B2" s="118" t="n"/>
-      <c r="C2" s="119" t="n"/>
-      <c r="D2" s="119" t="n"/>
-      <c r="E2" s="119" t="n"/>
-      <c r="F2" s="120" t="n"/>
-      <c r="G2" s="92" t="inlineStr">
+      <c r="A2" s="121" t="n"/>
+      <c r="B2" s="122" t="n"/>
+      <c r="C2" s="123" t="n"/>
+      <c r="D2" s="123" t="n"/>
+      <c r="E2" s="123" t="n"/>
+      <c r="F2" s="124" t="n"/>
+      <c r="G2" s="88" t="inlineStr">
         <is>
           <t>Data de Emissão:</t>
         </is>
       </c>
-      <c r="H2" s="116" t="n"/>
+      <c r="H2" s="120" t="n"/>
       <c r="I2" s="2" t="n">
-        <v>45216</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="117" t="n"/>
-      <c r="B3" s="121" t="inlineStr">
+      <c r="A3" s="121" t="n"/>
+      <c r="B3" s="125" t="inlineStr">
         <is>
           <t>Gestão da Qualidade</t>
         </is>
       </c>
-      <c r="C3" s="114" t="n"/>
-      <c r="D3" s="114" t="n"/>
-      <c r="E3" s="114" t="n"/>
-      <c r="F3" s="115" t="n"/>
-      <c r="G3" s="92" t="inlineStr">
+      <c r="C3" s="118" t="n"/>
+      <c r="D3" s="118" t="n"/>
+      <c r="E3" s="118" t="n"/>
+      <c r="F3" s="119" t="n"/>
+      <c r="G3" s="88" t="inlineStr">
         <is>
           <t>Data da Última Revisão:</t>
         </is>
       </c>
-      <c r="H3" s="116" t="n"/>
-      <c r="I3" s="93" t="inlineStr">
+      <c r="H3" s="120" t="n"/>
+      <c r="I3" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="122" t="n"/>
-      <c r="B4" s="118" t="n"/>
-      <c r="C4" s="119" t="n"/>
-      <c r="D4" s="119" t="n"/>
-      <c r="E4" s="119" t="n"/>
-      <c r="F4" s="120" t="n"/>
-      <c r="G4" s="92" t="inlineStr">
+      <c r="A4" s="121" t="n"/>
+      <c r="B4" s="126" t="n"/>
+      <c r="F4" s="127" t="n"/>
+      <c r="G4" s="128" t="inlineStr">
         <is>
           <t>Página:</t>
         </is>
       </c>
-      <c r="H4" s="116" t="n"/>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="119" t="n"/>
+      <c r="I4" s="109" t="n">
         <v>44197</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="31" t="n"/>
-      <c r="B5" s="123" t="n"/>
-      <c r="C5" s="123" t="n"/>
-      <c r="D5" s="123" t="n"/>
-      <c r="E5" s="123" t="n"/>
-      <c r="F5" s="123" t="n"/>
-      <c r="G5" s="123" t="n"/>
-      <c r="H5" s="123" t="n"/>
-      <c r="I5" s="124" t="n"/>
-    </row>
-    <row r="6" ht="24.75" customHeight="1">
-      <c r="A6" s="33" t="inlineStr">
+    <row r="5" ht="24" customHeight="1">
+      <c r="A5" s="114" t="inlineStr">
+        <is>
+          <t>“Se você está lendo este documento em mídia impressa, esta é uma cópia Não-Controlada”</t>
+        </is>
+      </c>
+      <c r="B5" s="129" t="n"/>
+      <c r="C5" s="129" t="n"/>
+      <c r="D5" s="129" t="n"/>
+      <c r="E5" s="129" t="n"/>
+      <c r="F5" s="129" t="n"/>
+      <c r="G5" s="129" t="n"/>
+      <c r="H5" s="129" t="n"/>
+      <c r="I5" s="130" t="n"/>
+    </row>
+    <row r="6" ht="37.5" customHeight="1">
+      <c r="A6" s="116" t="inlineStr">
+        <is>
+          <t>Relatório de Não Conformidade</t>
+        </is>
+      </c>
+      <c r="B6" s="129" t="n"/>
+      <c r="C6" s="129" t="n"/>
+      <c r="D6" s="129" t="n"/>
+      <c r="E6" s="129" t="n"/>
+      <c r="F6" s="129" t="n"/>
+      <c r="G6" s="129" t="n"/>
+      <c r="H6" s="129" t="n"/>
+      <c r="I6" s="130" t="n"/>
+    </row>
+    <row r="7" ht="24.75" customHeight="1">
+      <c r="A7" s="110" t="inlineStr">
         <is>
           <t>1ª ETAPA - ABERTURA</t>
         </is>
       </c>
-      <c r="B6" s="123" t="n"/>
-      <c r="C6" s="123" t="n"/>
-      <c r="D6" s="123" t="n"/>
-      <c r="E6" s="124" t="n"/>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="B7" s="131" t="n"/>
+      <c r="C7" s="131" t="n"/>
+      <c r="D7" s="131" t="n"/>
+      <c r="E7" s="132" t="n"/>
+      <c r="F7" s="111" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G6" s="34" t="inlineStr">
+      <c r="G7" s="112" t="inlineStr">
         <is>
           <t>Feito</t>
         </is>
       </c>
-      <c r="H6" s="125" t="n"/>
-      <c r="I6" s="116" t="n"/>
-      <c r="J6" s="6" t="n"/>
-      <c r="K6" s="6" t="n"/>
-      <c r="L6" s="54" t="n"/>
-      <c r="M6" s="6" t="n"/>
-      <c r="N6" s="6" t="n"/>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="6" t="n"/>
-      <c r="R6" s="6" t="n"/>
-      <c r="S6" s="6" t="n"/>
-      <c r="T6" s="6" t="n"/>
-      <c r="U6" s="6" t="n"/>
-      <c r="V6" s="6" t="n"/>
-      <c r="W6" s="6" t="n"/>
-      <c r="X6" s="6" t="n"/>
-      <c r="Y6" s="6" t="n"/>
-      <c r="Z6" s="6" t="n"/>
-      <c r="AA6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="H7" s="123" t="n"/>
+      <c r="I7" s="124" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="50" t="n"/>
+      <c r="M7" s="4" t="n"/>
+      <c r="N7" s="4" t="n"/>
+      <c r="O7" s="4" t="n"/>
+      <c r="P7" s="4" t="n"/>
+      <c r="Q7" s="4" t="n"/>
+      <c r="R7" s="4" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="4" t="n"/>
+      <c r="U7" s="4" t="n"/>
+      <c r="V7" s="4" t="n"/>
+      <c r="W7" s="4" t="n"/>
+      <c r="X7" s="4" t="n"/>
+      <c r="Y7" s="4" t="n"/>
+      <c r="Z7" s="4" t="n"/>
+      <c r="AA7" s="4" t="n"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="33" t="inlineStr">
         <is>
           <t>RNC Nº</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n">
+      <c r="B8" s="33" t="n">
         <v>5417229751</v>
       </c>
-      <c r="C7" s="37" t="inlineStr">
+      <c r="C8" s="33" t="inlineStr">
         <is>
           <t>Origem:</t>
         </is>
       </c>
-      <c r="D7" s="40" t="inlineStr">
+      <c r="D8" s="36" t="inlineStr">
         <is>
           <t>Fornecedor Material</t>
         </is>
       </c>
-      <c r="E7" s="115" t="n"/>
-      <c r="F7" s="47" t="inlineStr">
+      <c r="E8" s="119" t="n"/>
+      <c r="F8" s="43" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="G7" s="41" t="inlineStr">
+      <c r="G8" s="37" t="inlineStr">
         <is>
           <t>17/07/2023</t>
         </is>
       </c>
-      <c r="H7" s="125" t="n"/>
-      <c r="I7" s="126" t="n"/>
-      <c r="L7" s="54" t="n"/>
-    </row>
-    <row r="8" ht="41.25" customHeight="1">
-      <c r="A8" s="122" t="n"/>
-      <c r="B8" s="122" t="n"/>
-      <c r="C8" s="122" t="n"/>
-      <c r="D8" s="118" t="n"/>
-      <c r="E8" s="120" t="n"/>
-      <c r="F8" s="47" t="inlineStr">
+      <c r="H8" s="133" t="n"/>
+      <c r="I8" s="134" t="n"/>
+      <c r="L8" s="50" t="n"/>
+    </row>
+    <row r="9" ht="41.25" customHeight="1">
+      <c r="A9" s="135" t="n"/>
+      <c r="B9" s="135" t="n"/>
+      <c r="C9" s="135" t="n"/>
+      <c r="D9" s="122" t="n"/>
+      <c r="E9" s="124" t="n"/>
+      <c r="F9" s="43" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G8" s="44" t="inlineStr">
+      <c r="G9" s="40" t="inlineStr">
         <is>
           <t>Severiano Neto, Lauriene Vargas</t>
         </is>
       </c>
-      <c r="H8" s="125" t="n"/>
-      <c r="I8" s="116" t="n"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="47" t="inlineStr">
+      <c r="H9" s="133" t="n"/>
+      <c r="I9" s="120" t="n"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="43" t="inlineStr">
         <is>
           <t>Descrição do Problema</t>
         </is>
       </c>
-      <c r="B9" s="125" t="n"/>
-      <c r="C9" s="125" t="n"/>
-      <c r="D9" s="125" t="n"/>
-      <c r="E9" s="125" t="n"/>
-      <c r="F9" s="125" t="n"/>
-      <c r="G9" s="125" t="n"/>
-      <c r="H9" s="125" t="n"/>
-      <c r="I9" s="116" t="n"/>
-    </row>
-    <row r="10" ht="24.95" customFormat="1" customHeight="1" s="9">
-      <c r="A10" s="49" t="inlineStr">
+      <c r="B10" s="133" t="n"/>
+      <c r="C10" s="133" t="n"/>
+      <c r="D10" s="133" t="n"/>
+      <c r="E10" s="133" t="n"/>
+      <c r="F10" s="133" t="n"/>
+      <c r="G10" s="133" t="n"/>
+      <c r="H10" s="133" t="n"/>
+      <c r="I10" s="120" t="n"/>
+    </row>
+    <row r="11" ht="24.95" customFormat="1" customHeight="1" s="7">
+      <c r="A11" s="45" t="inlineStr">
         <is>
           <t>07/07/2023
 Cubos de roda referentes ao pedido de NF Nº. 000.037.127, apresentando dificuldade de montagem dos parafuso de roda no processo de fixação dos mesmo feito pelo almoxarifado. Uma amostra de cubo chegou a tricar devido a aplicação de força da máquina na tentativa de fixação.</t>
         </is>
       </c>
-      <c r="B10" s="114" t="n"/>
-      <c r="C10" s="114" t="n"/>
-      <c r="D10" s="114" t="n"/>
-      <c r="E10" s="114" t="n"/>
-      <c r="F10" s="114" t="n"/>
-      <c r="G10" s="114" t="n"/>
-      <c r="H10" s="114" t="n"/>
-      <c r="I10" s="115" t="n"/>
-    </row>
-    <row r="11" ht="66.75" customFormat="1" customHeight="1" s="9">
-      <c r="A11" s="118" t="n"/>
-      <c r="B11" s="119" t="n"/>
-      <c r="C11" s="119" t="n"/>
-      <c r="D11" s="119" t="n"/>
-      <c r="E11" s="119" t="n"/>
-      <c r="F11" s="119" t="n"/>
-      <c r="G11" s="119" t="n"/>
-      <c r="H11" s="119" t="n"/>
-      <c r="I11" s="120" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="31" t="n"/>
+      <c r="B11" s="118" t="n"/>
+      <c r="C11" s="118" t="n"/>
+      <c r="D11" s="118" t="n"/>
+      <c r="E11" s="118" t="n"/>
+      <c r="F11" s="118" t="n"/>
+      <c r="G11" s="118" t="n"/>
+      <c r="H11" s="118" t="n"/>
+      <c r="I11" s="119" t="n"/>
+    </row>
+    <row r="12" ht="66.75" customFormat="1" customHeight="1" s="7">
+      <c r="A12" s="122" t="n"/>
       <c r="B12" s="123" t="n"/>
       <c r="C12" s="123" t="n"/>
       <c r="D12" s="123" t="n"/>
@@ -1671,787 +1777,799 @@
       <c r="H12" s="123" t="n"/>
       <c r="I12" s="124" t="n"/>
     </row>
-    <row r="13" ht="23.25" customHeight="1">
-      <c r="A13" s="52" t="inlineStr">
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="28" t="n"/>
+      <c r="B13" s="136" t="n"/>
+      <c r="C13" s="136" t="n"/>
+      <c r="D13" s="136" t="n"/>
+      <c r="E13" s="136" t="n"/>
+      <c r="F13" s="136" t="n"/>
+      <c r="G13" s="136" t="n"/>
+      <c r="H13" s="136" t="n"/>
+      <c r="I13" s="137" t="n"/>
+    </row>
+    <row r="14" ht="23.25" customHeight="1">
+      <c r="A14" s="48" t="inlineStr">
         <is>
           <t>2ª ETAPA - AÇÃO IMEDIATA</t>
         </is>
       </c>
-      <c r="B13" s="114" t="n"/>
-      <c r="C13" s="114" t="n"/>
-      <c r="D13" s="114" t="n"/>
-      <c r="E13" s="127" t="n"/>
-      <c r="F13" s="64" t="inlineStr">
+      <c r="B14" s="118" t="n"/>
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="138" t="n"/>
+      <c r="F14" s="60" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="G13" s="41" t="inlineStr">
+      <c r="G14" s="37" t="inlineStr">
         <is>
           <t>17/07/2023</t>
         </is>
       </c>
-      <c r="H13" s="125" t="n"/>
-      <c r="I13" s="126" t="n"/>
-    </row>
-    <row r="14" ht="48" customHeight="1">
-      <c r="A14" s="128" t="n"/>
-      <c r="B14" s="129" t="n"/>
-      <c r="C14" s="129" t="n"/>
-      <c r="D14" s="129" t="n"/>
-      <c r="E14" s="130" t="n"/>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="H14" s="133" t="n"/>
+      <c r="I14" s="134" t="n"/>
+    </row>
+    <row r="15" ht="48" customHeight="1">
+      <c r="A15" s="139" t="n"/>
+      <c r="B15" s="131" t="n"/>
+      <c r="C15" s="131" t="n"/>
+      <c r="D15" s="131" t="n"/>
+      <c r="E15" s="132" t="n"/>
+      <c r="F15" s="9" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G14" s="55" t="inlineStr">
+      <c r="G15" s="51" t="inlineStr">
         <is>
           <t>Severiano Neto, Lauriene Vargas</t>
         </is>
       </c>
-      <c r="H14" s="123" t="n"/>
-      <c r="I14" s="131" t="n"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="47" t="inlineStr">
+      <c r="H15" s="136" t="n"/>
+      <c r="I15" s="140" t="n"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="43" t="inlineStr">
         <is>
           <t>Ação imediata</t>
         </is>
       </c>
-      <c r="B15" s="125" t="n"/>
-      <c r="C15" s="125" t="n"/>
-      <c r="D15" s="125" t="n"/>
-      <c r="E15" s="125" t="n"/>
-      <c r="F15" s="125" t="n"/>
-      <c r="G15" s="125" t="n"/>
-      <c r="H15" s="125" t="n"/>
-      <c r="I15" s="116" t="n"/>
-    </row>
-    <row r="16" ht="27.95" customFormat="1" customHeight="1" s="9">
-      <c r="A16" s="49" t="inlineStr">
+      <c r="B16" s="133" t="n"/>
+      <c r="C16" s="133" t="n"/>
+      <c r="D16" s="133" t="n"/>
+      <c r="E16" s="133" t="n"/>
+      <c r="F16" s="133" t="n"/>
+      <c r="G16" s="133" t="n"/>
+      <c r="H16" s="133" t="n"/>
+      <c r="I16" s="120" t="n"/>
+    </row>
+    <row r="17" ht="27.95" customFormat="1" customHeight="1" s="7">
+      <c r="A17" s="45" t="inlineStr">
         <is>
           <t>Segregar e identificar o material no almoxarifado, e comunicar que o material  só deverá ser utilizado após  a reabertura de seus furo  e somente para monatgem de eixos  de CBHM4500.</t>
         </is>
       </c>
-      <c r="B16" s="114" t="n"/>
-      <c r="C16" s="114" t="n"/>
-      <c r="D16" s="114" t="n"/>
-      <c r="E16" s="114" t="n"/>
-      <c r="F16" s="114" t="n"/>
-      <c r="G16" s="114" t="n"/>
-      <c r="H16" s="114" t="n"/>
-      <c r="I16" s="115" t="n"/>
-    </row>
-    <row r="17" ht="27.95" customFormat="1" customHeight="1" s="9">
-      <c r="A17" s="132" t="n"/>
-      <c r="I17" s="133" t="n"/>
-    </row>
-    <row r="18" ht="27.95" customFormat="1" customHeight="1" s="9">
-      <c r="A18" s="132" t="n"/>
-      <c r="I18" s="133" t="n"/>
-    </row>
-    <row r="19" ht="23.25" customHeight="1">
-      <c r="A19" s="118" t="n"/>
-      <c r="B19" s="119" t="n"/>
-      <c r="C19" s="119" t="n"/>
-      <c r="D19" s="119" t="n"/>
-      <c r="E19" s="119" t="n"/>
-      <c r="F19" s="119" t="n"/>
-      <c r="G19" s="119" t="n"/>
-      <c r="H19" s="119" t="n"/>
-      <c r="I19" s="120" t="n"/>
-      <c r="J19" s="6" t="n"/>
-      <c r="K19" s="6" t="n"/>
-      <c r="L19" s="6" t="n"/>
-      <c r="M19" s="6" t="n"/>
-      <c r="N19" s="6" t="n"/>
-      <c r="O19" s="6" t="n"/>
-      <c r="P19" s="6" t="n"/>
-      <c r="Q19" s="6" t="n"/>
-      <c r="R19" s="6" t="n"/>
-      <c r="S19" s="6" t="n"/>
-      <c r="T19" s="6" t="n"/>
-      <c r="U19" s="6" t="n"/>
-      <c r="V19" s="6" t="n"/>
-      <c r="W19" s="6" t="n"/>
-      <c r="X19" s="6" t="n"/>
-      <c r="Y19" s="6" t="n"/>
-      <c r="Z19" s="6" t="n"/>
-      <c r="AA19" s="6" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="60" t="n"/>
-      <c r="B20" s="134" t="n"/>
-      <c r="C20" s="134" t="n"/>
-      <c r="D20" s="134" t="n"/>
-      <c r="E20" s="134" t="n"/>
-      <c r="F20" s="134" t="n"/>
-      <c r="G20" s="134" t="n"/>
-      <c r="H20" s="134" t="n"/>
-      <c r="I20" s="135" t="n"/>
+      <c r="B17" s="118" t="n"/>
+      <c r="C17" s="118" t="n"/>
+      <c r="D17" s="118" t="n"/>
+      <c r="E17" s="118" t="n"/>
+      <c r="F17" s="118" t="n"/>
+      <c r="G17" s="118" t="n"/>
+      <c r="H17" s="118" t="n"/>
+      <c r="I17" s="119" t="n"/>
+    </row>
+    <row r="18" ht="27.95" customFormat="1" customHeight="1" s="7">
+      <c r="A18" s="126" t="n"/>
+      <c r="I18" s="127" t="n"/>
+    </row>
+    <row r="19" ht="27.95" customFormat="1" customHeight="1" s="7">
+      <c r="A19" s="126" t="n"/>
+      <c r="I19" s="127" t="n"/>
+    </row>
+    <row r="20" ht="23.25" customHeight="1">
+      <c r="A20" s="122" t="n"/>
+      <c r="B20" s="123" t="n"/>
+      <c r="C20" s="123" t="n"/>
+      <c r="D20" s="123" t="n"/>
+      <c r="E20" s="123" t="n"/>
+      <c r="F20" s="123" t="n"/>
+      <c r="G20" s="123" t="n"/>
+      <c r="H20" s="123" t="n"/>
+      <c r="I20" s="124" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
+      <c r="L20" s="4" t="n"/>
+      <c r="M20" s="4" t="n"/>
+      <c r="N20" s="4" t="n"/>
+      <c r="O20" s="4" t="n"/>
+      <c r="P20" s="4" t="n"/>
+      <c r="Q20" s="4" t="n"/>
+      <c r="R20" s="4" t="n"/>
+      <c r="S20" s="4" t="n"/>
+      <c r="T20" s="4" t="n"/>
+      <c r="U20" s="4" t="n"/>
+      <c r="V20" s="4" t="n"/>
+      <c r="W20" s="4" t="n"/>
+      <c r="X20" s="4" t="n"/>
+      <c r="Y20" s="4" t="n"/>
+      <c r="Z20" s="4" t="n"/>
+      <c r="AA20" s="4" t="n"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="52" t="inlineStr">
+      <c r="A21" s="56" t="n"/>
+      <c r="B21" s="141" t="n"/>
+      <c r="C21" s="141" t="n"/>
+      <c r="D21" s="141" t="n"/>
+      <c r="E21" s="141" t="n"/>
+      <c r="F21" s="141" t="n"/>
+      <c r="G21" s="141" t="n"/>
+      <c r="H21" s="141" t="n"/>
+      <c r="I21" s="142" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="48" t="inlineStr">
         <is>
           <t>3ª ETAPA - ANÁLISE DE CAUZA RAIZ</t>
         </is>
       </c>
-      <c r="B21" s="114" t="n"/>
-      <c r="C21" s="114" t="n"/>
-      <c r="D21" s="114" t="n"/>
-      <c r="E21" s="127" t="n"/>
-      <c r="F21" s="63" t="inlineStr">
+      <c r="B22" s="118" t="n"/>
+      <c r="C22" s="118" t="n"/>
+      <c r="D22" s="118" t="n"/>
+      <c r="E22" s="138" t="n"/>
+      <c r="F22" s="59" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="G21" s="65" t="inlineStr">
+      <c r="G22" s="61" t="inlineStr">
         <is>
           <t>07/07/2023</t>
         </is>
       </c>
-      <c r="H21" s="114" t="n"/>
-      <c r="I21" s="115" t="n"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="128" t="n"/>
-      <c r="B22" s="129" t="n"/>
-      <c r="C22" s="129" t="n"/>
-      <c r="D22" s="129" t="n"/>
-      <c r="E22" s="130" t="n"/>
-      <c r="F22" s="122" t="n"/>
-      <c r="G22" s="118" t="n"/>
-      <c r="H22" s="119" t="n"/>
-      <c r="I22" s="120" t="n"/>
-    </row>
-    <row r="23" ht="24" customHeight="1">
-      <c r="A23" s="12" t="inlineStr">
+      <c r="H22" s="118" t="n"/>
+      <c r="I22" s="119" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="139" t="n"/>
+      <c r="B23" s="131" t="n"/>
+      <c r="C23" s="131" t="n"/>
+      <c r="D23" s="131" t="n"/>
+      <c r="E23" s="132" t="n"/>
+      <c r="F23" s="135" t="n"/>
+      <c r="G23" s="122" t="n"/>
+      <c r="H23" s="123" t="n"/>
+      <c r="I23" s="124" t="n"/>
+    </row>
+    <row r="24" ht="24" customHeight="1">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>Máquina</t>
         </is>
       </c>
-      <c r="B23" s="136" t="inlineStr">
+      <c r="B24" s="143" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C23" s="114" t="n"/>
-      <c r="D23" s="114" t="n"/>
-      <c r="E23" s="114" t="n"/>
-      <c r="F23" s="114" t="n"/>
-      <c r="G23" s="114" t="n"/>
-      <c r="H23" s="114" t="n"/>
-      <c r="I23" s="115" t="n"/>
-    </row>
-    <row r="24" ht="24" customHeight="1">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="C24" s="118" t="n"/>
+      <c r="D24" s="118" t="n"/>
+      <c r="E24" s="118" t="n"/>
+      <c r="F24" s="118" t="n"/>
+      <c r="G24" s="118" t="n"/>
+      <c r="H24" s="118" t="n"/>
+      <c r="I24" s="119" t="n"/>
+    </row>
+    <row r="25" ht="24" customHeight="1">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>Mão-de-Obra</t>
         </is>
       </c>
-      <c r="B24" s="71" t="inlineStr">
+      <c r="B25" s="67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C24" s="123" t="n"/>
-      <c r="D24" s="123" t="n"/>
-      <c r="E24" s="123" t="n"/>
-      <c r="F24" s="123" t="n"/>
-      <c r="G24" s="123" t="n"/>
-      <c r="H24" s="123" t="n"/>
-      <c r="I24" s="124" t="n"/>
-    </row>
-    <row r="25" ht="24" customHeight="1">
-      <c r="A25" s="12" t="inlineStr">
+      <c r="C25" s="136" t="n"/>
+      <c r="D25" s="136" t="n"/>
+      <c r="E25" s="136" t="n"/>
+      <c r="F25" s="136" t="n"/>
+      <c r="G25" s="136" t="n"/>
+      <c r="H25" s="136" t="n"/>
+      <c r="I25" s="137" t="n"/>
+    </row>
+    <row r="26" ht="24" customHeight="1">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>Matéria Prima</t>
         </is>
       </c>
-      <c r="B25" s="71" t="inlineStr">
+      <c r="B26" s="67" t="inlineStr">
         <is>
           <t>Caracteristicas e especificações do material não foram atendidas.</t>
         </is>
       </c>
-      <c r="C25" s="123" t="n"/>
-      <c r="D25" s="123" t="n"/>
-      <c r="E25" s="123" t="n"/>
-      <c r="F25" s="123" t="n"/>
-      <c r="G25" s="123" t="n"/>
-      <c r="H25" s="123" t="n"/>
-      <c r="I25" s="124" t="n"/>
-    </row>
-    <row r="26" ht="45" customHeight="1">
-      <c r="A26" s="12" t="inlineStr">
+      <c r="C26" s="136" t="n"/>
+      <c r="D26" s="136" t="n"/>
+      <c r="E26" s="136" t="n"/>
+      <c r="F26" s="136" t="n"/>
+      <c r="G26" s="136" t="n"/>
+      <c r="H26" s="136" t="n"/>
+      <c r="I26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="45" customHeight="1">
+      <c r="A27" s="10" t="inlineStr">
         <is>
           <t>Medição</t>
         </is>
       </c>
-      <c r="B26" s="71" t="inlineStr">
+      <c r="B27" s="67" t="inlineStr">
         <is>
           <t>Dureza do material fora do especificado.</t>
         </is>
       </c>
-      <c r="C26" s="123" t="n"/>
-      <c r="D26" s="123" t="n"/>
-      <c r="E26" s="123" t="n"/>
-      <c r="F26" s="123" t="n"/>
-      <c r="G26" s="123" t="n"/>
-      <c r="H26" s="123" t="n"/>
-      <c r="I26" s="124" t="n"/>
-    </row>
-    <row r="27" ht="45" customHeight="1">
-      <c r="A27" s="12" t="inlineStr">
+      <c r="C27" s="136" t="n"/>
+      <c r="D27" s="136" t="n"/>
+      <c r="E27" s="136" t="n"/>
+      <c r="F27" s="136" t="n"/>
+      <c r="G27" s="136" t="n"/>
+      <c r="H27" s="136" t="n"/>
+      <c r="I27" s="137" t="n"/>
+    </row>
+    <row r="28" ht="45" customHeight="1">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>Método</t>
         </is>
       </c>
-      <c r="B27" s="71" t="inlineStr">
+      <c r="B28" s="67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C27" s="123" t="n"/>
-      <c r="D27" s="123" t="n"/>
-      <c r="E27" s="123" t="n"/>
-      <c r="F27" s="123" t="n"/>
-      <c r="G27" s="123" t="n"/>
-      <c r="H27" s="123" t="n"/>
-      <c r="I27" s="124" t="n"/>
-    </row>
-    <row r="28" ht="45" customHeight="1">
-      <c r="A28" s="12" t="inlineStr">
+      <c r="C28" s="136" t="n"/>
+      <c r="D28" s="136" t="n"/>
+      <c r="E28" s="136" t="n"/>
+      <c r="F28" s="136" t="n"/>
+      <c r="G28" s="136" t="n"/>
+      <c r="H28" s="136" t="n"/>
+      <c r="I28" s="137" t="n"/>
+    </row>
+    <row r="29" ht="45" customHeight="1">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>Meio Ambiente</t>
         </is>
       </c>
-      <c r="B28" s="71" t="inlineStr">
+      <c r="B29" s="67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C28" s="123" t="n"/>
-      <c r="D28" s="123" t="n"/>
-      <c r="E28" s="123" t="n"/>
-      <c r="F28" s="123" t="n"/>
-      <c r="G28" s="123" t="n"/>
-      <c r="H28" s="123" t="n"/>
-      <c r="I28" s="124" t="n"/>
-    </row>
-    <row r="29" ht="45" customHeight="1">
-      <c r="A29" s="73" t="inlineStr">
+      <c r="C29" s="136" t="n"/>
+      <c r="D29" s="136" t="n"/>
+      <c r="E29" s="136" t="n"/>
+      <c r="F29" s="136" t="n"/>
+      <c r="G29" s="136" t="n"/>
+      <c r="H29" s="136" t="n"/>
+      <c r="I29" s="137" t="n"/>
+    </row>
+    <row r="30" ht="45" customHeight="1">
+      <c r="A30" s="69" t="inlineStr">
         <is>
           <t>Presentes:</t>
         </is>
       </c>
-      <c r="B29" s="126" t="n"/>
-      <c r="C29" s="74" t="inlineStr">
+      <c r="B30" s="134" t="n"/>
+      <c r="C30" s="70" t="inlineStr">
         <is>
           <t>Severiano, Olindo, Lauriene</t>
         </is>
       </c>
-      <c r="D29" s="125" t="n"/>
-      <c r="E29" s="125" t="n"/>
-      <c r="F29" s="125" t="n"/>
-      <c r="G29" s="125" t="n"/>
-      <c r="H29" s="125" t="n"/>
-      <c r="I29" s="126" t="n"/>
-    </row>
-    <row r="30" ht="6" customHeight="1">
-      <c r="A30" s="60" t="n"/>
-      <c r="B30" s="134" t="n"/>
-      <c r="C30" s="134" t="n"/>
-      <c r="D30" s="134" t="n"/>
-      <c r="E30" s="134" t="n"/>
-      <c r="F30" s="134" t="n"/>
-      <c r="G30" s="134" t="n"/>
-      <c r="H30" s="134" t="n"/>
-      <c r="I30" s="135" t="n"/>
-    </row>
-    <row r="31" ht="36.75" customHeight="1">
-      <c r="A31" s="33" t="inlineStr">
+      <c r="D30" s="133" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="F30" s="133" t="n"/>
+      <c r="G30" s="133" t="n"/>
+      <c r="H30" s="133" t="n"/>
+      <c r="I30" s="134" t="n"/>
+    </row>
+    <row r="31" ht="6" customHeight="1">
+      <c r="A31" s="56" t="n"/>
+      <c r="B31" s="141" t="n"/>
+      <c r="C31" s="141" t="n"/>
+      <c r="D31" s="141" t="n"/>
+      <c r="E31" s="141" t="n"/>
+      <c r="F31" s="141" t="n"/>
+      <c r="G31" s="141" t="n"/>
+      <c r="H31" s="141" t="n"/>
+      <c r="I31" s="142" t="n"/>
+    </row>
+    <row r="32" ht="36.75" customHeight="1">
+      <c r="A32" s="30" t="inlineStr">
         <is>
           <t>3ªETAPA - PLANO DE AÇÃO</t>
         </is>
       </c>
-      <c r="B31" s="123" t="n"/>
-      <c r="C31" s="123" t="n"/>
-      <c r="D31" s="123" t="n"/>
-      <c r="E31" s="123" t="n"/>
-      <c r="F31" s="123" t="n"/>
-      <c r="G31" s="123" t="n"/>
-      <c r="H31" s="123" t="n"/>
-      <c r="I31" s="124" t="n"/>
-      <c r="J31" s="6" t="n"/>
-      <c r="K31" s="6" t="n"/>
-      <c r="L31" s="6" t="n"/>
-      <c r="M31" s="6" t="n"/>
-      <c r="N31" s="6" t="n"/>
-      <c r="O31" s="6" t="n"/>
-      <c r="P31" s="6" t="n"/>
-      <c r="Q31" s="6" t="n"/>
-      <c r="R31" s="6" t="n"/>
-      <c r="S31" s="6" t="n"/>
-      <c r="T31" s="6" t="n"/>
-      <c r="U31" s="6" t="n"/>
-      <c r="V31" s="6" t="n"/>
-      <c r="W31" s="6" t="n"/>
-      <c r="X31" s="6" t="n"/>
-      <c r="Y31" s="6" t="n"/>
-      <c r="Z31" s="6" t="n"/>
-      <c r="AA31" s="6" t="n"/>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="78" t="inlineStr">
+      <c r="B32" s="136" t="n"/>
+      <c r="C32" s="136" t="n"/>
+      <c r="D32" s="136" t="n"/>
+      <c r="E32" s="136" t="n"/>
+      <c r="F32" s="136" t="n"/>
+      <c r="G32" s="136" t="n"/>
+      <c r="H32" s="136" t="n"/>
+      <c r="I32" s="137" t="n"/>
+      <c r="J32" s="4" t="n"/>
+      <c r="K32" s="4" t="n"/>
+      <c r="L32" s="4" t="n"/>
+      <c r="M32" s="4" t="n"/>
+      <c r="N32" s="4" t="n"/>
+      <c r="O32" s="4" t="n"/>
+      <c r="P32" s="4" t="n"/>
+      <c r="Q32" s="4" t="n"/>
+      <c r="R32" s="4" t="n"/>
+      <c r="S32" s="4" t="n"/>
+      <c r="T32" s="4" t="n"/>
+      <c r="U32" s="4" t="n"/>
+      <c r="V32" s="4" t="n"/>
+      <c r="W32" s="4" t="n"/>
+      <c r="X32" s="4" t="n"/>
+      <c r="Y32" s="4" t="n"/>
+      <c r="Z32" s="4" t="n"/>
+      <c r="AA32" s="4" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="74" t="inlineStr">
         <is>
           <t>Atividade</t>
         </is>
       </c>
-      <c r="B32" s="114" t="n"/>
-      <c r="C32" s="114" t="n"/>
-      <c r="D32" s="127" t="n"/>
-      <c r="E32" s="79" t="inlineStr">
+      <c r="B33" s="118" t="n"/>
+      <c r="C33" s="118" t="n"/>
+      <c r="D33" s="138" t="n"/>
+      <c r="E33" s="75" t="inlineStr">
         <is>
           <t>Responsável</t>
         </is>
       </c>
-      <c r="F32" s="78" t="inlineStr">
+      <c r="F33" s="74" t="inlineStr">
         <is>
           <t>Executor</t>
         </is>
       </c>
-      <c r="G32" s="127" t="n"/>
-      <c r="H32" s="79" t="inlineStr">
+      <c r="G33" s="138" t="n"/>
+      <c r="H33" s="75" t="inlineStr">
         <is>
           <t>Previsão</t>
         </is>
       </c>
-      <c r="I32" s="85" t="inlineStr">
+      <c r="I33" s="81" t="inlineStr">
         <is>
           <t>Realizado</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="9" customHeight="1">
-      <c r="A33" s="128" t="n"/>
-      <c r="B33" s="129" t="n"/>
-      <c r="C33" s="129" t="n"/>
-      <c r="D33" s="130" t="n"/>
-      <c r="E33" s="137" t="n"/>
-      <c r="F33" s="128" t="n"/>
-      <c r="G33" s="130" t="n"/>
-      <c r="H33" s="137" t="n"/>
-      <c r="I33" s="137" t="n"/>
-    </row>
-    <row r="34" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A34" s="138" t="inlineStr">
+    <row r="34" ht="9" customHeight="1">
+      <c r="A34" s="139" t="n"/>
+      <c r="B34" s="131" t="n"/>
+      <c r="C34" s="131" t="n"/>
+      <c r="D34" s="132" t="n"/>
+      <c r="E34" s="144" t="n"/>
+      <c r="F34" s="139" t="n"/>
+      <c r="G34" s="132" t="n"/>
+      <c r="H34" s="144" t="n"/>
+      <c r="I34" s="144" t="n"/>
+    </row>
+    <row r="35" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A35" s="145" t="inlineStr">
         <is>
           <t>Realizar ensaio de dureza</t>
         </is>
       </c>
-      <c r="B34" s="125" t="n"/>
-      <c r="C34" s="125" t="n"/>
-      <c r="D34" s="116" t="n"/>
-      <c r="E34" s="88" t="inlineStr">
+      <c r="B35" s="133" t="n"/>
+      <c r="C35" s="133" t="n"/>
+      <c r="D35" s="120" t="n"/>
+      <c r="E35" s="84" t="inlineStr">
         <is>
           <t>Severiano Neto</t>
         </is>
       </c>
-      <c r="F34" s="14" t="inlineStr">
+      <c r="F35" s="12" t="inlineStr">
         <is>
           <t>Severiano</t>
         </is>
       </c>
-      <c r="G34" s="116" t="n"/>
-      <c r="H34" s="14" t="inlineStr">
+      <c r="G35" s="120" t="n"/>
+      <c r="H35" s="12" t="inlineStr">
         <is>
           <t>07/07/2023</t>
         </is>
       </c>
-      <c r="I34" s="14" t="n">
+      <c r="I35" s="12" t="n">
         <v>45118</v>
       </c>
     </row>
-    <row r="35" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A35" s="138" t="inlineStr">
+    <row r="36" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A36" s="145" t="inlineStr">
         <is>
           <t>Repassar problemática para fornecedor</t>
         </is>
       </c>
-      <c r="B35" s="125" t="n"/>
-      <c r="C35" s="125" t="n"/>
-      <c r="D35" s="116" t="n"/>
-      <c r="E35" s="88" t="inlineStr">
+      <c r="B36" s="133" t="n"/>
+      <c r="C36" s="133" t="n"/>
+      <c r="D36" s="120" t="n"/>
+      <c r="E36" s="84" t="inlineStr">
         <is>
           <t>Lauriene Vargas</t>
         </is>
       </c>
-      <c r="F35" s="14" t="inlineStr">
+      <c r="F36" s="12" t="inlineStr">
         <is>
           <t>Lauriene</t>
         </is>
       </c>
-      <c r="G35" s="116" t="n"/>
-      <c r="H35" s="14" t="inlineStr">
+      <c r="G36" s="120" t="n"/>
+      <c r="H36" s="12" t="inlineStr">
         <is>
           <t>17/07/2023</t>
         </is>
       </c>
-      <c r="I35" s="14" t="n">
+      <c r="I36" s="12" t="n">
         <v>45124</v>
       </c>
     </row>
-    <row r="36" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A36" s="138" t="inlineStr">
+    <row r="37" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A37" s="145" t="inlineStr">
         <is>
           <t>Realizar  ensaio de dureza Senai para contraprova dos testes realizados internamente.</t>
         </is>
       </c>
-      <c r="B36" s="125" t="n"/>
-      <c r="C36" s="125" t="n"/>
-      <c r="D36" s="116" t="n"/>
-      <c r="E36" s="88" t="inlineStr">
+      <c r="B37" s="133" t="n"/>
+      <c r="C37" s="133" t="n"/>
+      <c r="D37" s="120" t="n"/>
+      <c r="E37" s="84" t="inlineStr">
         <is>
           <t>Lauriene Vargas</t>
         </is>
       </c>
-      <c r="F36" s="14" t="inlineStr">
+      <c r="F37" s="12" t="inlineStr">
         <is>
           <t>Lauriene</t>
         </is>
       </c>
-      <c r="G36" s="116" t="n"/>
-      <c r="H36" s="14" t="inlineStr">
+      <c r="G37" s="120" t="n"/>
+      <c r="H37" s="12" t="inlineStr">
         <is>
           <t>06/09/2023</t>
         </is>
       </c>
-      <c r="I36" s="14" t="n">
+      <c r="I37" s="12" t="n">
         <v>45184</v>
       </c>
     </row>
-    <row r="37" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A37" s="138" t="inlineStr">
+    <row r="38" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A38" s="145" t="inlineStr">
         <is>
           <t>Segregar e identificar material no almoxarifado</t>
         </is>
       </c>
-      <c r="B37" s="125" t="n"/>
-      <c r="C37" s="125" t="n"/>
-      <c r="D37" s="116" t="n"/>
-      <c r="E37" s="88" t="inlineStr">
+      <c r="B38" s="133" t="n"/>
+      <c r="C38" s="133" t="n"/>
+      <c r="D38" s="120" t="n"/>
+      <c r="E38" s="84" t="inlineStr">
         <is>
           <t>Estefane Santos</t>
         </is>
       </c>
-      <c r="F37" s="14" t="inlineStr">
+      <c r="F38" s="12" t="inlineStr">
         <is>
           <t>Estefane</t>
         </is>
       </c>
-      <c r="G37" s="116" t="n"/>
-      <c r="H37" s="14" t="inlineStr">
+      <c r="G38" s="120" t="n"/>
+      <c r="H38" s="12" t="inlineStr">
         <is>
           <t>17/07/2023</t>
         </is>
       </c>
-      <c r="I37" s="14" t="n">
+      <c r="I38" s="12" t="n">
         <v>45229</v>
       </c>
     </row>
-    <row r="38" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A38" s="138" t="inlineStr"/>
-      <c r="B38" s="125" t="n"/>
-      <c r="C38" s="125" t="n"/>
-      <c r="D38" s="116" t="n"/>
-      <c r="E38" s="88" t="inlineStr"/>
-      <c r="F38" s="14" t="inlineStr"/>
-      <c r="G38" s="116" t="n"/>
-      <c r="H38" s="14" t="inlineStr"/>
-      <c r="I38" s="14" t="inlineStr"/>
-    </row>
-    <row r="39" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A39" s="138" t="n"/>
-      <c r="B39" s="125" t="n"/>
-      <c r="C39" s="125" t="n"/>
-      <c r="D39" s="116" t="n"/>
-      <c r="E39" s="88" t="n"/>
-      <c r="F39" s="14" t="n"/>
-      <c r="G39" s="116" t="n"/>
-      <c r="H39" s="14" t="n"/>
-      <c r="I39" s="14" t="n"/>
-    </row>
-    <row r="40" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A40" s="138" t="n"/>
-      <c r="B40" s="125" t="n"/>
-      <c r="C40" s="125" t="n"/>
-      <c r="D40" s="116" t="n"/>
-      <c r="E40" s="88" t="n"/>
-      <c r="F40" s="14" t="n"/>
-      <c r="G40" s="116" t="n"/>
-      <c r="H40" s="14" t="n"/>
-      <c r="I40" s="14" t="n"/>
-    </row>
-    <row r="41" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A41" s="138" t="n"/>
-      <c r="B41" s="125" t="n"/>
-      <c r="C41" s="125" t="n"/>
-      <c r="D41" s="116" t="n"/>
-      <c r="E41" s="88" t="n"/>
-      <c r="F41" s="14" t="n"/>
-      <c r="G41" s="116" t="n"/>
-      <c r="H41" s="14" t="n"/>
-      <c r="I41" s="14" t="n"/>
-    </row>
-    <row r="42" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A42" s="138" t="n"/>
-      <c r="B42" s="125" t="n"/>
-      <c r="C42" s="125" t="n"/>
-      <c r="D42" s="116" t="n"/>
-      <c r="E42" s="88" t="n"/>
-      <c r="F42" s="14" t="n"/>
-      <c r="G42" s="116" t="n"/>
-      <c r="H42" s="14" t="n"/>
-      <c r="I42" s="14" t="n"/>
-    </row>
-    <row r="43" ht="60" customFormat="1" customHeight="1" s="9">
-      <c r="A43" s="138" t="n"/>
-      <c r="B43" s="125" t="n"/>
-      <c r="C43" s="125" t="n"/>
-      <c r="D43" s="116" t="n"/>
-      <c r="E43" s="88" t="n"/>
-      <c r="F43" s="14" t="n"/>
-      <c r="G43" s="116" t="n"/>
-      <c r="H43" s="14" t="n"/>
-      <c r="I43" s="14" t="n"/>
-    </row>
-    <row r="44" ht="6" customHeight="1">
-      <c r="A44" s="102" t="n"/>
-      <c r="B44" s="125" t="n"/>
-      <c r="C44" s="125" t="n"/>
-      <c r="D44" s="125" t="n"/>
-      <c r="E44" s="125" t="n"/>
-      <c r="F44" s="125" t="n"/>
-      <c r="G44" s="125" t="n"/>
-      <c r="H44" s="125" t="n"/>
-      <c r="I44" s="126" t="n"/>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="105" t="inlineStr">
+    <row r="39" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A39" s="145" t="inlineStr"/>
+      <c r="B39" s="133" t="n"/>
+      <c r="C39" s="133" t="n"/>
+      <c r="D39" s="120" t="n"/>
+      <c r="E39" s="84" t="inlineStr"/>
+      <c r="F39" s="12" t="inlineStr"/>
+      <c r="G39" s="120" t="n"/>
+      <c r="H39" s="12" t="inlineStr"/>
+      <c r="I39" s="12" t="inlineStr"/>
+    </row>
+    <row r="40" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A40" s="145" t="n"/>
+      <c r="B40" s="133" t="n"/>
+      <c r="C40" s="133" t="n"/>
+      <c r="D40" s="120" t="n"/>
+      <c r="E40" s="84" t="n"/>
+      <c r="F40" s="12" t="n"/>
+      <c r="G40" s="120" t="n"/>
+      <c r="H40" s="12" t="n"/>
+      <c r="I40" s="12" t="n"/>
+    </row>
+    <row r="41" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A41" s="145" t="n"/>
+      <c r="B41" s="133" t="n"/>
+      <c r="C41" s="133" t="n"/>
+      <c r="D41" s="120" t="n"/>
+      <c r="E41" s="84" t="n"/>
+      <c r="F41" s="12" t="n"/>
+      <c r="G41" s="120" t="n"/>
+      <c r="H41" s="12" t="n"/>
+      <c r="I41" s="12" t="n"/>
+    </row>
+    <row r="42" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A42" s="145" t="n"/>
+      <c r="B42" s="133" t="n"/>
+      <c r="C42" s="133" t="n"/>
+      <c r="D42" s="120" t="n"/>
+      <c r="E42" s="84" t="n"/>
+      <c r="F42" s="12" t="n"/>
+      <c r="G42" s="120" t="n"/>
+      <c r="H42" s="12" t="n"/>
+      <c r="I42" s="12" t="n"/>
+    </row>
+    <row r="43" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A43" s="145" t="n"/>
+      <c r="B43" s="133" t="n"/>
+      <c r="C43" s="133" t="n"/>
+      <c r="D43" s="120" t="n"/>
+      <c r="E43" s="84" t="n"/>
+      <c r="F43" s="12" t="n"/>
+      <c r="G43" s="120" t="n"/>
+      <c r="H43" s="12" t="n"/>
+      <c r="I43" s="12" t="n"/>
+    </row>
+    <row r="44" ht="60" customFormat="1" customHeight="1" s="7">
+      <c r="A44" s="145" t="n"/>
+      <c r="B44" s="133" t="n"/>
+      <c r="C44" s="133" t="n"/>
+      <c r="D44" s="120" t="n"/>
+      <c r="E44" s="84" t="n"/>
+      <c r="F44" s="12" t="n"/>
+      <c r="G44" s="120" t="n"/>
+      <c r="H44" s="12" t="n"/>
+      <c r="I44" s="12" t="n"/>
+    </row>
+    <row r="45" ht="6" customHeight="1">
+      <c r="A45" s="98" t="n"/>
+      <c r="B45" s="133" t="n"/>
+      <c r="C45" s="133" t="n"/>
+      <c r="D45" s="133" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="F45" s="133" t="n"/>
+      <c r="G45" s="133" t="n"/>
+      <c r="H45" s="133" t="n"/>
+      <c r="I45" s="134" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="101" t="inlineStr">
         <is>
           <t>4ª ETAPA - EFICÁCIA</t>
         </is>
       </c>
-      <c r="B45" s="139" t="n"/>
-      <c r="C45" s="139" t="n"/>
-      <c r="D45" s="139" t="n"/>
-      <c r="E45" s="140" t="n"/>
-      <c r="F45" s="15" t="inlineStr">
+      <c r="B46" s="146" t="n"/>
+      <c r="C46" s="146" t="n"/>
+      <c r="D46" s="146" t="n"/>
+      <c r="E46" s="147" t="n"/>
+      <c r="F46" s="13" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="G45" s="107" t="inlineStr">
+      <c r="G46" s="103" t="inlineStr">
         <is>
           <t>06/11/2023</t>
         </is>
       </c>
-      <c r="H45" s="125" t="n"/>
-      <c r="I45" s="116" t="n"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="128" t="n"/>
-      <c r="B46" s="129" t="n"/>
-      <c r="C46" s="129" t="n"/>
-      <c r="D46" s="129" t="n"/>
-      <c r="E46" s="130" t="n"/>
-      <c r="F46" s="16" t="inlineStr">
+      <c r="H46" s="133" t="n"/>
+      <c r="I46" s="120" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="139" t="n"/>
+      <c r="B47" s="131" t="n"/>
+      <c r="C47" s="131" t="n"/>
+      <c r="D47" s="131" t="n"/>
+      <c r="E47" s="132" t="n"/>
+      <c r="F47" s="14" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G46" s="109" t="inlineStr">
+      <c r="G47" s="105" t="inlineStr">
         <is>
           <t>Estefane Santos</t>
         </is>
       </c>
-      <c r="H46" s="114" t="n"/>
-      <c r="I46" s="115" t="n"/>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="A47" s="47" t="inlineStr">
+      <c r="H47" s="118" t="n"/>
+      <c r="I47" s="119" t="n"/>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="A48" s="43" t="inlineStr">
         <is>
           <t>As ações corretivas foram eficazes?</t>
         </is>
       </c>
-      <c r="B47" s="125" t="n"/>
-      <c r="C47" s="125" t="n"/>
-      <c r="D47" s="125" t="n"/>
-      <c r="E47" s="125" t="n"/>
-      <c r="F47" s="125" t="n"/>
-      <c r="G47" s="125" t="n"/>
-      <c r="H47" s="125" t="n"/>
-      <c r="I47" s="116" t="n"/>
-      <c r="J47" s="6" t="n"/>
-      <c r="K47" s="6" t="n"/>
-      <c r="L47" s="6" t="n"/>
-      <c r="M47" s="6" t="n"/>
-      <c r="N47" s="6" t="n"/>
-      <c r="O47" s="6" t="n"/>
-      <c r="P47" s="6" t="n"/>
-      <c r="Q47" s="6" t="n"/>
-      <c r="R47" s="6" t="n"/>
-      <c r="S47" s="6" t="n"/>
-      <c r="T47" s="6" t="n"/>
-      <c r="U47" s="6" t="n"/>
-      <c r="V47" s="6" t="n"/>
-      <c r="W47" s="6" t="n"/>
-      <c r="X47" s="6" t="n"/>
-      <c r="Y47" s="6" t="n"/>
-      <c r="Z47" s="6" t="n"/>
-      <c r="AA47" s="6" t="n"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="34" t="inlineStr">
+      <c r="B48" s="133" t="n"/>
+      <c r="C48" s="133" t="n"/>
+      <c r="D48" s="133" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="F48" s="133" t="n"/>
+      <c r="G48" s="133" t="n"/>
+      <c r="H48" s="133" t="n"/>
+      <c r="I48" s="120" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="31" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="B48" s="125" t="n"/>
-      <c r="C48" s="125" t="n"/>
-      <c r="D48" s="125" t="n"/>
-      <c r="E48" s="125" t="n"/>
-      <c r="F48" s="125" t="n"/>
-      <c r="G48" s="125" t="n"/>
-      <c r="H48" s="125" t="n"/>
-      <c r="I48" s="116" t="n"/>
-    </row>
-    <row r="49" ht="36.75" customHeight="1">
-      <c r="A49" s="94" t="inlineStr">
+      <c r="B49" s="133" t="n"/>
+      <c r="C49" s="133" t="n"/>
+      <c r="D49" s="133" t="n"/>
+      <c r="E49" s="133" t="n"/>
+      <c r="F49" s="133" t="n"/>
+      <c r="G49" s="133" t="n"/>
+      <c r="H49" s="133" t="n"/>
+      <c r="I49" s="120" t="n"/>
+    </row>
+    <row r="50" ht="36.75" customHeight="1">
+      <c r="A50" s="90" t="inlineStr">
         <is>
           <t>CONCLUSÃO</t>
         </is>
       </c>
-      <c r="B49" s="134" t="n"/>
-      <c r="C49" s="134" t="n"/>
-      <c r="D49" s="134" t="n"/>
-      <c r="E49" s="134" t="n"/>
-      <c r="F49" s="134" t="n"/>
-      <c r="G49" s="134" t="n"/>
-      <c r="H49" s="134" t="n"/>
-      <c r="I49" s="135" t="n"/>
-      <c r="J49" s="6" t="n"/>
-      <c r="K49" s="6" t="n"/>
-      <c r="L49" s="6" t="n"/>
-      <c r="M49" s="6" t="n"/>
-      <c r="N49" s="6" t="n"/>
-      <c r="O49" s="6" t="n"/>
-      <c r="P49" s="6" t="n"/>
-      <c r="Q49" s="6" t="n"/>
-      <c r="R49" s="6" t="n"/>
-      <c r="S49" s="6" t="n"/>
-      <c r="T49" s="6" t="n"/>
-      <c r="U49" s="6" t="n"/>
-      <c r="V49" s="6" t="n"/>
-      <c r="W49" s="6" t="n"/>
-      <c r="X49" s="6" t="n"/>
-      <c r="Y49" s="6" t="n"/>
-      <c r="Z49" s="6" t="n"/>
-      <c r="AA49" s="6" t="n"/>
-    </row>
-    <row r="50" ht="42.75" customFormat="1" customHeight="1" s="9">
-      <c r="A50" s="96" t="inlineStr">
+      <c r="B50" s="141" t="n"/>
+      <c r="C50" s="141" t="n"/>
+      <c r="D50" s="141" t="n"/>
+      <c r="E50" s="141" t="n"/>
+      <c r="F50" s="141" t="n"/>
+      <c r="G50" s="141" t="n"/>
+      <c r="H50" s="141" t="n"/>
+      <c r="I50" s="142" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+    </row>
+    <row r="51" ht="42.75" customFormat="1" customHeight="1" s="7">
+      <c r="A51" s="92" t="inlineStr">
         <is>
           <t>Feedback repassado para o fornecedor para que os paramentros fossem alterados para o acordado.</t>
         </is>
       </c>
-      <c r="B50" s="139" t="n"/>
-      <c r="C50" s="139" t="n"/>
-      <c r="D50" s="139" t="n"/>
-      <c r="E50" s="139" t="n"/>
-      <c r="F50" s="139" t="n"/>
-      <c r="G50" s="139" t="n"/>
-      <c r="H50" s="139" t="n"/>
-      <c r="I50" s="140" t="n"/>
-    </row>
-    <row r="51" ht="42.75" customFormat="1" customHeight="1" s="9">
-      <c r="A51" s="128" t="n"/>
-      <c r="B51" s="129" t="n"/>
-      <c r="C51" s="129" t="n"/>
-      <c r="D51" s="129" t="n"/>
-      <c r="E51" s="129" t="n"/>
-      <c r="F51" s="129" t="n"/>
-      <c r="G51" s="129" t="n"/>
-      <c r="H51" s="129" t="n"/>
-      <c r="I51" s="130" t="n"/>
+      <c r="B51" s="146" t="n"/>
+      <c r="C51" s="146" t="n"/>
+      <c r="D51" s="146" t="n"/>
+      <c r="E51" s="146" t="n"/>
+      <c r="F51" s="146" t="n"/>
+      <c r="G51" s="146" t="n"/>
+      <c r="H51" s="146" t="n"/>
+      <c r="I51" s="147" t="n"/>
+    </row>
+    <row r="52" ht="42.75" customFormat="1" customHeight="1" s="7">
+      <c r="A52" s="139" t="n"/>
+      <c r="B52" s="131" t="n"/>
+      <c r="C52" s="131" t="n"/>
+      <c r="D52" s="131" t="n"/>
+      <c r="E52" s="131" t="n"/>
+      <c r="F52" s="131" t="n"/>
+      <c r="G52" s="131" t="n"/>
+      <c r="H52" s="131" t="n"/>
+      <c r="I52" s="132" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="A47:I47"/>
+  <mergeCells count="72">
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I51"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:E46"/>
-    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I52"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:E47"/>
     <mergeCell ref="G46:I46"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="A32:I32"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:E15"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:H1"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RNCAC GQ-001-000" sheetId="1" state="visible" r:id="rId1"/>
@@ -60,12 +60,6 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="10"/>
     </font>
@@ -91,41 +85,46 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="16"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
       <color rgb="FF000000"/>
-      <sz val="12"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="8">
@@ -169,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -420,30 +419,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -554,43 +529,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -902,6 +840,83 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -926,18 +941,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1061,15 +1072,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1099,9 +1101,7 @@
       <right style="thin">
         <color rgb="FFC6C6C6"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1132,30 +1132,74 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1184,8 +1228,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1233,339 +1276,316 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1588,70 +1608,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2068,7 +2084,7 @@
   <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2085,22 +2101,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="12" t="n"/>
-      <c r="B1" s="139" t="inlineStr">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="131" t="inlineStr">
         <is>
           <t>Registro da Qualidade</t>
         </is>
       </c>
-      <c r="C1" s="140" t="n"/>
-      <c r="D1" s="140" t="n"/>
-      <c r="E1" s="140" t="n"/>
-      <c r="F1" s="141" t="n"/>
-      <c r="G1" s="142" t="inlineStr">
+      <c r="C1" s="132" t="n"/>
+      <c r="D1" s="132" t="n"/>
+      <c r="E1" s="132" t="n"/>
+      <c r="F1" s="133" t="n"/>
+      <c r="G1" s="134" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="H1" s="143" t="n"/>
+      <c r="H1" s="135" t="n"/>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RQ GQ-001-000</t>
@@ -2108,39 +2124,39 @@
       </c>
     </row>
     <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="144" t="n"/>
-      <c r="B2" s="145" t="n"/>
-      <c r="C2" s="146" t="n"/>
-      <c r="D2" s="146" t="n"/>
-      <c r="E2" s="146" t="n"/>
-      <c r="F2" s="147" t="n"/>
-      <c r="G2" s="142" t="inlineStr">
+      <c r="A2" s="136" t="n"/>
+      <c r="B2" s="137" t="n"/>
+      <c r="C2" s="138" t="n"/>
+      <c r="D2" s="138" t="n"/>
+      <c r="E2" s="138" t="n"/>
+      <c r="F2" s="139" t="n"/>
+      <c r="G2" s="134" t="inlineStr">
         <is>
           <t>Data de Emissão:</t>
         </is>
       </c>
-      <c r="H2" s="143" t="n"/>
+      <c r="H2" s="135" t="n"/>
       <c r="I2" s="2" t="n">
         <v>45293</v>
       </c>
     </row>
     <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="144" t="n"/>
-      <c r="B3" s="148" t="inlineStr">
+      <c r="A3" s="136" t="n"/>
+      <c r="B3" s="140" t="inlineStr">
         <is>
           <t>Gestão da Qualidade</t>
         </is>
       </c>
-      <c r="C3" s="140" t="n"/>
-      <c r="D3" s="140" t="n"/>
-      <c r="E3" s="140" t="n"/>
-      <c r="F3" s="141" t="n"/>
-      <c r="G3" s="142" t="inlineStr">
+      <c r="C3" s="132" t="n"/>
+      <c r="D3" s="132" t="n"/>
+      <c r="E3" s="132" t="n"/>
+      <c r="F3" s="133" t="n"/>
+      <c r="G3" s="134" t="inlineStr">
         <is>
           <t>Data da Última Revisão:</t>
         </is>
       </c>
-      <c r="H3" s="143" t="n"/>
+      <c r="H3" s="135" t="n"/>
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2148,74 +2164,74 @@
       </c>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="144" t="n"/>
-      <c r="B4" s="149" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="151" t="inlineStr">
+      <c r="A4" s="136" t="n"/>
+      <c r="B4" s="141" t="n"/>
+      <c r="F4" s="142" t="n"/>
+      <c r="G4" s="143" t="inlineStr">
         <is>
           <t>Página:</t>
         </is>
       </c>
-      <c r="H4" s="141" t="n"/>
+      <c r="H4" s="133" t="n"/>
       <c r="I4" s="9" t="n">
         <v>44197</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1">
-      <c r="A5" s="52" t="inlineStr">
+      <c r="A5" s="38" t="inlineStr">
         <is>
           <t>“Se você está lendo este documento em mídia impressa, esta é uma cópia Não-Controlada”</t>
         </is>
       </c>
-      <c r="B5" s="152" t="n"/>
-      <c r="C5" s="152" t="n"/>
-      <c r="D5" s="152" t="n"/>
-      <c r="E5" s="152" t="n"/>
-      <c r="F5" s="152" t="n"/>
-      <c r="G5" s="152" t="n"/>
-      <c r="H5" s="152" t="n"/>
-      <c r="I5" s="153" t="n"/>
+      <c r="B5" s="144" t="n"/>
+      <c r="C5" s="144" t="n"/>
+      <c r="D5" s="144" t="n"/>
+      <c r="E5" s="144" t="n"/>
+      <c r="F5" s="144" t="n"/>
+      <c r="G5" s="144" t="n"/>
+      <c r="H5" s="144" t="n"/>
+      <c r="I5" s="145" t="n"/>
     </row>
     <row r="6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="27" t="inlineStr">
+      <c r="A6" s="26" t="inlineStr">
         <is>
           <t>Relatório de Não Conformidade</t>
         </is>
       </c>
-      <c r="B6" s="152" t="n"/>
-      <c r="C6" s="152" t="n"/>
-      <c r="D6" s="152" t="n"/>
-      <c r="E6" s="152" t="n"/>
-      <c r="F6" s="152" t="n"/>
-      <c r="G6" s="152" t="n"/>
-      <c r="H6" s="152" t="n"/>
-      <c r="I6" s="153" t="n"/>
-    </row>
-    <row r="7" ht="24.75" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A7" s="29" t="inlineStr">
+      <c r="B6" s="144" t="n"/>
+      <c r="C6" s="144" t="n"/>
+      <c r="D6" s="144" t="n"/>
+      <c r="E6" s="144" t="n"/>
+      <c r="F6" s="144" t="n"/>
+      <c r="G6" s="144" t="n"/>
+      <c r="H6" s="144" t="n"/>
+      <c r="I6" s="145" t="n"/>
+    </row>
+    <row r="7" ht="24.75" customHeight="1" thickTop="1">
+      <c r="A7" s="28" t="inlineStr">
         <is>
           <t>1ª ETAPA - ABERTURA</t>
         </is>
       </c>
-      <c r="B7" s="154" t="n"/>
-      <c r="C7" s="154" t="n"/>
-      <c r="D7" s="154" t="n"/>
-      <c r="E7" s="154" t="n"/>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="B7" s="146" t="n"/>
+      <c r="C7" s="146" t="n"/>
+      <c r="D7" s="146" t="n"/>
+      <c r="E7" s="146" t="n"/>
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G7" s="32" t="inlineStr">
-        <is>
-          <t>Feito</t>
-        </is>
-      </c>
-      <c r="H7" s="155" t="n"/>
-      <c r="I7" s="156" t="n"/>
+      <c r="G7" s="46" t="inlineStr">
+        <is>
+          <t>Verificação</t>
+        </is>
+      </c>
+      <c r="H7" s="147" t="n"/>
+      <c r="I7" s="148" t="n"/>
       <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>
-      <c r="L7" s="24" t="n"/>
+      <c r="L7" s="23" t="n"/>
       <c r="M7" s="4" t="n"/>
       <c r="N7" s="4" t="n"/>
       <c r="O7" s="4" t="n"/>
@@ -2233,207 +2249,217 @@
       <c r="AA7" s="4" t="n"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="57" t="inlineStr">
+      <c r="A8" s="128" t="inlineStr">
         <is>
           <t>RNC Nº</t>
         </is>
       </c>
-      <c r="B8" s="59" t="n">
-        <v>5744182532</v>
-      </c>
-      <c r="C8" s="95" t="inlineStr">
+      <c r="B8" s="47" t="n">
+        <v>5832164054</v>
+      </c>
+      <c r="C8" s="129" t="inlineStr">
         <is>
           <t>Origem:</t>
         </is>
       </c>
-      <c r="D8" s="59" t="inlineStr">
-        <is>
-          <t>Direção</t>
-        </is>
-      </c>
-      <c r="E8" s="157" t="n"/>
-      <c r="F8" s="97" t="inlineStr">
+      <c r="D8" s="47" t="inlineStr">
+        <is>
+          <t>Gestão da Qualidade</t>
+        </is>
+      </c>
+      <c r="E8" s="149" t="n"/>
+      <c r="F8" s="130" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G8" s="61" t="inlineStr">
+      <c r="G8" s="44" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="H8" s="97" t="inlineStr">
+      <c r="H8" s="130" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="I8" s="64" t="inlineStr">
-        <is>
-          <t>31/01/2024</t>
-        </is>
-      </c>
-      <c r="L8" s="24" t="n"/>
+      <c r="I8" s="44" t="inlineStr">
+        <is>
+          <t>03/01/2024</t>
+        </is>
+      </c>
+      <c r="L8" s="23" t="n"/>
     </row>
     <row r="9" ht="41.25" customHeight="1">
-      <c r="A9" s="158" t="n"/>
-      <c r="F9" s="97" t="inlineStr">
+      <c r="A9" s="150" t="n"/>
+      <c r="B9" s="150" t="n"/>
+      <c r="C9" s="150" t="n"/>
+      <c r="D9" s="151" t="n"/>
+      <c r="E9" s="152" t="n"/>
+      <c r="F9" s="130" t="inlineStr">
         <is>
           <t>Item Norma:</t>
         </is>
       </c>
-      <c r="G9" s="64" t="inlineStr">
-        <is>
-          <t>5.1.2</t>
-        </is>
-      </c>
-      <c r="I9" s="159" t="n"/>
+      <c r="G9" s="44" t="inlineStr">
+        <is>
+          <t>9.2.2</t>
+        </is>
+      </c>
+      <c r="H9" s="144" t="n"/>
+      <c r="I9" s="145" t="n"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="160" t="n"/>
-      <c r="I10" s="159" t="n"/>
+      <c r="A10" s="30" t="n"/>
+      <c r="B10" s="144" t="n"/>
+      <c r="C10" s="144" t="n"/>
+      <c r="D10" s="144" t="n"/>
+      <c r="E10" s="144" t="n"/>
+      <c r="F10" s="144" t="n"/>
+      <c r="G10" s="144" t="n"/>
+      <c r="H10" s="144" t="n"/>
+      <c r="I10" s="145" t="n"/>
     </row>
     <row r="11" ht="24.95" customFormat="1" customHeight="1" s="6">
-      <c r="A11" s="99" t="inlineStr">
+      <c r="A11" s="130" t="inlineStr">
         <is>
           <t>Descrição do Problema</t>
         </is>
       </c>
-      <c r="F11" s="99" t="inlineStr">
+      <c r="B11" s="144" t="n"/>
+      <c r="C11" s="144" t="n"/>
+      <c r="D11" s="144" t="n"/>
+      <c r="E11" s="145" t="n"/>
+      <c r="F11" s="130" t="inlineStr">
         <is>
           <t>Conj / Ativ:</t>
         </is>
       </c>
-      <c r="G11" s="64" t="inlineStr">
+      <c r="G11" s="44" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" s="159" t="n"/>
-    </row>
-    <row r="12" ht="66.75" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A12" s="161" t="inlineStr">
-        <is>
-          <t>Não há um compromisso de satisfazer os requisitos aplicáveis na Política da Qualidade</t>
-        </is>
-      </c>
-      <c r="B12" s="162" t="n"/>
-      <c r="C12" s="162" t="n"/>
-      <c r="D12" s="162" t="n"/>
-      <c r="E12" s="162" t="n"/>
-      <c r="F12" s="162" t="n"/>
-      <c r="G12" s="162" t="n"/>
-      <c r="H12" s="162" t="n"/>
-      <c r="I12" s="163" t="n"/>
+      <c r="H11" s="144" t="n"/>
+      <c r="I11" s="145" t="n"/>
+    </row>
+    <row r="12" ht="66.75" customFormat="1" customHeight="1" s="6">
+      <c r="A12" s="48" t="inlineStr">
+        <is>
+          <t>NC 36: Não há o relatório de auditoria interna - RQ GQ-011-002 do mês de abril de 2023.</t>
+        </is>
+      </c>
+      <c r="B12" s="144" t="n"/>
+      <c r="C12" s="144" t="n"/>
+      <c r="D12" s="144" t="n"/>
+      <c r="E12" s="144" t="n"/>
+      <c r="F12" s="144" t="n"/>
+      <c r="G12" s="144" t="n"/>
+      <c r="H12" s="144" t="n"/>
+      <c r="I12" s="145" t="n"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="n"/>
-      <c r="B13" s="140" t="n"/>
-      <c r="C13" s="140" t="n"/>
-      <c r="D13" s="140" t="n"/>
-      <c r="E13" s="140" t="n"/>
-      <c r="F13" s="140" t="n"/>
-      <c r="G13" s="140" t="n"/>
-      <c r="H13" s="140" t="n"/>
-      <c r="I13" s="165" t="n"/>
+      <c r="A13" s="153" t="n"/>
+      <c r="I13" s="154" t="n"/>
     </row>
     <row r="14" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A14" s="166" t="inlineStr">
+      <c r="A14" s="155" t="inlineStr">
         <is>
           <t>2ª ETAPA - AÇÃO IMEDIATA</t>
         </is>
       </c>
-      <c r="B14" s="167" t="n"/>
-      <c r="C14" s="167" t="n"/>
-      <c r="D14" s="167" t="n"/>
-      <c r="E14" s="168" t="n"/>
-      <c r="F14" s="107" t="inlineStr">
+      <c r="B14" s="147" t="n"/>
+      <c r="C14" s="147" t="n"/>
+      <c r="D14" s="147" t="n"/>
+      <c r="E14" s="156" t="n"/>
+      <c r="F14" s="119" t="inlineStr">
         <is>
           <t>Status:</t>
         </is>
       </c>
-      <c r="G14" s="70" t="inlineStr">
+      <c r="G14" s="60" t="inlineStr">
         <is>
           <t>Feito</t>
         </is>
       </c>
-      <c r="H14" s="107" t="inlineStr">
+      <c r="H14" s="119" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="I14" s="70" t="inlineStr">
-        <is>
-          <t>05/01/2024</t>
+      <c r="I14" s="60" t="inlineStr">
+        <is>
+          <t>20/01/2024</t>
         </is>
       </c>
     </row>
     <row r="15" ht="48" customHeight="1" thickBot="1">
-      <c r="A15" s="169" t="n"/>
-      <c r="B15" s="162" t="n"/>
-      <c r="C15" s="162" t="n"/>
-      <c r="D15" s="162" t="n"/>
-      <c r="E15" s="163" t="n"/>
-      <c r="F15" s="106" t="inlineStr">
+      <c r="A15" s="157" t="n"/>
+      <c r="B15" s="158" t="n"/>
+      <c r="C15" s="158" t="n"/>
+      <c r="D15" s="158" t="n"/>
+      <c r="E15" s="159" t="n"/>
+      <c r="F15" s="118" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G15" s="69" t="inlineStr">
+      <c r="G15" s="59" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="H15" s="170" t="n"/>
-      <c r="I15" s="171" t="n"/>
+      <c r="H15" s="160" t="n"/>
+      <c r="I15" s="161" t="n"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="108" t="inlineStr">
+      <c r="A16" s="124" t="inlineStr">
         <is>
           <t>Ação imediata</t>
         </is>
       </c>
-      <c r="B16" s="140" t="n"/>
-      <c r="C16" s="140" t="n"/>
-      <c r="D16" s="140" t="n"/>
-      <c r="E16" s="140" t="n"/>
-      <c r="F16" s="140" t="n"/>
-      <c r="G16" s="140" t="n"/>
-      <c r="H16" s="140" t="n"/>
-      <c r="I16" s="141" t="n"/>
+      <c r="B16" s="132" t="n"/>
+      <c r="C16" s="132" t="n"/>
+      <c r="D16" s="132" t="n"/>
+      <c r="E16" s="132" t="n"/>
+      <c r="F16" s="132" t="n"/>
+      <c r="G16" s="132" t="n"/>
+      <c r="H16" s="132" t="n"/>
+      <c r="I16" s="133" t="n"/>
     </row>
     <row r="17" ht="27.95" customFormat="1" customHeight="1" s="6">
-      <c r="A17" s="71" t="inlineStr">
-        <is>
-          <t>Alteração na Política da Qualidade</t>
-        </is>
-      </c>
-      <c r="B17" s="167" t="n"/>
-      <c r="C17" s="167" t="n"/>
-      <c r="D17" s="167" t="n"/>
-      <c r="E17" s="167" t="n"/>
-      <c r="F17" s="167" t="n"/>
-      <c r="G17" s="167" t="n"/>
-      <c r="H17" s="167" t="n"/>
-      <c r="I17" s="172" t="n"/>
+      <c r="A17" s="49" t="inlineStr">
+        <is>
+          <t>Preenchimento do relatório de auditoria pendente</t>
+        </is>
+      </c>
+      <c r="B17" s="147" t="n"/>
+      <c r="C17" s="147" t="n"/>
+      <c r="D17" s="147" t="n"/>
+      <c r="E17" s="147" t="n"/>
+      <c r="F17" s="147" t="n"/>
+      <c r="G17" s="147" t="n"/>
+      <c r="H17" s="147" t="n"/>
+      <c r="I17" s="162" t="n"/>
     </row>
     <row r="18" ht="27.95" customFormat="1" customHeight="1" s="6">
-      <c r="A18" s="173" t="n"/>
-      <c r="I18" s="150" t="n"/>
+      <c r="A18" s="163" t="n"/>
+      <c r="I18" s="142" t="n"/>
     </row>
     <row r="19" ht="27.95" customFormat="1" customHeight="1" s="6">
-      <c r="A19" s="173" t="n"/>
-      <c r="I19" s="150" t="n"/>
+      <c r="A19" s="163" t="n"/>
+      <c r="I19" s="142" t="n"/>
     </row>
     <row r="20" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A20" s="174" t="n"/>
-      <c r="B20" s="146" t="n"/>
-      <c r="C20" s="146" t="n"/>
-      <c r="D20" s="146" t="n"/>
-      <c r="E20" s="146" t="n"/>
-      <c r="F20" s="146" t="n"/>
-      <c r="G20" s="146" t="n"/>
-      <c r="H20" s="146" t="n"/>
-      <c r="I20" s="147" t="n"/>
+      <c r="A20" s="164" t="n"/>
+      <c r="B20" s="138" t="n"/>
+      <c r="C20" s="138" t="n"/>
+      <c r="D20" s="138" t="n"/>
+      <c r="E20" s="138" t="n"/>
+      <c r="F20" s="138" t="n"/>
+      <c r="G20" s="138" t="n"/>
+      <c r="H20" s="138" t="n"/>
+      <c r="I20" s="139" t="n"/>
       <c r="J20" s="4" t="n"/>
       <c r="K20" s="4" t="n"/>
       <c r="L20" s="4" t="n"/>
@@ -2454,216 +2480,214 @@
       <c r="AA20" s="4" t="n"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="39" t="n"/>
-      <c r="B21" s="175" t="n"/>
-      <c r="C21" s="175" t="n"/>
-      <c r="D21" s="175" t="n"/>
-      <c r="E21" s="175" t="n"/>
-      <c r="F21" s="175" t="n"/>
-      <c r="G21" s="175" t="n"/>
-      <c r="H21" s="175" t="n"/>
-      <c r="I21" s="176" t="n"/>
+      <c r="A21" s="34" t="n"/>
+      <c r="B21" s="165" t="n"/>
+      <c r="C21" s="165" t="n"/>
+      <c r="D21" s="165" t="n"/>
+      <c r="E21" s="165" t="n"/>
+      <c r="F21" s="165" t="n"/>
+      <c r="G21" s="165" t="n"/>
+      <c r="H21" s="165" t="n"/>
+      <c r="I21" s="166" t="n"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="177" t="inlineStr">
+      <c r="A22" s="167" t="inlineStr">
         <is>
           <t>3ª ETAPA - ANÁLISE DE CAUZA RAIZ</t>
         </is>
       </c>
-      <c r="B22" s="157" t="n"/>
-      <c r="C22" s="157" t="n"/>
-      <c r="D22" s="157" t="n"/>
-      <c r="E22" s="178" t="n"/>
-      <c r="F22" s="179" t="inlineStr">
+      <c r="B22" s="168" t="n"/>
+      <c r="C22" s="168" t="n"/>
+      <c r="D22" s="168" t="n"/>
+      <c r="E22" s="169" t="n"/>
+      <c r="F22" s="170" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G22" s="86" t="inlineStr">
+      <c r="G22" s="76" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="H22" s="179" t="inlineStr">
+      <c r="H22" s="170" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="I22" s="86" t="inlineStr">
-        <is>
-          <t>08/01/2024</t>
-        </is>
+      <c r="I22" s="76" t="n">
+        <v/>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A23" s="180" t="n"/>
-      <c r="B23" s="162" t="n"/>
-      <c r="C23" s="162" t="n"/>
-      <c r="D23" s="162" t="n"/>
-      <c r="E23" s="163" t="n"/>
-      <c r="F23" s="180" t="n"/>
-      <c r="G23" s="163" t="n"/>
-      <c r="H23" s="180" t="n"/>
-      <c r="I23" s="163" t="n"/>
+      <c r="A23" s="171" t="n"/>
+      <c r="B23" s="158" t="n"/>
+      <c r="C23" s="158" t="n"/>
+      <c r="D23" s="158" t="n"/>
+      <c r="E23" s="159" t="n"/>
+      <c r="F23" s="171" t="n"/>
+      <c r="G23" s="159" t="n"/>
+      <c r="H23" s="171" t="n"/>
+      <c r="I23" s="159" t="n"/>
     </row>
     <row r="24" ht="45" customHeight="1">
-      <c r="A24" s="117" t="inlineStr">
+      <c r="A24" s="112" t="inlineStr">
         <is>
           <t>Máquina</t>
         </is>
       </c>
-      <c r="B24" s="181" t="inlineStr">
+      <c r="B24" s="172" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C24" s="140" t="n"/>
-      <c r="D24" s="140" t="n"/>
-      <c r="E24" s="140" t="n"/>
-      <c r="F24" s="140" t="n"/>
-      <c r="G24" s="140" t="n"/>
-      <c r="H24" s="140" t="n"/>
-      <c r="I24" s="141" t="n"/>
+      <c r="C24" s="132" t="n"/>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="132" t="n"/>
+      <c r="F24" s="132" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="132" t="n"/>
+      <c r="I24" s="133" t="n"/>
     </row>
     <row r="25" ht="45" customHeight="1">
-      <c r="A25" s="117" t="inlineStr">
+      <c r="A25" s="112" t="inlineStr">
         <is>
           <t>Mão-de-Obra</t>
         </is>
       </c>
-      <c r="B25" s="46" t="inlineStr">
+      <c r="B25" s="67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C25" s="182" t="n"/>
-      <c r="D25" s="182" t="n"/>
-      <c r="E25" s="182" t="n"/>
-      <c r="F25" s="182" t="n"/>
-      <c r="G25" s="182" t="n"/>
-      <c r="H25" s="182" t="n"/>
-      <c r="I25" s="183" t="n"/>
+      <c r="C25" s="173" t="n"/>
+      <c r="D25" s="173" t="n"/>
+      <c r="E25" s="173" t="n"/>
+      <c r="F25" s="173" t="n"/>
+      <c r="G25" s="173" t="n"/>
+      <c r="H25" s="173" t="n"/>
+      <c r="I25" s="174" t="n"/>
     </row>
     <row r="26" ht="45" customHeight="1">
-      <c r="A26" s="117" t="inlineStr">
+      <c r="A26" s="112" t="inlineStr">
         <is>
           <t>Matéria Prima</t>
         </is>
       </c>
-      <c r="B26" s="46" t="inlineStr">
+      <c r="B26" s="67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C26" s="182" t="n"/>
-      <c r="D26" s="182" t="n"/>
-      <c r="E26" s="182" t="n"/>
-      <c r="F26" s="182" t="n"/>
-      <c r="G26" s="182" t="n"/>
-      <c r="H26" s="182" t="n"/>
-      <c r="I26" s="183" t="n"/>
+      <c r="C26" s="173" t="n"/>
+      <c r="D26" s="173" t="n"/>
+      <c r="E26" s="173" t="n"/>
+      <c r="F26" s="173" t="n"/>
+      <c r="G26" s="173" t="n"/>
+      <c r="H26" s="173" t="n"/>
+      <c r="I26" s="174" t="n"/>
     </row>
     <row r="27" ht="45" customHeight="1">
-      <c r="A27" s="117" t="inlineStr">
+      <c r="A27" s="112" t="inlineStr">
         <is>
           <t>Medição</t>
         </is>
       </c>
-      <c r="B27" s="46" t="inlineStr">
+      <c r="B27" s="67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C27" s="182" t="n"/>
-      <c r="D27" s="182" t="n"/>
-      <c r="E27" s="182" t="n"/>
-      <c r="F27" s="182" t="n"/>
-      <c r="G27" s="182" t="n"/>
-      <c r="H27" s="182" t="n"/>
-      <c r="I27" s="183" t="n"/>
+      <c r="C27" s="173" t="n"/>
+      <c r="D27" s="173" t="n"/>
+      <c r="E27" s="173" t="n"/>
+      <c r="F27" s="173" t="n"/>
+      <c r="G27" s="173" t="n"/>
+      <c r="H27" s="173" t="n"/>
+      <c r="I27" s="174" t="n"/>
     </row>
     <row r="28" ht="45" customHeight="1">
-      <c r="A28" s="117" t="inlineStr">
+      <c r="A28" s="112" t="inlineStr">
         <is>
           <t>Método</t>
         </is>
       </c>
-      <c r="B28" s="46" t="inlineStr">
-        <is>
-          <t>Não havia conhecimento sobre a necessidade em questão</t>
-        </is>
-      </c>
-      <c r="C28" s="182" t="n"/>
-      <c r="D28" s="182" t="n"/>
-      <c r="E28" s="182" t="n"/>
-      <c r="F28" s="182" t="n"/>
-      <c r="G28" s="182" t="n"/>
-      <c r="H28" s="182" t="n"/>
-      <c r="I28" s="183" t="n"/>
+      <c r="B28" s="67" t="inlineStr">
+        <is>
+          <t>Não havia definição documentada</t>
+        </is>
+      </c>
+      <c r="C28" s="173" t="n"/>
+      <c r="D28" s="173" t="n"/>
+      <c r="E28" s="173" t="n"/>
+      <c r="F28" s="173" t="n"/>
+      <c r="G28" s="173" t="n"/>
+      <c r="H28" s="173" t="n"/>
+      <c r="I28" s="174" t="n"/>
     </row>
     <row r="29" ht="45" customHeight="1">
-      <c r="A29" s="117" t="inlineStr">
+      <c r="A29" s="112" t="inlineStr">
         <is>
           <t>Meio Ambiente</t>
         </is>
       </c>
-      <c r="B29" s="46" t="inlineStr">
+      <c r="B29" s="67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C29" s="182" t="n"/>
-      <c r="D29" s="182" t="n"/>
-      <c r="E29" s="182" t="n"/>
-      <c r="F29" s="182" t="n"/>
-      <c r="G29" s="182" t="n"/>
-      <c r="H29" s="182" t="n"/>
-      <c r="I29" s="183" t="n"/>
+      <c r="C29" s="173" t="n"/>
+      <c r="D29" s="173" t="n"/>
+      <c r="E29" s="173" t="n"/>
+      <c r="F29" s="173" t="n"/>
+      <c r="G29" s="173" t="n"/>
+      <c r="H29" s="173" t="n"/>
+      <c r="I29" s="174" t="n"/>
     </row>
     <row r="30" ht="45" customHeight="1">
-      <c r="A30" s="118" t="inlineStr">
+      <c r="A30" s="110" t="inlineStr">
         <is>
           <t>Presentes:</t>
         </is>
       </c>
-      <c r="B30" s="184" t="n"/>
-      <c r="C30" s="48" t="inlineStr">
+      <c r="B30" s="175" t="n"/>
+      <c r="C30" s="69" t="inlineStr">
         <is>
           <t>Amanda</t>
         </is>
       </c>
-      <c r="D30" s="185" t="n"/>
-      <c r="E30" s="185" t="n"/>
-      <c r="F30" s="185" t="n"/>
-      <c r="G30" s="185" t="n"/>
-      <c r="H30" s="185" t="n"/>
-      <c r="I30" s="184" t="n"/>
+      <c r="D30" s="176" t="n"/>
+      <c r="E30" s="176" t="n"/>
+      <c r="F30" s="176" t="n"/>
+      <c r="G30" s="176" t="n"/>
+      <c r="H30" s="176" t="n"/>
+      <c r="I30" s="175" t="n"/>
     </row>
     <row r="31" ht="6" customHeight="1" thickBot="1">
-      <c r="A31" s="51" t="n"/>
-      <c r="B31" s="186" t="n"/>
-      <c r="C31" s="186" t="n"/>
-      <c r="D31" s="186" t="n"/>
-      <c r="E31" s="186" t="n"/>
-      <c r="F31" s="186" t="n"/>
-      <c r="G31" s="186" t="n"/>
-      <c r="H31" s="186" t="n"/>
-      <c r="I31" s="187" t="n"/>
+      <c r="A31" s="37" t="n"/>
+      <c r="B31" s="177" t="n"/>
+      <c r="C31" s="177" t="n"/>
+      <c r="D31" s="177" t="n"/>
+      <c r="E31" s="177" t="n"/>
+      <c r="F31" s="177" t="n"/>
+      <c r="G31" s="177" t="n"/>
+      <c r="H31" s="177" t="n"/>
+      <c r="I31" s="178" t="n"/>
     </row>
     <row r="32" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A32" s="177" t="inlineStr">
+      <c r="A32" s="167" t="inlineStr">
         <is>
           <t>3ªETAPA - PLANO DE AÇÃO</t>
         </is>
       </c>
-      <c r="B32" s="170" t="n"/>
-      <c r="C32" s="170" t="n"/>
-      <c r="D32" s="170" t="n"/>
-      <c r="E32" s="170" t="n"/>
-      <c r="F32" s="170" t="n"/>
-      <c r="G32" s="170" t="n"/>
-      <c r="H32" s="170" t="n"/>
-      <c r="I32" s="188" t="n"/>
+      <c r="B32" s="160" t="n"/>
+      <c r="C32" s="160" t="n"/>
+      <c r="D32" s="160" t="n"/>
+      <c r="E32" s="160" t="n"/>
+      <c r="F32" s="160" t="n"/>
+      <c r="G32" s="160" t="n"/>
+      <c r="H32" s="160" t="n"/>
+      <c r="I32" s="179" t="n"/>
       <c r="J32" s="4" t="n"/>
       <c r="K32" s="4" t="n"/>
       <c r="L32" s="4" t="n"/>
@@ -2684,235 +2708,275 @@
       <c r="AA32" s="4" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="189" t="inlineStr">
+      <c r="A33" s="180" t="inlineStr">
         <is>
           <t>Atividade</t>
         </is>
       </c>
-      <c r="B33" s="157" t="n"/>
-      <c r="C33" s="157" t="n"/>
-      <c r="D33" s="178" t="n"/>
-      <c r="E33" s="189" t="inlineStr">
+      <c r="B33" s="168" t="n"/>
+      <c r="C33" s="168" t="n"/>
+      <c r="D33" s="169" t="n"/>
+      <c r="E33" s="180" t="inlineStr">
         <is>
           <t>Responsável</t>
         </is>
       </c>
-      <c r="F33" s="189" t="inlineStr">
+      <c r="F33" s="180" t="inlineStr">
         <is>
           <t>Previsão</t>
         </is>
       </c>
-      <c r="G33" s="178" t="n"/>
-      <c r="H33" s="189" t="inlineStr">
+      <c r="G33" s="169" t="n"/>
+      <c r="H33" s="180" t="inlineStr">
         <is>
           <t>Realizado</t>
         </is>
       </c>
-      <c r="I33" s="178" t="n"/>
+      <c r="I33" s="169" t="n"/>
     </row>
     <row r="34" ht="9" customHeight="1" thickBot="1">
-      <c r="A34" s="180" t="n"/>
-      <c r="B34" s="162" t="n"/>
-      <c r="C34" s="162" t="n"/>
-      <c r="D34" s="163" t="n"/>
-      <c r="E34" s="190" t="n"/>
-      <c r="F34" s="180" t="n"/>
-      <c r="G34" s="163" t="n"/>
-      <c r="H34" s="180" t="n"/>
-      <c r="I34" s="163" t="n"/>
+      <c r="A34" s="171" t="n"/>
+      <c r="B34" s="158" t="n"/>
+      <c r="C34" s="158" t="n"/>
+      <c r="D34" s="159" t="n"/>
+      <c r="E34" s="181" t="n"/>
+      <c r="F34" s="171" t="n"/>
+      <c r="G34" s="159" t="n"/>
+      <c r="H34" s="171" t="n"/>
+      <c r="I34" s="159" t="n"/>
     </row>
     <row r="35" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A35" s="191" t="inlineStr">
-        <is>
-          <t>Criação do Manual da Qualidade CEMAG</t>
-        </is>
-      </c>
-      <c r="B35" s="170" t="n"/>
-      <c r="C35" s="170" t="n"/>
-      <c r="D35" s="188" t="n"/>
-      <c r="E35" s="85" t="inlineStr">
+      <c r="A35" s="182" t="inlineStr">
+        <is>
+          <t>Determinar frequência mais adequada para a realização de auditorias internas (copy) (copy)</t>
+        </is>
+      </c>
+      <c r="B35" s="160" t="n"/>
+      <c r="C35" s="160" t="n"/>
+      <c r="D35" s="179" t="n"/>
+      <c r="E35" s="75" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="F35" s="191" t="inlineStr">
-        <is>
-          <t>05/01/2024</t>
-        </is>
-      </c>
-      <c r="G35" s="188" t="n"/>
-      <c r="H35" s="191" t="inlineStr">
-        <is>
-          <t>05/01/2024</t>
-        </is>
-      </c>
-      <c r="I35" s="188" t="n"/>
+      <c r="F35" s="182" t="inlineStr">
+        <is>
+          <t>04/01/2024</t>
+        </is>
+      </c>
+      <c r="G35" s="179" t="n"/>
+      <c r="H35" s="182" t="inlineStr">
+        <is>
+          <t>04/01/2024</t>
+        </is>
+      </c>
+      <c r="I35" s="179" t="n"/>
     </row>
     <row r="36" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A36" s="191" t="n">
+      <c r="A36" s="182" t="inlineStr">
+        <is>
+          <t>Criar Procedimento de Auditorias Internas (copy) (copy)</t>
+        </is>
+      </c>
+      <c r="B36" s="160" t="n"/>
+      <c r="C36" s="160" t="n"/>
+      <c r="D36" s="179" t="n"/>
+      <c r="E36" s="75" t="inlineStr">
+        <is>
+          <t>Amanda Prado</t>
+        </is>
+      </c>
+      <c r="F36" s="182" t="inlineStr">
+        <is>
+          <t>04/01/2024</t>
+        </is>
+      </c>
+      <c r="G36" s="179" t="n"/>
+      <c r="H36" s="182" t="inlineStr">
+        <is>
+          <t>04/01/2024</t>
+        </is>
+      </c>
+      <c r="I36" s="179" t="n"/>
+    </row>
+    <row r="37" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A37" s="182" t="inlineStr">
+        <is>
+          <t>Criar Programa de Auditorias Internas de 2024 (copy) (copy)</t>
+        </is>
+      </c>
+      <c r="B37" s="160" t="n"/>
+      <c r="C37" s="160" t="n"/>
+      <c r="D37" s="179" t="n"/>
+      <c r="E37" s="75" t="inlineStr">
+        <is>
+          <t>Amanda Prado</t>
+        </is>
+      </c>
+      <c r="F37" s="182" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
+      </c>
+      <c r="G37" s="179" t="n"/>
+      <c r="H37" s="182" t="inlineStr">
+        <is>
+          <t>08/01/2024</t>
+        </is>
+      </c>
+      <c r="I37" s="179" t="n"/>
+    </row>
+    <row r="38" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A38" s="182" t="inlineStr">
+        <is>
+          <t>Divulgar Procedimento (copy) (copy)</t>
+        </is>
+      </c>
+      <c r="B38" s="160" t="n"/>
+      <c r="C38" s="160" t="n"/>
+      <c r="D38" s="179" t="n"/>
+      <c r="E38" s="75" t="inlineStr">
+        <is>
+          <t>Amanda Prado</t>
+        </is>
+      </c>
+      <c r="F38" s="182" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="G38" s="179" t="n"/>
+      <c r="H38" s="182" t="n"/>
+      <c r="I38" s="179" t="n"/>
+    </row>
+    <row r="39" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A39" s="182" t="n"/>
+      <c r="B39" s="160" t="n"/>
+      <c r="C39" s="160" t="n"/>
+      <c r="D39" s="179" t="n"/>
+      <c r="E39" s="75" t="n"/>
+      <c r="F39" s="182" t="n"/>
+      <c r="G39" s="179" t="n"/>
+      <c r="H39" s="182" t="n"/>
+      <c r="I39" s="179" t="n"/>
+    </row>
+    <row r="40" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A40" s="182" t="n"/>
+      <c r="B40" s="160" t="n"/>
+      <c r="C40" s="160" t="n"/>
+      <c r="D40" s="179" t="n"/>
+      <c r="E40" s="75" t="n"/>
+      <c r="F40" s="182" t="n"/>
+      <c r="G40" s="179" t="n"/>
+      <c r="H40" s="182" t="n"/>
+      <c r="I40" s="179" t="n"/>
+    </row>
+    <row r="41" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A41" s="182" t="n"/>
+      <c r="B41" s="160" t="n"/>
+      <c r="C41" s="160" t="n"/>
+      <c r="D41" s="179" t="n"/>
+      <c r="E41" s="75" t="n"/>
+      <c r="F41" s="182" t="n"/>
+      <c r="G41" s="179" t="n"/>
+      <c r="H41" s="182" t="n"/>
+      <c r="I41" s="179" t="n"/>
+    </row>
+    <row r="42" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A42" s="182" t="n"/>
+      <c r="B42" s="160" t="n"/>
+      <c r="C42" s="160" t="n"/>
+      <c r="D42" s="179" t="n"/>
+      <c r="E42" s="75" t="n"/>
+      <c r="F42" s="182" t="n"/>
+      <c r="G42" s="179" t="n"/>
+      <c r="H42" s="182" t="n"/>
+      <c r="I42" s="179" t="n"/>
+    </row>
+    <row r="43" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A43" s="182" t="n"/>
+      <c r="B43" s="160" t="n"/>
+      <c r="C43" s="160" t="n"/>
+      <c r="D43" s="179" t="n"/>
+      <c r="E43" s="75" t="n"/>
+      <c r="F43" s="182" t="n"/>
+      <c r="G43" s="179" t="n"/>
+      <c r="H43" s="182" t="n"/>
+      <c r="I43" s="179" t="n"/>
+    </row>
+    <row r="44" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A44" s="182" t="n"/>
+      <c r="B44" s="160" t="n"/>
+      <c r="C44" s="160" t="n"/>
+      <c r="D44" s="179" t="n"/>
+      <c r="E44" s="75" t="n"/>
+      <c r="F44" s="182" t="n"/>
+      <c r="G44" s="179" t="n"/>
+      <c r="H44" s="182" t="n"/>
+      <c r="I44" s="179" t="n"/>
+    </row>
+    <row r="45" ht="6" customHeight="1" thickBot="1">
+      <c r="A45" s="40" t="n"/>
+      <c r="B45" s="176" t="n"/>
+      <c r="C45" s="176" t="n"/>
+      <c r="D45" s="176" t="n"/>
+      <c r="E45" s="176" t="n"/>
+      <c r="F45" s="176" t="n"/>
+      <c r="G45" s="176" t="n"/>
+      <c r="H45" s="176" t="n"/>
+      <c r="I45" s="175" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A46" s="183" t="inlineStr">
+        <is>
+          <t>4ª ETAPA - EFICÁCIA</t>
+        </is>
+      </c>
+      <c r="B46" s="168" t="n"/>
+      <c r="C46" s="168" t="n"/>
+      <c r="D46" s="168" t="n"/>
+      <c r="E46" s="169" t="n"/>
+      <c r="F46" s="98" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="G46" s="76" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
+      </c>
+      <c r="H46" s="160" t="n"/>
+      <c r="I46" s="179" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="184" t="n"/>
+      <c r="E47" s="185" t="n"/>
+      <c r="F47" s="97" t="inlineStr">
+        <is>
+          <t>Resp.:</t>
+        </is>
+      </c>
+      <c r="G47" s="61" t="n">
         <v/>
       </c>
-      <c r="B36" s="170" t="n"/>
-      <c r="C36" s="170" t="n"/>
-      <c r="D36" s="188" t="n"/>
-      <c r="E36" s="85" t="n"/>
-      <c r="F36" s="191" t="n"/>
-      <c r="G36" s="188" t="n"/>
-      <c r="H36" s="191" t="n"/>
-      <c r="I36" s="188" t="n"/>
-    </row>
-    <row r="37" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A37" s="191" t="n"/>
-      <c r="B37" s="170" t="n"/>
-      <c r="C37" s="170" t="n"/>
-      <c r="D37" s="188" t="n"/>
-      <c r="E37" s="85" t="n"/>
-      <c r="F37" s="191" t="n"/>
-      <c r="G37" s="188" t="n"/>
-      <c r="H37" s="191" t="n"/>
-      <c r="I37" s="188" t="n"/>
-    </row>
-    <row r="38" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A38" s="191" t="n"/>
-      <c r="B38" s="170" t="n"/>
-      <c r="C38" s="170" t="n"/>
-      <c r="D38" s="188" t="n"/>
-      <c r="E38" s="85" t="n"/>
-      <c r="F38" s="191" t="n"/>
-      <c r="G38" s="188" t="n"/>
-      <c r="H38" s="191" t="n"/>
-      <c r="I38" s="188" t="n"/>
-    </row>
-    <row r="39" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A39" s="191" t="n"/>
-      <c r="B39" s="170" t="n"/>
-      <c r="C39" s="170" t="n"/>
-      <c r="D39" s="188" t="n"/>
-      <c r="E39" s="85" t="n"/>
-      <c r="F39" s="191" t="n"/>
-      <c r="G39" s="188" t="n"/>
-      <c r="H39" s="191" t="n"/>
-      <c r="I39" s="188" t="n"/>
-    </row>
-    <row r="40" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A40" s="191" t="n"/>
-      <c r="B40" s="170" t="n"/>
-      <c r="C40" s="170" t="n"/>
-      <c r="D40" s="188" t="n"/>
-      <c r="E40" s="85" t="n"/>
-      <c r="F40" s="191" t="n"/>
-      <c r="G40" s="188" t="n"/>
-      <c r="H40" s="191" t="n"/>
-      <c r="I40" s="188" t="n"/>
-    </row>
-    <row r="41" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A41" s="191" t="n"/>
-      <c r="B41" s="170" t="n"/>
-      <c r="C41" s="170" t="n"/>
-      <c r="D41" s="188" t="n"/>
-      <c r="E41" s="85" t="n"/>
-      <c r="F41" s="191" t="n"/>
-      <c r="G41" s="188" t="n"/>
-      <c r="H41" s="191" t="n"/>
-      <c r="I41" s="188" t="n"/>
-    </row>
-    <row r="42" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A42" s="191" t="n"/>
-      <c r="B42" s="170" t="n"/>
-      <c r="C42" s="170" t="n"/>
-      <c r="D42" s="188" t="n"/>
-      <c r="E42" s="85" t="n"/>
-      <c r="F42" s="191" t="n"/>
-      <c r="G42" s="188" t="n"/>
-      <c r="H42" s="191" t="n"/>
-      <c r="I42" s="188" t="n"/>
-    </row>
-    <row r="43" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A43" s="191" t="n"/>
-      <c r="B43" s="170" t="n"/>
-      <c r="C43" s="170" t="n"/>
-      <c r="D43" s="188" t="n"/>
-      <c r="E43" s="85" t="n"/>
-      <c r="F43" s="191" t="n"/>
-      <c r="G43" s="188" t="n"/>
-      <c r="H43" s="191" t="n"/>
-      <c r="I43" s="188" t="n"/>
-    </row>
-    <row r="44" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A44" s="191" t="n"/>
-      <c r="B44" s="170" t="n"/>
-      <c r="C44" s="170" t="n"/>
-      <c r="D44" s="188" t="n"/>
-      <c r="E44" s="85" t="n"/>
-      <c r="F44" s="191" t="n"/>
-      <c r="G44" s="188" t="n"/>
-      <c r="H44" s="191" t="n"/>
-      <c r="I44" s="188" t="n"/>
-    </row>
-    <row r="45" ht="6" customHeight="1" thickBot="1">
-      <c r="A45" s="54" t="n"/>
-      <c r="B45" s="185" t="n"/>
-      <c r="C45" s="185" t="n"/>
-      <c r="D45" s="185" t="n"/>
-      <c r="E45" s="185" t="n"/>
-      <c r="F45" s="185" t="n"/>
-      <c r="G45" s="185" t="n"/>
-      <c r="H45" s="185" t="n"/>
-      <c r="I45" s="184" t="n"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A46" s="192" t="inlineStr">
-        <is>
-          <t>4ª ETAPA - EFICÁCIA</t>
-        </is>
-      </c>
-      <c r="B46" s="157" t="n"/>
-      <c r="C46" s="157" t="n"/>
-      <c r="D46" s="157" t="n"/>
-      <c r="E46" s="178" t="n"/>
-      <c r="F46" s="130" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="G46" s="86" t="inlineStr">
-        <is>
-          <t>04/01/2024</t>
-        </is>
-      </c>
-      <c r="H46" s="170" t="n"/>
-      <c r="I46" s="188" t="n"/>
-    </row>
-    <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="158" t="n"/>
-      <c r="E47" s="159" t="n"/>
-      <c r="F47" s="134" t="inlineStr">
-        <is>
-          <t>Resp.:</t>
-        </is>
-      </c>
-      <c r="G47" s="80" t="inlineStr">
-        <is>
-          <t>Amanda Prado</t>
-        </is>
-      </c>
-      <c r="H47" s="157" t="n"/>
-      <c r="I47" s="178" t="n"/>
+      <c r="H47" s="168" t="n"/>
+      <c r="I47" s="169" t="n"/>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="A48" s="135" t="inlineStr">
+      <c r="A48" s="89" t="inlineStr">
         <is>
           <t>As ações corretivas foram eficazes? (Caso não, abrir nova RNC)</t>
         </is>
       </c>
-      <c r="B48" s="152" t="n"/>
-      <c r="C48" s="152" t="n"/>
-      <c r="D48" s="152" t="n"/>
-      <c r="E48" s="152" t="n"/>
-      <c r="F48" s="152" t="n"/>
-      <c r="G48" s="152" t="n"/>
-      <c r="H48" s="152" t="n"/>
-      <c r="I48" s="153" t="n"/>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
+      <c r="D48" s="144" t="n"/>
+      <c r="E48" s="144" t="n"/>
+      <c r="F48" s="144" t="n"/>
+      <c r="G48" s="144" t="n"/>
+      <c r="H48" s="144" t="n"/>
+      <c r="I48" s="145" t="n"/>
       <c r="J48" s="4" t="n"/>
       <c r="K48" s="4" t="n"/>
       <c r="L48" s="4" t="n"/>
@@ -2933,38 +2997,38 @@
       <c r="AA48" s="4" t="n"/>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="A49" s="88" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="B49" s="193" t="n"/>
-      <c r="C49" s="193" t="n"/>
-      <c r="D49" s="193" t="n"/>
-      <c r="E49" s="193" t="n"/>
-      <c r="F49" s="193" t="n"/>
-      <c r="G49" s="194" t="n"/>
-      <c r="H49" s="137" t="inlineStr">
+      <c r="A49" s="78" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B49" s="186" t="n"/>
+      <c r="C49" s="186" t="n"/>
+      <c r="D49" s="186" t="n"/>
+      <c r="E49" s="186" t="n"/>
+      <c r="F49" s="186" t="n"/>
+      <c r="G49" s="149" t="n"/>
+      <c r="H49" s="87" t="inlineStr">
         <is>
           <t>Nº da RNC:</t>
         </is>
       </c>
-      <c r="I49" s="10" t="n"/>
+      <c r="I49" s="80" t="n"/>
     </row>
     <row r="50" ht="36.75" customHeight="1">
-      <c r="A50" s="138" t="inlineStr">
+      <c r="A50" s="88" t="inlineStr">
         <is>
           <t>INFORMAÇÕES ADICIONAIS</t>
         </is>
       </c>
-      <c r="B50" s="152" t="n"/>
-      <c r="C50" s="152" t="n"/>
-      <c r="D50" s="152" t="n"/>
-      <c r="E50" s="152" t="n"/>
-      <c r="F50" s="152" t="n"/>
-      <c r="G50" s="152" t="n"/>
-      <c r="H50" s="152" t="n"/>
-      <c r="I50" s="153" t="n"/>
+      <c r="B50" s="144" t="n"/>
+      <c r="C50" s="144" t="n"/>
+      <c r="D50" s="144" t="n"/>
+      <c r="E50" s="144" t="n"/>
+      <c r="F50" s="144" t="n"/>
+      <c r="G50" s="144" t="n"/>
+      <c r="H50" s="144" t="n"/>
+      <c r="I50" s="145" t="n"/>
       <c r="J50" s="4" t="n"/>
       <c r="K50" s="4" t="n"/>
       <c r="L50" s="4" t="n"/>
@@ -2985,27 +3049,29 @@
       <c r="AA50" s="4" t="n"/>
     </row>
     <row r="51" ht="42.75" customFormat="1" customHeight="1" s="6">
-      <c r="A51" s="195" t="inlineStr">
-        <is>
-          <t>Manual da Qualidade aprovado pela consultora Andrea Monteiro.</t>
-        </is>
-      </c>
-      <c r="I51" s="159" t="n"/>
+      <c r="A51" s="187" t="n">
+        <v/>
+      </c>
+      <c r="I51" s="185" t="n"/>
     </row>
     <row r="52" ht="42.75" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A52" s="180" t="n"/>
-      <c r="B52" s="162" t="n"/>
-      <c r="C52" s="162" t="n"/>
-      <c r="D52" s="162" t="n"/>
-      <c r="E52" s="162" t="n"/>
-      <c r="F52" s="162" t="n"/>
-      <c r="G52" s="162" t="n"/>
-      <c r="H52" s="162" t="n"/>
-      <c r="I52" s="163" t="n"/>
+      <c r="A52" s="171" t="n"/>
+      <c r="B52" s="158" t="n"/>
+      <c r="C52" s="158" t="n"/>
+      <c r="D52" s="158" t="n"/>
+      <c r="E52" s="158" t="n"/>
+      <c r="F52" s="158" t="n"/>
+      <c r="G52" s="158" t="n"/>
+      <c r="H52" s="158" t="n"/>
+      <c r="I52" s="159" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A43:D43"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A50:I50"/>
     <mergeCell ref="A51:I52"/>
@@ -3015,28 +3081,19 @@
     <mergeCell ref="A46:E47"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="G47:I47"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:I34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:I30"/>
@@ -3077,7 +3134,6 @@
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="H35:I35"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H38:I38"/>
@@ -3088,6 +3144,12 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -168,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -905,9 +905,40 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -941,156 +972,66 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,6 +1062,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1132,64 +1082,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1199,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1231,6 +1288,307 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,9 +1598,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1267,325 +1622,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1608,20 +1664,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1630,12 +1686,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1647,29 +1703,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2083,8 +2144,8 @@
   </sheetPr>
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2101,22 +2162,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="131" t="inlineStr">
+      <c r="A1" s="112" t="n"/>
+      <c r="B1" s="130" t="inlineStr">
         <is>
           <t>Registro da Qualidade</t>
         </is>
       </c>
-      <c r="C1" s="132" t="n"/>
-      <c r="D1" s="132" t="n"/>
-      <c r="E1" s="132" t="n"/>
-      <c r="F1" s="133" t="n"/>
-      <c r="G1" s="134" t="inlineStr">
+      <c r="C1" s="131" t="n"/>
+      <c r="D1" s="131" t="n"/>
+      <c r="E1" s="131" t="n"/>
+      <c r="F1" s="132" t="n"/>
+      <c r="G1" s="133" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="H1" s="135" t="n"/>
+      <c r="H1" s="134" t="n"/>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RQ GQ-001-000</t>
@@ -2124,39 +2185,39 @@
       </c>
     </row>
     <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="136" t="n"/>
-      <c r="B2" s="137" t="n"/>
-      <c r="C2" s="138" t="n"/>
-      <c r="D2" s="138" t="n"/>
-      <c r="E2" s="138" t="n"/>
-      <c r="F2" s="139" t="n"/>
-      <c r="G2" s="134" t="inlineStr">
+      <c r="A2" s="135" t="n"/>
+      <c r="B2" s="136" t="n"/>
+      <c r="C2" s="137" t="n"/>
+      <c r="D2" s="137" t="n"/>
+      <c r="E2" s="137" t="n"/>
+      <c r="F2" s="138" t="n"/>
+      <c r="G2" s="133" t="inlineStr">
         <is>
           <t>Data de Emissão:</t>
         </is>
       </c>
-      <c r="H2" s="135" t="n"/>
+      <c r="H2" s="134" t="n"/>
       <c r="I2" s="2" t="n">
         <v>45293</v>
       </c>
     </row>
     <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="136" t="n"/>
-      <c r="B3" s="140" t="inlineStr">
+      <c r="A3" s="135" t="n"/>
+      <c r="B3" s="139" t="inlineStr">
         <is>
           <t>Gestão da Qualidade</t>
         </is>
       </c>
-      <c r="C3" s="132" t="n"/>
-      <c r="D3" s="132" t="n"/>
-      <c r="E3" s="132" t="n"/>
-      <c r="F3" s="133" t="n"/>
-      <c r="G3" s="134" t="inlineStr">
+      <c r="C3" s="131" t="n"/>
+      <c r="D3" s="131" t="n"/>
+      <c r="E3" s="131" t="n"/>
+      <c r="F3" s="132" t="n"/>
+      <c r="G3" s="133" t="inlineStr">
         <is>
           <t>Data da Última Revisão:</t>
         </is>
       </c>
-      <c r="H3" s="135" t="n"/>
+      <c r="H3" s="134" t="n"/>
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2164,74 +2225,74 @@
       </c>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="136" t="n"/>
-      <c r="B4" s="141" t="n"/>
-      <c r="F4" s="142" t="n"/>
-      <c r="G4" s="143" t="inlineStr">
+      <c r="A4" s="135" t="n"/>
+      <c r="B4" s="140" t="n"/>
+      <c r="F4" s="141" t="n"/>
+      <c r="G4" s="142" t="inlineStr">
         <is>
           <t>Página:</t>
         </is>
       </c>
-      <c r="H4" s="133" t="n"/>
+      <c r="H4" s="132" t="n"/>
       <c r="I4" s="9" t="n">
         <v>44197</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1">
-      <c r="A5" s="38" t="inlineStr">
+      <c r="A5" s="46" t="inlineStr">
         <is>
           <t>“Se você está lendo este documento em mídia impressa, esta é uma cópia Não-Controlada”</t>
         </is>
       </c>
-      <c r="B5" s="144" t="n"/>
-      <c r="C5" s="144" t="n"/>
-      <c r="D5" s="144" t="n"/>
-      <c r="E5" s="144" t="n"/>
-      <c r="F5" s="144" t="n"/>
-      <c r="G5" s="144" t="n"/>
-      <c r="H5" s="144" t="n"/>
-      <c r="I5" s="145" t="n"/>
+      <c r="B5" s="143" t="n"/>
+      <c r="C5" s="143" t="n"/>
+      <c r="D5" s="143" t="n"/>
+      <c r="E5" s="143" t="n"/>
+      <c r="F5" s="143" t="n"/>
+      <c r="G5" s="143" t="n"/>
+      <c r="H5" s="143" t="n"/>
+      <c r="I5" s="144" t="n"/>
     </row>
     <row r="6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="26" t="inlineStr">
+      <c r="A6" s="104" t="inlineStr">
         <is>
           <t>Relatório de Não Conformidade</t>
         </is>
       </c>
-      <c r="B6" s="144" t="n"/>
-      <c r="C6" s="144" t="n"/>
-      <c r="D6" s="144" t="n"/>
-      <c r="E6" s="144" t="n"/>
-      <c r="F6" s="144" t="n"/>
-      <c r="G6" s="144" t="n"/>
-      <c r="H6" s="144" t="n"/>
-      <c r="I6" s="145" t="n"/>
+      <c r="B6" s="143" t="n"/>
+      <c r="C6" s="143" t="n"/>
+      <c r="D6" s="143" t="n"/>
+      <c r="E6" s="143" t="n"/>
+      <c r="F6" s="143" t="n"/>
+      <c r="G6" s="143" t="n"/>
+      <c r="H6" s="143" t="n"/>
+      <c r="I6" s="144" t="n"/>
     </row>
     <row r="7" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A7" s="28" t="inlineStr">
+      <c r="A7" s="106" t="inlineStr">
         <is>
           <t>1ª ETAPA - ABERTURA</t>
         </is>
       </c>
-      <c r="B7" s="146" t="n"/>
-      <c r="C7" s="146" t="n"/>
-      <c r="D7" s="146" t="n"/>
-      <c r="E7" s="146" t="n"/>
+      <c r="B7" s="145" t="n"/>
+      <c r="C7" s="145" t="n"/>
+      <c r="D7" s="145" t="n"/>
+      <c r="E7" s="145" t="n"/>
       <c r="F7" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G7" s="46" t="inlineStr">
+      <c r="G7" s="109" t="inlineStr">
         <is>
           <t>Verificação</t>
         </is>
       </c>
-      <c r="H7" s="147" t="n"/>
-      <c r="I7" s="148" t="n"/>
+      <c r="H7" s="146" t="n"/>
+      <c r="I7" s="147" t="n"/>
       <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>
-      <c r="L7" s="23" t="n"/>
+      <c r="L7" s="37" t="n"/>
       <c r="M7" s="4" t="n"/>
       <c r="N7" s="4" t="n"/>
       <c r="O7" s="4" t="n"/>
@@ -2249,217 +2310,217 @@
       <c r="AA7" s="4" t="n"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="128" t="inlineStr">
+      <c r="A8" s="110" t="inlineStr">
         <is>
           <t>RNC Nº</t>
         </is>
       </c>
-      <c r="B8" s="47" t="n">
+      <c r="B8" s="102" t="n">
         <v>5832164054</v>
       </c>
-      <c r="C8" s="129" t="inlineStr">
+      <c r="C8" s="111" t="inlineStr">
         <is>
           <t>Origem:</t>
         </is>
       </c>
-      <c r="D8" s="47" t="inlineStr">
+      <c r="D8" s="102" t="inlineStr">
         <is>
           <t>Gestão da Qualidade</t>
         </is>
       </c>
-      <c r="E8" s="149" t="n"/>
-      <c r="F8" s="130" t="inlineStr">
+      <c r="E8" s="148" t="n"/>
+      <c r="F8" s="101" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G8" s="44" t="inlineStr">
+      <c r="G8" s="102" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="H8" s="130" t="inlineStr">
+      <c r="H8" s="101" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="I8" s="44" t="inlineStr">
+      <c r="I8" s="102" t="inlineStr">
         <is>
           <t>03/01/2024</t>
         </is>
       </c>
-      <c r="L8" s="23" t="n"/>
+      <c r="L8" s="37" t="n"/>
     </row>
     <row r="9" ht="41.25" customHeight="1">
-      <c r="A9" s="150" t="n"/>
-      <c r="B9" s="150" t="n"/>
-      <c r="C9" s="150" t="n"/>
-      <c r="D9" s="151" t="n"/>
-      <c r="E9" s="152" t="n"/>
-      <c r="F9" s="130" t="inlineStr">
+      <c r="A9" s="149" t="n"/>
+      <c r="B9" s="149" t="n"/>
+      <c r="C9" s="149" t="n"/>
+      <c r="D9" s="150" t="n"/>
+      <c r="E9" s="151" t="n"/>
+      <c r="F9" s="101" t="inlineStr">
         <is>
           <t>Item Norma:</t>
         </is>
       </c>
-      <c r="G9" s="44" t="inlineStr">
+      <c r="G9" s="102" t="inlineStr">
         <is>
           <t>9.2.2</t>
         </is>
       </c>
-      <c r="H9" s="144" t="n"/>
-      <c r="I9" s="145" t="n"/>
+      <c r="H9" s="143" t="n"/>
+      <c r="I9" s="144" t="n"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="30" t="n"/>
-      <c r="B10" s="144" t="n"/>
-      <c r="C10" s="144" t="n"/>
-      <c r="D10" s="144" t="n"/>
-      <c r="E10" s="144" t="n"/>
-      <c r="F10" s="144" t="n"/>
-      <c r="G10" s="144" t="n"/>
-      <c r="H10" s="144" t="n"/>
-      <c r="I10" s="145" t="n"/>
+      <c r="A10" s="92" t="n"/>
+      <c r="B10" s="143" t="n"/>
+      <c r="C10" s="143" t="n"/>
+      <c r="D10" s="143" t="n"/>
+      <c r="E10" s="143" t="n"/>
+      <c r="F10" s="143" t="n"/>
+      <c r="G10" s="143" t="n"/>
+      <c r="H10" s="143" t="n"/>
+      <c r="I10" s="144" t="n"/>
     </row>
     <row r="11" ht="24.95" customFormat="1" customHeight="1" s="6">
-      <c r="A11" s="130" t="inlineStr">
+      <c r="A11" s="101" t="inlineStr">
         <is>
           <t>Descrição do Problema</t>
         </is>
       </c>
-      <c r="B11" s="144" t="n"/>
-      <c r="C11" s="144" t="n"/>
-      <c r="D11" s="144" t="n"/>
-      <c r="E11" s="145" t="n"/>
-      <c r="F11" s="130" t="inlineStr">
+      <c r="B11" s="143" t="n"/>
+      <c r="C11" s="143" t="n"/>
+      <c r="D11" s="143" t="n"/>
+      <c r="E11" s="144" t="n"/>
+      <c r="F11" s="101" t="inlineStr">
         <is>
           <t>Conj / Ativ:</t>
         </is>
       </c>
-      <c r="G11" s="44" t="inlineStr">
+      <c r="G11" s="102" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H11" s="144" t="n"/>
-      <c r="I11" s="145" t="n"/>
+      <c r="H11" s="143" t="n"/>
+      <c r="I11" s="144" t="n"/>
     </row>
     <row r="12" ht="66.75" customFormat="1" customHeight="1" s="6">
-      <c r="A12" s="48" t="inlineStr">
+      <c r="A12" s="103" t="inlineStr">
         <is>
           <t>NC 36: Não há o relatório de auditoria interna - RQ GQ-011-002 do mês de abril de 2023.</t>
         </is>
       </c>
-      <c r="B12" s="144" t="n"/>
-      <c r="C12" s="144" t="n"/>
-      <c r="D12" s="144" t="n"/>
-      <c r="E12" s="144" t="n"/>
-      <c r="F12" s="144" t="n"/>
-      <c r="G12" s="144" t="n"/>
-      <c r="H12" s="144" t="n"/>
-      <c r="I12" s="145" t="n"/>
+      <c r="B12" s="143" t="n"/>
+      <c r="C12" s="143" t="n"/>
+      <c r="D12" s="143" t="n"/>
+      <c r="E12" s="143" t="n"/>
+      <c r="F12" s="143" t="n"/>
+      <c r="G12" s="143" t="n"/>
+      <c r="H12" s="143" t="n"/>
+      <c r="I12" s="144" t="n"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A13" s="153" t="n"/>
-      <c r="I13" s="154" t="n"/>
+      <c r="A13" s="152" t="n"/>
+      <c r="I13" s="153" t="n"/>
     </row>
     <row r="14" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A14" s="155" t="inlineStr">
+      <c r="A14" s="154" t="inlineStr">
         <is>
           <t>2ª ETAPA - AÇÃO IMEDIATA</t>
         </is>
       </c>
-      <c r="B14" s="147" t="n"/>
-      <c r="C14" s="147" t="n"/>
-      <c r="D14" s="147" t="n"/>
-      <c r="E14" s="156" t="n"/>
-      <c r="F14" s="119" t="inlineStr">
+      <c r="B14" s="146" t="n"/>
+      <c r="C14" s="146" t="n"/>
+      <c r="D14" s="146" t="n"/>
+      <c r="E14" s="155" t="n"/>
+      <c r="F14" s="17" t="inlineStr">
         <is>
           <t>Status:</t>
         </is>
       </c>
-      <c r="G14" s="60" t="inlineStr">
+      <c r="G14" s="20" t="inlineStr">
         <is>
           <t>Feito</t>
         </is>
       </c>
-      <c r="H14" s="119" t="inlineStr">
+      <c r="H14" s="17" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="I14" s="60" t="inlineStr">
+      <c r="I14" s="20" t="inlineStr">
         <is>
           <t>20/01/2024</t>
         </is>
       </c>
     </row>
     <row r="15" ht="48" customHeight="1" thickBot="1">
-      <c r="A15" s="157" t="n"/>
-      <c r="B15" s="158" t="n"/>
-      <c r="C15" s="158" t="n"/>
-      <c r="D15" s="158" t="n"/>
-      <c r="E15" s="159" t="n"/>
-      <c r="F15" s="118" t="inlineStr">
+      <c r="A15" s="156" t="n"/>
+      <c r="B15" s="157" t="n"/>
+      <c r="C15" s="157" t="n"/>
+      <c r="D15" s="157" t="n"/>
+      <c r="E15" s="158" t="n"/>
+      <c r="F15" s="16" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G15" s="59" t="inlineStr">
+      <c r="G15" s="100" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="H15" s="160" t="n"/>
-      <c r="I15" s="161" t="n"/>
+      <c r="H15" s="159" t="n"/>
+      <c r="I15" s="160" t="n"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="124" t="inlineStr">
+      <c r="A16" s="73" t="inlineStr">
         <is>
           <t>Ação imediata</t>
         </is>
       </c>
-      <c r="B16" s="132" t="n"/>
-      <c r="C16" s="132" t="n"/>
-      <c r="D16" s="132" t="n"/>
-      <c r="E16" s="132" t="n"/>
-      <c r="F16" s="132" t="n"/>
-      <c r="G16" s="132" t="n"/>
-      <c r="H16" s="132" t="n"/>
-      <c r="I16" s="133" t="n"/>
+      <c r="B16" s="131" t="n"/>
+      <c r="C16" s="131" t="n"/>
+      <c r="D16" s="131" t="n"/>
+      <c r="E16" s="131" t="n"/>
+      <c r="F16" s="131" t="n"/>
+      <c r="G16" s="131" t="n"/>
+      <c r="H16" s="131" t="n"/>
+      <c r="I16" s="132" t="n"/>
     </row>
     <row r="17" ht="27.95" customFormat="1" customHeight="1" s="6">
-      <c r="A17" s="49" t="inlineStr">
+      <c r="A17" s="76" t="inlineStr">
         <is>
           <t>Preenchimento do relatório de auditoria pendente</t>
         </is>
       </c>
-      <c r="B17" s="147" t="n"/>
-      <c r="C17" s="147" t="n"/>
-      <c r="D17" s="147" t="n"/>
-      <c r="E17" s="147" t="n"/>
-      <c r="F17" s="147" t="n"/>
-      <c r="G17" s="147" t="n"/>
-      <c r="H17" s="147" t="n"/>
-      <c r="I17" s="162" t="n"/>
+      <c r="B17" s="146" t="n"/>
+      <c r="C17" s="146" t="n"/>
+      <c r="D17" s="146" t="n"/>
+      <c r="E17" s="146" t="n"/>
+      <c r="F17" s="146" t="n"/>
+      <c r="G17" s="146" t="n"/>
+      <c r="H17" s="146" t="n"/>
+      <c r="I17" s="161" t="n"/>
     </row>
     <row r="18" ht="27.95" customFormat="1" customHeight="1" s="6">
-      <c r="A18" s="163" t="n"/>
-      <c r="I18" s="142" t="n"/>
+      <c r="A18" s="162" t="n"/>
+      <c r="I18" s="141" t="n"/>
     </row>
     <row r="19" ht="27.95" customFormat="1" customHeight="1" s="6">
-      <c r="A19" s="163" t="n"/>
-      <c r="I19" s="142" t="n"/>
+      <c r="A19" s="162" t="n"/>
+      <c r="I19" s="141" t="n"/>
     </row>
     <row r="20" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A20" s="164" t="n"/>
-      <c r="B20" s="138" t="n"/>
-      <c r="C20" s="138" t="n"/>
-      <c r="D20" s="138" t="n"/>
-      <c r="E20" s="138" t="n"/>
-      <c r="F20" s="138" t="n"/>
-      <c r="G20" s="138" t="n"/>
-      <c r="H20" s="138" t="n"/>
-      <c r="I20" s="139" t="n"/>
+      <c r="A20" s="163" t="n"/>
+      <c r="B20" s="137" t="n"/>
+      <c r="C20" s="137" t="n"/>
+      <c r="D20" s="137" t="n"/>
+      <c r="E20" s="137" t="n"/>
+      <c r="F20" s="137" t="n"/>
+      <c r="G20" s="137" t="n"/>
+      <c r="H20" s="137" t="n"/>
+      <c r="I20" s="138" t="n"/>
       <c r="J20" s="4" t="n"/>
       <c r="K20" s="4" t="n"/>
       <c r="L20" s="4" t="n"/>
@@ -2480,214 +2541,216 @@
       <c r="AA20" s="4" t="n"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="34" t="n"/>
-      <c r="B21" s="165" t="n"/>
-      <c r="C21" s="165" t="n"/>
-      <c r="D21" s="165" t="n"/>
-      <c r="E21" s="165" t="n"/>
-      <c r="F21" s="165" t="n"/>
-      <c r="G21" s="165" t="n"/>
-      <c r="H21" s="165" t="n"/>
-      <c r="I21" s="166" t="n"/>
+      <c r="A21" s="85" t="n"/>
+      <c r="B21" s="164" t="n"/>
+      <c r="C21" s="164" t="n"/>
+      <c r="D21" s="164" t="n"/>
+      <c r="E21" s="164" t="n"/>
+      <c r="F21" s="164" t="n"/>
+      <c r="G21" s="164" t="n"/>
+      <c r="H21" s="164" t="n"/>
+      <c r="I21" s="165" t="n"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="167" t="inlineStr">
+      <c r="A22" s="166" t="inlineStr">
         <is>
           <t>3ª ETAPA - ANÁLISE DE CAUZA RAIZ</t>
         </is>
       </c>
-      <c r="B22" s="168" t="n"/>
-      <c r="C22" s="168" t="n"/>
-      <c r="D22" s="168" t="n"/>
-      <c r="E22" s="169" t="n"/>
-      <c r="F22" s="170" t="inlineStr">
+      <c r="B22" s="167" t="n"/>
+      <c r="C22" s="167" t="n"/>
+      <c r="D22" s="167" t="n"/>
+      <c r="E22" s="168" t="n"/>
+      <c r="F22" s="169" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G22" s="76" t="inlineStr">
+      <c r="G22" s="43" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="H22" s="170" t="inlineStr">
+      <c r="H22" s="169" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="I22" s="76" t="n">
-        <v/>
+      <c r="I22" s="43" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A23" s="171" t="n"/>
-      <c r="B23" s="158" t="n"/>
-      <c r="C23" s="158" t="n"/>
-      <c r="D23" s="158" t="n"/>
-      <c r="E23" s="159" t="n"/>
-      <c r="F23" s="171" t="n"/>
-      <c r="G23" s="159" t="n"/>
-      <c r="H23" s="171" t="n"/>
-      <c r="I23" s="159" t="n"/>
+      <c r="A23" s="170" t="n"/>
+      <c r="B23" s="157" t="n"/>
+      <c r="C23" s="157" t="n"/>
+      <c r="D23" s="157" t="n"/>
+      <c r="E23" s="158" t="n"/>
+      <c r="F23" s="170" t="n"/>
+      <c r="G23" s="158" t="n"/>
+      <c r="H23" s="170" t="n"/>
+      <c r="I23" s="158" t="n"/>
     </row>
     <row r="24" ht="45" customHeight="1">
-      <c r="A24" s="112" t="inlineStr">
+      <c r="A24" s="15" t="inlineStr">
         <is>
           <t>Máquina</t>
         </is>
       </c>
-      <c r="B24" s="172" t="inlineStr">
+      <c r="B24" s="171" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C24" s="132" t="n"/>
-      <c r="D24" s="132" t="n"/>
-      <c r="E24" s="132" t="n"/>
-      <c r="F24" s="132" t="n"/>
-      <c r="G24" s="132" t="n"/>
-      <c r="H24" s="132" t="n"/>
-      <c r="I24" s="133" t="n"/>
+      <c r="C24" s="131" t="n"/>
+      <c r="D24" s="131" t="n"/>
+      <c r="E24" s="131" t="n"/>
+      <c r="F24" s="131" t="n"/>
+      <c r="G24" s="131" t="n"/>
+      <c r="H24" s="131" t="n"/>
+      <c r="I24" s="132" t="n"/>
     </row>
     <row r="25" ht="45" customHeight="1">
-      <c r="A25" s="112" t="inlineStr">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t>Mão-de-Obra</t>
         </is>
       </c>
-      <c r="B25" s="67" t="inlineStr">
+      <c r="B25" s="56" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C25" s="173" t="n"/>
-      <c r="D25" s="173" t="n"/>
-      <c r="E25" s="173" t="n"/>
-      <c r="F25" s="173" t="n"/>
-      <c r="G25" s="173" t="n"/>
-      <c r="H25" s="173" t="n"/>
-      <c r="I25" s="174" t="n"/>
+      <c r="C25" s="172" t="n"/>
+      <c r="D25" s="172" t="n"/>
+      <c r="E25" s="172" t="n"/>
+      <c r="F25" s="172" t="n"/>
+      <c r="G25" s="172" t="n"/>
+      <c r="H25" s="172" t="n"/>
+      <c r="I25" s="173" t="n"/>
     </row>
     <row r="26" ht="45" customHeight="1">
-      <c r="A26" s="112" t="inlineStr">
+      <c r="A26" s="15" t="inlineStr">
         <is>
           <t>Matéria Prima</t>
         </is>
       </c>
-      <c r="B26" s="67" t="inlineStr">
+      <c r="B26" s="56" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C26" s="173" t="n"/>
-      <c r="D26" s="173" t="n"/>
-      <c r="E26" s="173" t="n"/>
-      <c r="F26" s="173" t="n"/>
-      <c r="G26" s="173" t="n"/>
-      <c r="H26" s="173" t="n"/>
-      <c r="I26" s="174" t="n"/>
+      <c r="C26" s="172" t="n"/>
+      <c r="D26" s="172" t="n"/>
+      <c r="E26" s="172" t="n"/>
+      <c r="F26" s="172" t="n"/>
+      <c r="G26" s="172" t="n"/>
+      <c r="H26" s="172" t="n"/>
+      <c r="I26" s="173" t="n"/>
     </row>
     <row r="27" ht="45" customHeight="1">
-      <c r="A27" s="112" t="inlineStr">
+      <c r="A27" s="15" t="inlineStr">
         <is>
           <t>Medição</t>
         </is>
       </c>
-      <c r="B27" s="67" t="inlineStr">
+      <c r="B27" s="56" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C27" s="173" t="n"/>
-      <c r="D27" s="173" t="n"/>
-      <c r="E27" s="173" t="n"/>
-      <c r="F27" s="173" t="n"/>
-      <c r="G27" s="173" t="n"/>
-      <c r="H27" s="173" t="n"/>
-      <c r="I27" s="174" t="n"/>
+      <c r="C27" s="172" t="n"/>
+      <c r="D27" s="172" t="n"/>
+      <c r="E27" s="172" t="n"/>
+      <c r="F27" s="172" t="n"/>
+      <c r="G27" s="172" t="n"/>
+      <c r="H27" s="172" t="n"/>
+      <c r="I27" s="173" t="n"/>
     </row>
     <row r="28" ht="45" customHeight="1">
-      <c r="A28" s="112" t="inlineStr">
+      <c r="A28" s="15" t="inlineStr">
         <is>
           <t>Método</t>
         </is>
       </c>
-      <c r="B28" s="67" t="inlineStr">
+      <c r="B28" s="56" t="inlineStr">
         <is>
           <t>Não havia definição documentada</t>
         </is>
       </c>
-      <c r="C28" s="173" t="n"/>
-      <c r="D28" s="173" t="n"/>
-      <c r="E28" s="173" t="n"/>
-      <c r="F28" s="173" t="n"/>
-      <c r="G28" s="173" t="n"/>
-      <c r="H28" s="173" t="n"/>
-      <c r="I28" s="174" t="n"/>
+      <c r="C28" s="172" t="n"/>
+      <c r="D28" s="172" t="n"/>
+      <c r="E28" s="172" t="n"/>
+      <c r="F28" s="172" t="n"/>
+      <c r="G28" s="172" t="n"/>
+      <c r="H28" s="172" t="n"/>
+      <c r="I28" s="173" t="n"/>
     </row>
     <row r="29" ht="45" customHeight="1">
-      <c r="A29" s="112" t="inlineStr">
+      <c r="A29" s="15" t="inlineStr">
         <is>
           <t>Meio Ambiente</t>
         </is>
       </c>
-      <c r="B29" s="67" t="inlineStr">
+      <c r="B29" s="56" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C29" s="173" t="n"/>
-      <c r="D29" s="173" t="n"/>
-      <c r="E29" s="173" t="n"/>
-      <c r="F29" s="173" t="n"/>
-      <c r="G29" s="173" t="n"/>
-      <c r="H29" s="173" t="n"/>
-      <c r="I29" s="174" t="n"/>
+      <c r="C29" s="172" t="n"/>
+      <c r="D29" s="172" t="n"/>
+      <c r="E29" s="172" t="n"/>
+      <c r="F29" s="172" t="n"/>
+      <c r="G29" s="172" t="n"/>
+      <c r="H29" s="172" t="n"/>
+      <c r="I29" s="173" t="n"/>
     </row>
     <row r="30" ht="45" customHeight="1">
-      <c r="A30" s="110" t="inlineStr">
+      <c r="A30" s="59" t="inlineStr">
         <is>
           <t>Presentes:</t>
         </is>
       </c>
-      <c r="B30" s="175" t="n"/>
-      <c r="C30" s="69" t="inlineStr">
+      <c r="B30" s="174" t="n"/>
+      <c r="C30" s="61" t="inlineStr">
         <is>
           <t>Amanda</t>
         </is>
       </c>
-      <c r="D30" s="176" t="n"/>
-      <c r="E30" s="176" t="n"/>
-      <c r="F30" s="176" t="n"/>
-      <c r="G30" s="176" t="n"/>
-      <c r="H30" s="176" t="n"/>
-      <c r="I30" s="175" t="n"/>
+      <c r="D30" s="175" t="n"/>
+      <c r="E30" s="175" t="n"/>
+      <c r="F30" s="175" t="n"/>
+      <c r="G30" s="175" t="n"/>
+      <c r="H30" s="175" t="n"/>
+      <c r="I30" s="174" t="n"/>
     </row>
     <row r="31" ht="6" customHeight="1" thickBot="1">
-      <c r="A31" s="37" t="n"/>
-      <c r="B31" s="177" t="n"/>
-      <c r="C31" s="177" t="n"/>
-      <c r="D31" s="177" t="n"/>
-      <c r="E31" s="177" t="n"/>
-      <c r="F31" s="177" t="n"/>
-      <c r="G31" s="177" t="n"/>
-      <c r="H31" s="177" t="n"/>
-      <c r="I31" s="178" t="n"/>
+      <c r="A31" s="64" t="n"/>
+      <c r="B31" s="176" t="n"/>
+      <c r="C31" s="176" t="n"/>
+      <c r="D31" s="176" t="n"/>
+      <c r="E31" s="176" t="n"/>
+      <c r="F31" s="176" t="n"/>
+      <c r="G31" s="176" t="n"/>
+      <c r="H31" s="176" t="n"/>
+      <c r="I31" s="177" t="n"/>
     </row>
     <row r="32" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A32" s="167" t="inlineStr">
+      <c r="A32" s="166" t="inlineStr">
         <is>
           <t>3ªETAPA - PLANO DE AÇÃO</t>
         </is>
       </c>
-      <c r="B32" s="160" t="n"/>
-      <c r="C32" s="160" t="n"/>
-      <c r="D32" s="160" t="n"/>
-      <c r="E32" s="160" t="n"/>
-      <c r="F32" s="160" t="n"/>
-      <c r="G32" s="160" t="n"/>
-      <c r="H32" s="160" t="n"/>
-      <c r="I32" s="179" t="n"/>
+      <c r="B32" s="159" t="n"/>
+      <c r="C32" s="159" t="n"/>
+      <c r="D32" s="159" t="n"/>
+      <c r="E32" s="159" t="n"/>
+      <c r="F32" s="159" t="n"/>
+      <c r="G32" s="159" t="n"/>
+      <c r="H32" s="159" t="n"/>
+      <c r="I32" s="178" t="n"/>
       <c r="J32" s="4" t="n"/>
       <c r="K32" s="4" t="n"/>
       <c r="L32" s="4" t="n"/>
@@ -2708,275 +2771,276 @@
       <c r="AA32" s="4" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="180" t="inlineStr">
+      <c r="A33" s="179" t="inlineStr">
         <is>
           <t>Atividade</t>
         </is>
       </c>
-      <c r="B33" s="168" t="n"/>
-      <c r="C33" s="168" t="n"/>
-      <c r="D33" s="169" t="n"/>
-      <c r="E33" s="180" t="inlineStr">
+      <c r="B33" s="167" t="n"/>
+      <c r="C33" s="167" t="n"/>
+      <c r="D33" s="168" t="n"/>
+      <c r="E33" s="179" t="inlineStr">
         <is>
           <t>Responsável</t>
         </is>
       </c>
-      <c r="F33" s="180" t="inlineStr">
+      <c r="F33" s="179" t="inlineStr">
         <is>
           <t>Previsão</t>
         </is>
       </c>
-      <c r="G33" s="169" t="n"/>
-      <c r="H33" s="180" t="inlineStr">
+      <c r="G33" s="168" t="n"/>
+      <c r="H33" s="179" t="inlineStr">
         <is>
           <t>Realizado</t>
         </is>
       </c>
-      <c r="I33" s="169" t="n"/>
+      <c r="I33" s="168" t="n"/>
     </row>
     <row r="34" ht="9" customHeight="1" thickBot="1">
-      <c r="A34" s="171" t="n"/>
-      <c r="B34" s="158" t="n"/>
-      <c r="C34" s="158" t="n"/>
-      <c r="D34" s="159" t="n"/>
-      <c r="E34" s="181" t="n"/>
-      <c r="F34" s="171" t="n"/>
-      <c r="G34" s="159" t="n"/>
-      <c r="H34" s="171" t="n"/>
-      <c r="I34" s="159" t="n"/>
+      <c r="A34" s="170" t="n"/>
+      <c r="B34" s="157" t="n"/>
+      <c r="C34" s="157" t="n"/>
+      <c r="D34" s="158" t="n"/>
+      <c r="E34" s="180" t="n"/>
+      <c r="F34" s="170" t="n"/>
+      <c r="G34" s="158" t="n"/>
+      <c r="H34" s="170" t="n"/>
+      <c r="I34" s="158" t="n"/>
     </row>
     <row r="35" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A35" s="182" t="inlineStr">
+      <c r="A35" s="181" t="inlineStr">
         <is>
           <t>Determinar frequência mais adequada para a realização de auditorias internas (copy) (copy)</t>
         </is>
       </c>
-      <c r="B35" s="160" t="n"/>
-      <c r="C35" s="160" t="n"/>
-      <c r="D35" s="179" t="n"/>
-      <c r="E35" s="75" t="inlineStr">
+      <c r="B35" s="159" t="n"/>
+      <c r="C35" s="159" t="n"/>
+      <c r="D35" s="178" t="n"/>
+      <c r="E35" s="11" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="F35" s="182" t="inlineStr">
+      <c r="F35" s="181" t="inlineStr">
         <is>
           <t>04/01/2024</t>
         </is>
       </c>
-      <c r="G35" s="179" t="n"/>
-      <c r="H35" s="182" t="inlineStr">
+      <c r="G35" s="178" t="n"/>
+      <c r="H35" s="181" t="inlineStr">
         <is>
           <t>04/01/2024</t>
         </is>
       </c>
-      <c r="I35" s="179" t="n"/>
+      <c r="I35" s="178" t="n"/>
     </row>
     <row r="36" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A36" s="182" t="inlineStr">
+      <c r="A36" s="181" t="inlineStr">
         <is>
           <t>Criar Procedimento de Auditorias Internas (copy) (copy)</t>
         </is>
       </c>
-      <c r="B36" s="160" t="n"/>
-      <c r="C36" s="160" t="n"/>
-      <c r="D36" s="179" t="n"/>
-      <c r="E36" s="75" t="inlineStr">
+      <c r="B36" s="159" t="n"/>
+      <c r="C36" s="159" t="n"/>
+      <c r="D36" s="178" t="n"/>
+      <c r="E36" s="11" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="F36" s="182" t="inlineStr">
+      <c r="F36" s="181" t="inlineStr">
         <is>
           <t>04/01/2024</t>
         </is>
       </c>
-      <c r="G36" s="179" t="n"/>
-      <c r="H36" s="182" t="inlineStr">
+      <c r="G36" s="178" t="n"/>
+      <c r="H36" s="181" t="inlineStr">
         <is>
           <t>04/01/2024</t>
         </is>
       </c>
-      <c r="I36" s="179" t="n"/>
+      <c r="I36" s="178" t="n"/>
     </row>
     <row r="37" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A37" s="182" t="inlineStr">
+      <c r="A37" s="181" t="inlineStr">
         <is>
           <t>Criar Programa de Auditorias Internas de 2024 (copy) (copy)</t>
         </is>
       </c>
-      <c r="B37" s="160" t="n"/>
-      <c r="C37" s="160" t="n"/>
-      <c r="D37" s="179" t="n"/>
-      <c r="E37" s="75" t="inlineStr">
+      <c r="B37" s="159" t="n"/>
+      <c r="C37" s="159" t="n"/>
+      <c r="D37" s="178" t="n"/>
+      <c r="E37" s="11" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="F37" s="182" t="inlineStr">
+      <c r="F37" s="181" t="inlineStr">
         <is>
           <t>11/01/2024</t>
         </is>
       </c>
-      <c r="G37" s="179" t="n"/>
-      <c r="H37" s="182" t="inlineStr">
+      <c r="G37" s="178" t="n"/>
+      <c r="H37" s="181" t="inlineStr">
         <is>
           <t>08/01/2024</t>
         </is>
       </c>
-      <c r="I37" s="179" t="n"/>
+      <c r="I37" s="178" t="n"/>
     </row>
     <row r="38" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A38" s="182" t="inlineStr">
+      <c r="A38" s="181" t="inlineStr">
         <is>
           <t>Divulgar Procedimento (copy) (copy)</t>
         </is>
       </c>
-      <c r="B38" s="160" t="n"/>
-      <c r="C38" s="160" t="n"/>
-      <c r="D38" s="179" t="n"/>
-      <c r="E38" s="75" t="inlineStr">
+      <c r="B38" s="159" t="n"/>
+      <c r="C38" s="159" t="n"/>
+      <c r="D38" s="178" t="n"/>
+      <c r="E38" s="11" t="inlineStr">
         <is>
           <t>Amanda Prado</t>
         </is>
       </c>
-      <c r="F38" s="182" t="inlineStr">
+      <c r="F38" s="181" t="inlineStr">
         <is>
           <t>31/01/2024</t>
         </is>
       </c>
-      <c r="G38" s="179" t="n"/>
-      <c r="H38" s="182" t="n"/>
-      <c r="I38" s="179" t="n"/>
+      <c r="G38" s="178" t="n"/>
+      <c r="H38" s="181" t="n"/>
+      <c r="I38" s="178" t="n"/>
     </row>
     <row r="39" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A39" s="182" t="n"/>
-      <c r="B39" s="160" t="n"/>
-      <c r="C39" s="160" t="n"/>
-      <c r="D39" s="179" t="n"/>
-      <c r="E39" s="75" t="n"/>
-      <c r="F39" s="182" t="n"/>
-      <c r="G39" s="179" t="n"/>
-      <c r="H39" s="182" t="n"/>
-      <c r="I39" s="179" t="n"/>
+      <c r="A39" s="181" t="n"/>
+      <c r="B39" s="159" t="n"/>
+      <c r="C39" s="159" t="n"/>
+      <c r="D39" s="178" t="n"/>
+      <c r="E39" s="11" t="n"/>
+      <c r="F39" s="181" t="n"/>
+      <c r="G39" s="178" t="n"/>
+      <c r="H39" s="181" t="n"/>
+      <c r="I39" s="178" t="n"/>
     </row>
     <row r="40" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A40" s="182" t="n"/>
-      <c r="B40" s="160" t="n"/>
-      <c r="C40" s="160" t="n"/>
-      <c r="D40" s="179" t="n"/>
-      <c r="E40" s="75" t="n"/>
-      <c r="F40" s="182" t="n"/>
-      <c r="G40" s="179" t="n"/>
-      <c r="H40" s="182" t="n"/>
-      <c r="I40" s="179" t="n"/>
+      <c r="A40" s="181" t="n"/>
+      <c r="B40" s="159" t="n"/>
+      <c r="C40" s="159" t="n"/>
+      <c r="D40" s="178" t="n"/>
+      <c r="E40" s="11" t="n"/>
+      <c r="F40" s="181" t="n"/>
+      <c r="G40" s="178" t="n"/>
+      <c r="H40" s="181" t="n"/>
+      <c r="I40" s="178" t="n"/>
     </row>
     <row r="41" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A41" s="182" t="n"/>
-      <c r="B41" s="160" t="n"/>
-      <c r="C41" s="160" t="n"/>
-      <c r="D41" s="179" t="n"/>
-      <c r="E41" s="75" t="n"/>
-      <c r="F41" s="182" t="n"/>
-      <c r="G41" s="179" t="n"/>
-      <c r="H41" s="182" t="n"/>
-      <c r="I41" s="179" t="n"/>
+      <c r="A41" s="181" t="n"/>
+      <c r="B41" s="159" t="n"/>
+      <c r="C41" s="159" t="n"/>
+      <c r="D41" s="178" t="n"/>
+      <c r="E41" s="11" t="n"/>
+      <c r="F41" s="181" t="n"/>
+      <c r="G41" s="178" t="n"/>
+      <c r="H41" s="181" t="n"/>
+      <c r="I41" s="178" t="n"/>
     </row>
     <row r="42" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A42" s="182" t="n"/>
-      <c r="B42" s="160" t="n"/>
-      <c r="C42" s="160" t="n"/>
-      <c r="D42" s="179" t="n"/>
-      <c r="E42" s="75" t="n"/>
-      <c r="F42" s="182" t="n"/>
-      <c r="G42" s="179" t="n"/>
-      <c r="H42" s="182" t="n"/>
-      <c r="I42" s="179" t="n"/>
+      <c r="A42" s="181" t="n"/>
+      <c r="B42" s="159" t="n"/>
+      <c r="C42" s="159" t="n"/>
+      <c r="D42" s="178" t="n"/>
+      <c r="E42" s="11" t="n"/>
+      <c r="F42" s="181" t="n"/>
+      <c r="G42" s="178" t="n"/>
+      <c r="H42" s="181" t="n"/>
+      <c r="I42" s="178" t="n"/>
     </row>
     <row r="43" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A43" s="182" t="n"/>
-      <c r="B43" s="160" t="n"/>
-      <c r="C43" s="160" t="n"/>
-      <c r="D43" s="179" t="n"/>
-      <c r="E43" s="75" t="n"/>
-      <c r="F43" s="182" t="n"/>
-      <c r="G43" s="179" t="n"/>
-      <c r="H43" s="182" t="n"/>
-      <c r="I43" s="179" t="n"/>
+      <c r="A43" s="181" t="n"/>
+      <c r="B43" s="159" t="n"/>
+      <c r="C43" s="159" t="n"/>
+      <c r="D43" s="178" t="n"/>
+      <c r="E43" s="11" t="n"/>
+      <c r="F43" s="181" t="n"/>
+      <c r="G43" s="178" t="n"/>
+      <c r="H43" s="181" t="n"/>
+      <c r="I43" s="178" t="n"/>
     </row>
     <row r="44" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A44" s="182" t="n"/>
-      <c r="B44" s="160" t="n"/>
-      <c r="C44" s="160" t="n"/>
-      <c r="D44" s="179" t="n"/>
-      <c r="E44" s="75" t="n"/>
-      <c r="F44" s="182" t="n"/>
-      <c r="G44" s="179" t="n"/>
-      <c r="H44" s="182" t="n"/>
-      <c r="I44" s="179" t="n"/>
+      <c r="A44" s="181" t="n"/>
+      <c r="B44" s="159" t="n"/>
+      <c r="C44" s="159" t="n"/>
+      <c r="D44" s="178" t="n"/>
+      <c r="E44" s="11" t="n"/>
+      <c r="F44" s="181" t="n"/>
+      <c r="G44" s="178" t="n"/>
+      <c r="H44" s="181" t="n"/>
+      <c r="I44" s="178" t="n"/>
     </row>
     <row r="45" ht="6" customHeight="1" thickBot="1">
-      <c r="A45" s="40" t="n"/>
-      <c r="B45" s="176" t="n"/>
-      <c r="C45" s="176" t="n"/>
-      <c r="D45" s="176" t="n"/>
-      <c r="E45" s="176" t="n"/>
-      <c r="F45" s="176" t="n"/>
-      <c r="G45" s="176" t="n"/>
-      <c r="H45" s="176" t="n"/>
-      <c r="I45" s="175" t="n"/>
+      <c r="A45" s="34" t="n"/>
+      <c r="B45" s="175" t="n"/>
+      <c r="C45" s="175" t="n"/>
+      <c r="D45" s="175" t="n"/>
+      <c r="E45" s="175" t="n"/>
+      <c r="F45" s="175" t="n"/>
+      <c r="G45" s="175" t="n"/>
+      <c r="H45" s="175" t="n"/>
+      <c r="I45" s="174" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A46" s="183" t="inlineStr">
+      <c r="A46" s="182" t="inlineStr">
         <is>
           <t>4ª ETAPA - EFICÁCIA</t>
         </is>
       </c>
-      <c r="B46" s="168" t="n"/>
-      <c r="C46" s="168" t="n"/>
-      <c r="D46" s="168" t="n"/>
-      <c r="E46" s="169" t="n"/>
-      <c r="F46" s="98" t="inlineStr">
+      <c r="B46" s="167" t="n"/>
+      <c r="C46" s="167" t="n"/>
+      <c r="D46" s="167" t="n"/>
+      <c r="E46" s="183" t="inlineStr"/>
+      <c r="F46" s="14" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="G46" s="76" t="inlineStr">
-        <is>
-          <t>11/01/2024</t>
-        </is>
-      </c>
-      <c r="H46" s="160" t="n"/>
-      <c r="I46" s="179" t="n"/>
+      <c r="G46" s="43" t="n">
+        <v/>
+      </c>
+      <c r="H46" s="159" t="n"/>
+      <c r="I46" s="178" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="184" t="n"/>
-      <c r="E47" s="185" t="n"/>
-      <c r="F47" s="97" t="inlineStr">
+      <c r="B47" s="185" t="n"/>
+      <c r="C47" s="185" t="n"/>
+      <c r="D47" s="185" t="n"/>
+      <c r="E47" s="186" t="n"/>
+      <c r="F47" s="13" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G47" s="61" t="n">
+      <c r="G47" s="45" t="n">
         <v/>
       </c>
-      <c r="H47" s="168" t="n"/>
-      <c r="I47" s="169" t="n"/>
+      <c r="H47" s="167" t="n"/>
+      <c r="I47" s="168" t="n"/>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="A48" s="89" t="inlineStr">
+      <c r="A48" s="25" t="inlineStr">
         <is>
           <t>As ações corretivas foram eficazes? (Caso não, abrir nova RNC)</t>
         </is>
       </c>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
-      <c r="D48" s="144" t="n"/>
-      <c r="E48" s="144" t="n"/>
-      <c r="F48" s="144" t="n"/>
-      <c r="G48" s="144" t="n"/>
-      <c r="H48" s="144" t="n"/>
-      <c r="I48" s="145" t="n"/>
+      <c r="B48" s="143" t="n"/>
+      <c r="C48" s="143" t="n"/>
+      <c r="D48" s="143" t="n"/>
+      <c r="E48" s="143" t="n"/>
+      <c r="F48" s="143" t="n"/>
+      <c r="G48" s="143" t="n"/>
+      <c r="H48" s="143" t="n"/>
+      <c r="I48" s="144" t="n"/>
       <c r="J48" s="4" t="n"/>
       <c r="K48" s="4" t="n"/>
       <c r="L48" s="4" t="n"/>
@@ -2997,38 +3061,38 @@
       <c r="AA48" s="4" t="n"/>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="A49" s="78" t="inlineStr">
+      <c r="A49" s="125" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="B49" s="186" t="n"/>
-      <c r="C49" s="186" t="n"/>
-      <c r="D49" s="186" t="n"/>
-      <c r="E49" s="186" t="n"/>
-      <c r="F49" s="186" t="n"/>
-      <c r="G49" s="149" t="n"/>
-      <c r="H49" s="87" t="inlineStr">
+      <c r="B49" s="187" t="n"/>
+      <c r="C49" s="187" t="n"/>
+      <c r="D49" s="187" t="n"/>
+      <c r="E49" s="187" t="n"/>
+      <c r="F49" s="187" t="n"/>
+      <c r="G49" s="148" t="n"/>
+      <c r="H49" s="12" t="inlineStr">
         <is>
           <t>Nº da RNC:</t>
         </is>
       </c>
-      <c r="I49" s="80" t="n"/>
+      <c r="I49" s="21" t="n"/>
     </row>
     <row r="50" ht="36.75" customHeight="1">
-      <c r="A50" s="88" t="inlineStr">
-        <is>
-          <t>INFORMAÇÕES ADICIONAIS</t>
-        </is>
-      </c>
-      <c r="B50" s="144" t="n"/>
-      <c r="C50" s="144" t="n"/>
-      <c r="D50" s="144" t="n"/>
-      <c r="E50" s="144" t="n"/>
-      <c r="F50" s="144" t="n"/>
-      <c r="G50" s="144" t="n"/>
-      <c r="H50" s="144" t="n"/>
-      <c r="I50" s="145" t="n"/>
+      <c r="A50" s="27" t="inlineStr">
+        <is>
+          <t>CONCLUSÃO</t>
+        </is>
+      </c>
+      <c r="B50" s="143" t="n"/>
+      <c r="C50" s="143" t="n"/>
+      <c r="D50" s="143" t="n"/>
+      <c r="E50" s="143" t="n"/>
+      <c r="F50" s="143" t="n"/>
+      <c r="G50" s="143" t="n"/>
+      <c r="H50" s="143" t="n"/>
+      <c r="I50" s="144" t="n"/>
       <c r="J50" s="4" t="n"/>
       <c r="K50" s="4" t="n"/>
       <c r="L50" s="4" t="n"/>
@@ -3049,38 +3113,77 @@
       <c r="AA50" s="4" t="n"/>
     </row>
     <row r="51" ht="42.75" customFormat="1" customHeight="1" s="6">
-      <c r="A51" s="187" t="n">
+      <c r="A51" s="188" t="n">
         <v/>
       </c>
-      <c r="I51" s="185" t="n"/>
+      <c r="I51" s="189" t="n"/>
     </row>
     <row r="52" ht="42.75" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A52" s="171" t="n"/>
-      <c r="B52" s="158" t="n"/>
-      <c r="C52" s="158" t="n"/>
-      <c r="D52" s="158" t="n"/>
-      <c r="E52" s="158" t="n"/>
-      <c r="F52" s="158" t="n"/>
-      <c r="G52" s="158" t="n"/>
-      <c r="H52" s="158" t="n"/>
-      <c r="I52" s="159" t="n"/>
+      <c r="A52" s="170" t="n"/>
+      <c r="B52" s="157" t="n"/>
+      <c r="C52" s="157" t="n"/>
+      <c r="D52" s="157" t="n"/>
+      <c r="E52" s="157" t="n"/>
+      <c r="F52" s="157" t="n"/>
+      <c r="G52" s="157" t="n"/>
+      <c r="H52" s="157" t="n"/>
+      <c r="I52" s="158" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A51:I52"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
+  <mergeCells count="84">
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="A40:D40"/>
@@ -3097,59 +3200,21 @@
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I52"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -2285,7 +2285,7 @@
       </c>
       <c r="G7" s="109" t="inlineStr">
         <is>
-          <t>Verificação</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="H7" s="146" t="n"/>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B8" s="102" t="n">
-        <v>5832164054</v>
+        <v>5782689803</v>
       </c>
       <c r="C8" s="111" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="D8" s="102" t="inlineStr">
         <is>
-          <t>Gestão da Qualidade</t>
+          <t>Engenharia de Produtos</t>
         </is>
       </c>
       <c r="E8" s="148" t="n"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="G8" s="102" t="inlineStr">
         <is>
-          <t>Amanda Prado</t>
+          <t>João Marcos</t>
         </is>
       </c>
       <c r="H8" s="101" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="I8" s="102" t="inlineStr">
         <is>
-          <t>03/01/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="L8" s="37" t="n"/>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G9" s="102" t="inlineStr">
         <is>
-          <t>9.2.2</t>
+          <t>8.3.5</t>
         </is>
       </c>
       <c r="H9" s="143" t="n"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="G11" s="102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Documentação</t>
         </is>
       </c>
       <c r="H11" s="143" t="n"/>
@@ -2407,7 +2407,7 @@
     <row r="12" ht="66.75" customFormat="1" customHeight="1" s="6">
       <c r="A12" s="103" t="inlineStr">
         <is>
-          <t>NC 36: Não há o relatório de auditoria interna - RQ GQ-011-002 do mês de abril de 2023.</t>
+          <t>Não houve o encerramento projeto do FA5.</t>
         </is>
       </c>
       <c r="B12" s="143" t="n"/>
@@ -2448,11 +2448,7 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="I14" s="20" t="inlineStr">
-        <is>
-          <t>20/01/2024</t>
-        </is>
-      </c>
+      <c r="I14" s="20" t="inlineStr"/>
     </row>
     <row r="15" ht="48" customHeight="1" thickBot="1">
       <c r="A15" s="156" t="n"/>
@@ -2467,7 +2463,7 @@
       </c>
       <c r="G15" s="100" t="inlineStr">
         <is>
-          <t>Amanda Prado</t>
+          <t>João Marcos</t>
         </is>
       </c>
       <c r="H15" s="159" t="n"/>
@@ -2491,7 +2487,7 @@
     <row r="17" ht="27.95" customFormat="1" customHeight="1" s="6">
       <c r="A17" s="76" t="inlineStr">
         <is>
-          <t>Preenchimento do relatório de auditoria pendente</t>
+          <t>Criação do Termo de Encerramento de Projeto</t>
         </is>
       </c>
       <c r="B17" s="146" t="n"/>
@@ -2568,7 +2564,7 @@
       </c>
       <c r="G22" s="43" t="inlineStr">
         <is>
-          <t>Amanda Prado</t>
+          <t>João Marcos</t>
         </is>
       </c>
       <c r="H22" s="169" t="inlineStr">
@@ -2578,7 +2574,7 @@
       </c>
       <c r="I22" s="43" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2673,7 @@
       </c>
       <c r="B28" s="56" t="inlineStr">
         <is>
-          <t>Não havia definição documentada</t>
+          <t>Não havia clareza quanto à necessidade de confecção de gabaritos para a conclusão do projeto</t>
         </is>
       </c>
       <c r="C28" s="172" t="n"/>
@@ -2716,7 +2712,7 @@
       <c r="B30" s="174" t="n"/>
       <c r="C30" s="61" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Amanda, João Marcos</t>
         </is>
       </c>
       <c r="D30" s="175" t="n"/>
@@ -2811,7 +2807,7 @@
     <row r="35" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
       <c r="A35" s="181" t="inlineStr">
         <is>
-          <t>Determinar frequência mais adequada para a realização de auditorias internas (copy) (copy)</t>
+          <t>Criação/Atualização do PQ EP-002-000 contemplando a informação de quando deve ser emitido o termo de encerramento de projeto</t>
         </is>
       </c>
       <c r="B35" s="159" t="n"/>
@@ -2819,95 +2815,53 @@
       <c r="D35" s="178" t="n"/>
       <c r="E35" s="11" t="inlineStr">
         <is>
-          <t>Amanda Prado</t>
+          <t>João Marcos</t>
         </is>
       </c>
       <c r="F35" s="181" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="G35" s="178" t="n"/>
       <c r="H35" s="181" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="I35" s="178" t="n"/>
     </row>
     <row r="36" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A36" s="181" t="inlineStr">
-        <is>
-          <t>Criar Procedimento de Auditorias Internas (copy) (copy)</t>
-        </is>
+      <c r="A36" s="181" t="n">
+        <v/>
       </c>
       <c r="B36" s="159" t="n"/>
       <c r="C36" s="159" t="n"/>
       <c r="D36" s="178" t="n"/>
-      <c r="E36" s="11" t="inlineStr">
-        <is>
-          <t>Amanda Prado</t>
-        </is>
-      </c>
-      <c r="F36" s="181" t="inlineStr">
-        <is>
-          <t>04/01/2024</t>
-        </is>
-      </c>
+      <c r="E36" s="11" t="n"/>
+      <c r="F36" s="181" t="n"/>
       <c r="G36" s="178" t="n"/>
-      <c r="H36" s="181" t="inlineStr">
-        <is>
-          <t>04/01/2024</t>
-        </is>
-      </c>
+      <c r="H36" s="181" t="n"/>
       <c r="I36" s="178" t="n"/>
     </row>
     <row r="37" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A37" s="181" t="inlineStr">
-        <is>
-          <t>Criar Programa de Auditorias Internas de 2024 (copy) (copy)</t>
-        </is>
-      </c>
+      <c r="A37" s="181" t="n"/>
       <c r="B37" s="159" t="n"/>
       <c r="C37" s="159" t="n"/>
       <c r="D37" s="178" t="n"/>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <t>Amanda Prado</t>
-        </is>
-      </c>
-      <c r="F37" s="181" t="inlineStr">
-        <is>
-          <t>11/01/2024</t>
-        </is>
-      </c>
+      <c r="E37" s="11" t="n"/>
+      <c r="F37" s="181" t="n"/>
       <c r="G37" s="178" t="n"/>
-      <c r="H37" s="181" t="inlineStr">
-        <is>
-          <t>08/01/2024</t>
-        </is>
-      </c>
+      <c r="H37" s="181" t="n"/>
       <c r="I37" s="178" t="n"/>
     </row>
     <row r="38" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A38" s="181" t="inlineStr">
-        <is>
-          <t>Divulgar Procedimento (copy) (copy)</t>
-        </is>
-      </c>
+      <c r="A38" s="181" t="n"/>
       <c r="B38" s="159" t="n"/>
       <c r="C38" s="159" t="n"/>
       <c r="D38" s="178" t="n"/>
-      <c r="E38" s="11" t="inlineStr">
-        <is>
-          <t>Amanda Prado</t>
-        </is>
-      </c>
-      <c r="F38" s="181" t="inlineStr">
-        <is>
-          <t>31/01/2024</t>
-        </is>
-      </c>
+      <c r="E38" s="11" t="n"/>
+      <c r="F38" s="181" t="n"/>
       <c r="G38" s="178" t="n"/>
       <c r="H38" s="181" t="n"/>
       <c r="I38" s="178" t="n"/>
@@ -2998,14 +2952,20 @@
       <c r="B46" s="167" t="n"/>
       <c r="C46" s="167" t="n"/>
       <c r="D46" s="167" t="n"/>
-      <c r="E46" s="183" t="inlineStr"/>
+      <c r="E46" s="183" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
       <c r="F46" s="14" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="G46" s="43" t="n">
-        <v/>
+      <c r="G46" s="43" t="inlineStr">
+        <is>
+          <t>16/02/2024</t>
+        </is>
       </c>
       <c r="H46" s="159" t="n"/>
       <c r="I46" s="178" t="n"/>
@@ -3021,8 +2981,10 @@
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G47" s="45" t="n">
-        <v/>
+      <c r="G47" s="45" t="inlineStr">
+        <is>
+          <t>Amanda Prado</t>
+        </is>
       </c>
       <c r="H47" s="167" t="n"/>
       <c r="I47" s="168" t="n"/>
@@ -3063,7 +3025,7 @@
     <row r="49" ht="25.5" customHeight="1">
       <c r="A49" s="125" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="B49" s="187" t="n"/>
@@ -3113,8 +3075,10 @@
       <c r="AA50" s="4" t="n"/>
     </row>
     <row r="51" ht="42.75" customFormat="1" customHeight="1" s="6">
-      <c r="A51" s="188" t="n">
-        <v/>
+      <c r="A51" s="188" t="inlineStr">
+        <is>
+          <t>Procedimento de Execução de Novos Produtos (PQ EP-003-000) menciona o momento adequado para criação do Termo de Encerramento.</t>
+        </is>
       </c>
       <c r="I51" s="189" t="n"/>
     </row>

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -8,7 +8,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RNCAC GQ-001-000" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'RNCAC GQ-001-000'!$A$1:$I$52</definedName>
+  </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -972,66 +974,182 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,7 +1180,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1071,182 +1200,55 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1322,11 +1324,275 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1361,278 +1627,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1670,14 +1672,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1686,11 +1688,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1703,12 +1705,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1717,10 +1719,10 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2144,8 +2146,8 @@
   </sheetPr>
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:E47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2162,7 +2164,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="112" t="n"/>
+      <c r="A1" s="27" t="n"/>
       <c r="B1" s="130" t="inlineStr">
         <is>
           <t>Registro da Qualidade</t>
@@ -2239,7 +2241,7 @@
       </c>
     </row>
     <row r="5" ht="24" customHeight="1">
-      <c r="A5" s="46" t="inlineStr">
+      <c r="A5" s="98" t="inlineStr">
         <is>
           <t>“Se você está lendo este documento em mídia impressa, esta é uma cópia Não-Controlada”</t>
         </is>
@@ -2254,7 +2256,7 @@
       <c r="I5" s="144" t="n"/>
     </row>
     <row r="6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A6" s="104" t="inlineStr">
+      <c r="A6" s="42" t="inlineStr">
         <is>
           <t>Relatório de Não Conformidade</t>
         </is>
@@ -2269,7 +2271,7 @@
       <c r="I6" s="144" t="n"/>
     </row>
     <row r="7" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A7" s="106" t="inlineStr">
+      <c r="A7" s="44" t="inlineStr">
         <is>
           <t>1ª ETAPA - ABERTURA</t>
         </is>
@@ -2283,16 +2285,16 @@
           <t>Status</t>
         </is>
       </c>
-      <c r="G7" s="109" t="inlineStr">
-        <is>
-          <t>Feito</t>
+      <c r="G7" s="47" t="inlineStr">
+        <is>
+          <t>Em andamento</t>
         </is>
       </c>
       <c r="H7" s="146" t="n"/>
       <c r="I7" s="147" t="n"/>
       <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>
-      <c r="L7" s="37" t="n"/>
+      <c r="L7" s="39" t="n"/>
       <c r="M7" s="4" t="n"/>
       <c r="N7" s="4" t="n"/>
       <c r="O7" s="4" t="n"/>
@@ -2310,46 +2312,46 @@
       <c r="AA7" s="4" t="n"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="110" t="inlineStr">
+      <c r="A8" s="48" t="inlineStr">
         <is>
           <t>RNC Nº</t>
         </is>
       </c>
-      <c r="B8" s="102" t="n">
-        <v>5782689803</v>
-      </c>
-      <c r="C8" s="111" t="inlineStr">
+      <c r="B8" s="49" t="n">
+        <v>6466350488</v>
+      </c>
+      <c r="C8" s="50" t="inlineStr">
         <is>
           <t>Origem:</t>
         </is>
       </c>
-      <c r="D8" s="102" t="inlineStr">
-        <is>
-          <t>Engenharia de Produtos</t>
+      <c r="D8" s="49" t="inlineStr">
+        <is>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="E8" s="148" t="n"/>
-      <c r="F8" s="101" t="inlineStr">
+      <c r="F8" s="63" t="inlineStr">
         <is>
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G8" s="102" t="inlineStr">
-        <is>
-          <t>João Marcos</t>
-        </is>
-      </c>
-      <c r="H8" s="101" t="inlineStr">
+      <c r="G8" s="49" t="inlineStr">
+        <is>
+          <t>Severiano Neto, Estefane Santos</t>
+        </is>
+      </c>
+      <c r="H8" s="63" t="inlineStr">
         <is>
           <t>Data:</t>
         </is>
       </c>
-      <c r="I8" s="102" t="inlineStr">
-        <is>
-          <t>02/01/2024</t>
-        </is>
-      </c>
-      <c r="L8" s="37" t="n"/>
+      <c r="I8" s="49" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="L8" s="39" t="n"/>
     </row>
     <row r="9" ht="41.25" customHeight="1">
       <c r="A9" s="149" t="n"/>
@@ -2357,21 +2359,19 @@
       <c r="C9" s="149" t="n"/>
       <c r="D9" s="150" t="n"/>
       <c r="E9" s="151" t="n"/>
-      <c r="F9" s="101" t="inlineStr">
+      <c r="F9" s="63" t="inlineStr">
         <is>
           <t>Item Norma:</t>
         </is>
       </c>
-      <c r="G9" s="102" t="inlineStr">
-        <is>
-          <t>8.3.5</t>
-        </is>
+      <c r="G9" s="49" t="n">
+        <v/>
       </c>
       <c r="H9" s="143" t="n"/>
       <c r="I9" s="144" t="n"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="92" t="n"/>
+      <c r="A10" s="51" t="n"/>
       <c r="B10" s="143" t="n"/>
       <c r="C10" s="143" t="n"/>
       <c r="D10" s="143" t="n"/>
@@ -2382,7 +2382,7 @@
       <c r="I10" s="144" t="n"/>
     </row>
     <row r="11" ht="24.95" customFormat="1" customHeight="1" s="6">
-      <c r="A11" s="101" t="inlineStr">
+      <c r="A11" s="63" t="inlineStr">
         <is>
           <t>Descrição do Problema</t>
         </is>
@@ -2391,23 +2391,23 @@
       <c r="C11" s="143" t="n"/>
       <c r="D11" s="143" t="n"/>
       <c r="E11" s="144" t="n"/>
-      <c r="F11" s="101" t="inlineStr">
+      <c r="F11" s="63" t="inlineStr">
         <is>
           <t>Conj / Ativ:</t>
         </is>
       </c>
-      <c r="G11" s="102" t="inlineStr">
-        <is>
-          <t>Documentação</t>
+      <c r="G11" s="49" t="inlineStr">
+        <is>
+          <t>Olho de peixe</t>
         </is>
       </c>
       <c r="H11" s="143" t="n"/>
       <c r="I11" s="144" t="n"/>
     </row>
     <row r="12" ht="66.75" customFormat="1" customHeight="1" s="6">
-      <c r="A12" s="103" t="inlineStr">
-        <is>
-          <t>Não houve o encerramento projeto do FA5.</t>
+      <c r="A12" s="64" t="inlineStr">
+        <is>
+          <t>Nas inspeções de qualidade da produção no setor de Pintura no mês de março foram registrra 128 peças apresentando olho de peixe</t>
         </is>
       </c>
       <c r="B12" s="143" t="n"/>
@@ -2448,7 +2448,11 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="I14" s="20" t="inlineStr"/>
+      <c r="I14" s="20" t="inlineStr">
+        <is>
+          <t>30/03/2024</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="48" customHeight="1" thickBot="1">
       <c r="A15" s="156" t="n"/>
@@ -2461,16 +2465,16 @@
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G15" s="100" t="inlineStr">
-        <is>
-          <t>João Marcos</t>
+      <c r="G15" s="62" t="inlineStr">
+        <is>
+          <t>Abdias</t>
         </is>
       </c>
       <c r="H15" s="159" t="n"/>
       <c r="I15" s="160" t="n"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="73" t="inlineStr">
+      <c r="A16" s="65" t="inlineStr">
         <is>
           <t>Ação imediata</t>
         </is>
@@ -2485,9 +2489,9 @@
       <c r="I16" s="132" t="n"/>
     </row>
     <row r="17" ht="27.95" customFormat="1" customHeight="1" s="6">
-      <c r="A17" s="76" t="inlineStr">
-        <is>
-          <t>Criação do Termo de Encerramento de Projeto</t>
+      <c r="A17" s="68" t="inlineStr">
+        <is>
+          <t>Realizar lixamento das peças e reaplicar tinta.</t>
         </is>
       </c>
       <c r="B17" s="146" t="n"/>
@@ -2537,7 +2541,7 @@
       <c r="AA20" s="4" t="n"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="85" t="n"/>
+      <c r="A21" s="77" t="n"/>
       <c r="B21" s="164" t="n"/>
       <c r="C21" s="164" t="n"/>
       <c r="D21" s="164" t="n"/>
@@ -2562,9 +2566,9 @@
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G22" s="43" t="inlineStr">
-        <is>
-          <t>João Marcos</t>
+      <c r="G22" s="125" t="inlineStr">
+        <is>
+          <t>Abdias</t>
         </is>
       </c>
       <c r="H22" s="169" t="inlineStr">
@@ -2572,9 +2576,9 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="I22" s="43" t="inlineStr">
-        <is>
-          <t>10/01/2024</t>
+      <c r="I22" s="125" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2601,7 @@
       </c>
       <c r="B24" s="171" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Observado o acumulo de poeira nas cabines de secagem da cabine Erzinger.</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
@@ -2614,7 +2618,7 @@
           <t>Mão-de-Obra</t>
         </is>
       </c>
-      <c r="B25" s="56" t="inlineStr">
+      <c r="B25" s="96" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2633,7 +2637,7 @@
           <t>Matéria Prima</t>
         </is>
       </c>
-      <c r="B26" s="56" t="inlineStr">
+      <c r="B26" s="96" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2652,7 +2656,7 @@
           <t>Medição</t>
         </is>
       </c>
-      <c r="B27" s="56" t="inlineStr">
+      <c r="B27" s="96" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2671,9 +2675,9 @@
           <t>Método</t>
         </is>
       </c>
-      <c r="B28" s="56" t="inlineStr">
-        <is>
-          <t>Não havia clareza quanto à necessidade de confecção de gabaritos para a conclusão do projeto</t>
+      <c r="B28" s="96" t="inlineStr">
+        <is>
+          <t>Periodicidade da limpeza do tanque separador de oléo muito extenso para a sujeira encontrada nas peças.</t>
         </is>
       </c>
       <c r="C28" s="172" t="n"/>
@@ -2690,7 +2694,7 @@
           <t>Meio Ambiente</t>
         </is>
       </c>
-      <c r="B29" s="56" t="inlineStr">
+      <c r="B29" s="96" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2704,15 +2708,15 @@
       <c r="I29" s="173" t="n"/>
     </row>
     <row r="30" ht="45" customHeight="1">
-      <c r="A30" s="59" t="inlineStr">
+      <c r="A30" s="108" t="inlineStr">
         <is>
           <t>Presentes:</t>
         </is>
       </c>
       <c r="B30" s="174" t="n"/>
-      <c r="C30" s="61" t="inlineStr">
-        <is>
-          <t>Amanda, João Marcos</t>
+      <c r="C30" s="110" t="inlineStr">
+        <is>
+          <t>Severiano e Estefane</t>
         </is>
       </c>
       <c r="D30" s="175" t="n"/>
@@ -2723,7 +2727,7 @@
       <c r="I30" s="174" t="n"/>
     </row>
     <row r="31" ht="6" customHeight="1" thickBot="1">
-      <c r="A31" s="64" t="n"/>
+      <c r="A31" s="88" t="n"/>
       <c r="B31" s="176" t="n"/>
       <c r="C31" s="176" t="n"/>
       <c r="D31" s="176" t="n"/>
@@ -2807,7 +2811,7 @@
     <row r="35" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
       <c r="A35" s="181" t="inlineStr">
         <is>
-          <t>Criação/Atualização do PQ EP-002-000 contemplando a informação de quando deve ser emitido o termo de encerramento de projeto</t>
+          <t>Realizar cotação para a compra de um aspirador de pó industrial para a limpeza das cabines de secagem e cura da Erzinger.</t>
         </is>
       </c>
       <c r="B35" s="159" t="n"/>
@@ -2815,55 +2819,85 @@
       <c r="D35" s="178" t="n"/>
       <c r="E35" s="11" t="inlineStr">
         <is>
-          <t>João Marcos</t>
+          <t>Severiano Neto, Evandro Passos - Cemag</t>
         </is>
       </c>
       <c r="F35" s="181" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>19/04/2024</t>
         </is>
       </c>
       <c r="G35" s="178" t="n"/>
-      <c r="H35" s="181" t="inlineStr">
-        <is>
-          <t>31/01/2024</t>
-        </is>
-      </c>
+      <c r="H35" s="181" t="inlineStr"/>
       <c r="I35" s="178" t="n"/>
     </row>
     <row r="36" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A36" s="181" t="n">
-        <v/>
+      <c r="A36" s="181" t="inlineStr">
+        <is>
+          <t>Planejar limpeza das cabines de secagem e cura da Erzinger.</t>
+        </is>
       </c>
       <c r="B36" s="159" t="n"/>
       <c r="C36" s="159" t="n"/>
       <c r="D36" s="178" t="n"/>
-      <c r="E36" s="11" t="n"/>
-      <c r="F36" s="181" t="n"/>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>Severiano Neto, Estefane Santos</t>
+        </is>
+      </c>
+      <c r="F36" s="181" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
       <c r="G36" s="178" t="n"/>
-      <c r="H36" s="181" t="n"/>
+      <c r="H36" s="181" t="inlineStr"/>
       <c r="I36" s="178" t="n"/>
     </row>
     <row r="37" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A37" s="181" t="n"/>
+      <c r="A37" s="181" t="inlineStr">
+        <is>
+          <t>Executar limpeza das cabines de secagem e cura da Erzinger.</t>
+        </is>
+      </c>
       <c r="B37" s="159" t="n"/>
       <c r="C37" s="159" t="n"/>
       <c r="D37" s="178" t="n"/>
-      <c r="E37" s="11" t="n"/>
-      <c r="F37" s="181" t="n"/>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>pintura@cemag.com.br, Abdias</t>
+        </is>
+      </c>
+      <c r="F37" s="181" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
       <c r="G37" s="178" t="n"/>
-      <c r="H37" s="181" t="n"/>
+      <c r="H37" s="181" t="inlineStr"/>
       <c r="I37" s="178" t="n"/>
     </row>
     <row r="38" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A38" s="181" t="n"/>
+      <c r="A38" s="181" t="inlineStr">
+        <is>
+          <t>Acompanhar inspeções da qualidade na pintura para verificar reincidencia de defeitos de pintura com essas caracteristicas.</t>
+        </is>
+      </c>
       <c r="B38" s="159" t="n"/>
       <c r="C38" s="159" t="n"/>
       <c r="D38" s="178" t="n"/>
-      <c r="E38" s="11" t="n"/>
-      <c r="F38" s="181" t="n"/>
+      <c r="E38" s="11" t="inlineStr">
+        <is>
+          <t>Estefane Santos, Severiano Neto</t>
+        </is>
+      </c>
+      <c r="F38" s="181" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
       <c r="G38" s="178" t="n"/>
-      <c r="H38" s="181" t="n"/>
+      <c r="H38" s="181" t="inlineStr"/>
       <c r="I38" s="178" t="n"/>
     </row>
     <row r="39" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
@@ -2933,7 +2967,7 @@
       <c r="I44" s="178" t="n"/>
     </row>
     <row r="45" ht="6" customHeight="1" thickBot="1">
-      <c r="A45" s="34" t="n"/>
+      <c r="A45" s="122" t="n"/>
       <c r="B45" s="175" t="n"/>
       <c r="C45" s="175" t="n"/>
       <c r="D45" s="175" t="n"/>
@@ -2952,21 +2986,13 @@
       <c r="B46" s="167" t="n"/>
       <c r="C46" s="167" t="n"/>
       <c r="D46" s="167" t="n"/>
-      <c r="E46" s="183" t="inlineStr">
-        <is>
-          <t>★★★★★</t>
-        </is>
-      </c>
+      <c r="E46" s="183" t="inlineStr"/>
       <c r="F46" s="14" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="G46" s="43" t="inlineStr">
-        <is>
-          <t>16/02/2024</t>
-        </is>
-      </c>
+      <c r="G46" s="125" t="inlineStr"/>
       <c r="H46" s="159" t="n"/>
       <c r="I46" s="178" t="n"/>
     </row>
@@ -2981,16 +3007,14 @@
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G47" s="45" t="inlineStr">
-        <is>
-          <t>Amanda Prado</t>
-        </is>
+      <c r="G47" s="86" t="n">
+        <v/>
       </c>
       <c r="H47" s="167" t="n"/>
       <c r="I47" s="168" t="n"/>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="A48" s="25" t="inlineStr">
+      <c r="A48" s="113" t="inlineStr">
         <is>
           <t>As ações corretivas foram eficazes? (Caso não, abrir nova RNC)</t>
         </is>
@@ -3023,9 +3047,9 @@
       <c r="AA48" s="4" t="n"/>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="A49" s="125" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="A49" s="24" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="B49" s="187" t="n"/>
@@ -3042,7 +3066,7 @@
       <c r="I49" s="21" t="n"/>
     </row>
     <row r="50" ht="36.75" customHeight="1">
-      <c r="A50" s="27" t="inlineStr">
+      <c r="A50" s="115" t="inlineStr">
         <is>
           <t>CONCLUSÃO</t>
         </is>
@@ -3075,10 +3099,8 @@
       <c r="AA50" s="4" t="n"/>
     </row>
     <row r="51" ht="42.75" customFormat="1" customHeight="1" s="6">
-      <c r="A51" s="188" t="inlineStr">
-        <is>
-          <t>Procedimento de Execução de Novos Produtos (PQ EP-003-000) menciona o momento adequado para criação do Termo de Encerramento.</t>
-        </is>
+      <c r="A51" s="188" t="n">
+        <v/>
       </c>
       <c r="I51" s="189" t="n"/>
     </row>
@@ -3095,6 +3117,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I52"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H38:I38"/>
@@ -3111,76 +3201,10 @@
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A51:I52"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A43:D43"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="41" verticalDpi="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -2287,7 +2287,7 @@
       </c>
       <c r="G7" s="47" t="inlineStr">
         <is>
-          <t>Em andamento</t>
+          <t>Parada</t>
         </is>
       </c>
       <c r="H7" s="146" t="n"/>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="B8" s="49" t="n">
-        <v>6466350488</v>
+        <v>6644993636</v>
       </c>
       <c r="C8" s="50" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D8" s="49" t="inlineStr">
         <is>
-          <t>Pintura</t>
+          <t>Engenharia de Produtos</t>
         </is>
       </c>
       <c r="E8" s="148" t="n"/>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="G8" s="49" t="inlineStr">
         <is>
-          <t>Severiano Neto, Estefane Santos</t>
+          <t>João Marcos</t>
         </is>
       </c>
       <c r="H8" s="63" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="I8" s="49" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>04/06/2024</t>
         </is>
       </c>
       <c r="L8" s="39" t="n"/>
@@ -2364,8 +2364,10 @@
           <t>Item Norma:</t>
         </is>
       </c>
-      <c r="G9" s="49" t="n">
-        <v/>
+      <c r="G9" s="49" t="inlineStr">
+        <is>
+          <t>8.3.5</t>
+        </is>
       </c>
       <c r="H9" s="143" t="n"/>
       <c r="I9" s="144" t="n"/>
@@ -2398,7 +2400,7 @@
       </c>
       <c r="G11" s="49" t="inlineStr">
         <is>
-          <t>Olho de peixe</t>
+          <t>Caçamba</t>
         </is>
       </c>
       <c r="H11" s="143" t="n"/>
@@ -2407,7 +2409,7 @@
     <row r="12" ht="66.75" customFormat="1" customHeight="1" s="6">
       <c r="A12" s="64" t="inlineStr">
         <is>
-          <t>Nas inspeções de qualidade da produção no setor de Pintura no mês de março foram registrra 128 peças apresentando olho de peixe</t>
+          <t>Na Agrishow foi detectado que existe um problema no projeto das CBH forrageiras que causa uma interferência entre a dobradiça da tampa traseira e o parafuso do espaçador, dificultando a colocação da corrente de trava</t>
         </is>
       </c>
       <c r="B12" s="143" t="n"/>
@@ -2440,7 +2442,7 @@
       </c>
       <c r="G14" s="20" t="inlineStr">
         <is>
-          <t>Feito</t>
+          <t>Parado</t>
         </is>
       </c>
       <c r="H14" s="17" t="inlineStr">
@@ -2448,11 +2450,7 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="I14" s="20" t="inlineStr">
-        <is>
-          <t>30/03/2024</t>
-        </is>
-      </c>
+      <c r="I14" s="20" t="inlineStr"/>
     </row>
     <row r="15" ht="48" customHeight="1" thickBot="1">
       <c r="A15" s="156" t="n"/>
@@ -2467,7 +2465,7 @@
       </c>
       <c r="G15" s="62" t="inlineStr">
         <is>
-          <t>Abdias</t>
+          <t>João Marcos</t>
         </is>
       </c>
       <c r="H15" s="159" t="n"/>
@@ -2491,7 +2489,7 @@
     <row r="17" ht="27.95" customFormat="1" customHeight="1" s="6">
       <c r="A17" s="68" t="inlineStr">
         <is>
-          <t>Realizar lixamento das peças e reaplicar tinta.</t>
+          <t>AE nos projetos das CBHs</t>
         </is>
       </c>
       <c r="B17" s="146" t="n"/>
@@ -2568,7 +2566,7 @@
       </c>
       <c r="G22" s="125" t="inlineStr">
         <is>
-          <t>Abdias</t>
+          <t>João Marcos</t>
         </is>
       </c>
       <c r="H22" s="169" t="inlineStr">
@@ -2578,7 +2576,7 @@
       </c>
       <c r="I22" s="125" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>04/06/2024</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2599,7 @@
       </c>
       <c r="B24" s="171" t="inlineStr">
         <is>
-          <t>Observado o acumulo de poeira nas cabines de secagem da cabine Erzinger.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
@@ -2620,7 +2618,7 @@
       </c>
       <c r="B25" s="96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Erro na execução do projeto</t>
         </is>
       </c>
       <c r="C25" s="172" t="n"/>
@@ -2677,7 +2675,7 @@
       </c>
       <c r="B28" s="96" t="inlineStr">
         <is>
-          <t>Periodicidade da limpeza do tanque separador de oléo muito extenso para a sujeira encontrada nas peças.</t>
+          <t>Não é realizada montagem junto à equipe de projetos</t>
         </is>
       </c>
       <c r="C28" s="172" t="n"/>
@@ -2716,7 +2714,7 @@
       <c r="B30" s="174" t="n"/>
       <c r="C30" s="110" t="inlineStr">
         <is>
-          <t>Severiano e Estefane</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="D30" s="175" t="n"/>
@@ -2811,7 +2809,7 @@
     <row r="35" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
       <c r="A35" s="181" t="inlineStr">
         <is>
-          <t>Realizar cotação para a compra de um aspirador de pó industrial para a limpeza das cabines de secagem e cura da Erzinger.</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="B35" s="159" t="n"/>
@@ -2819,85 +2817,53 @@
       <c r="D35" s="178" t="n"/>
       <c r="E35" s="11" t="inlineStr">
         <is>
-          <t>Severiano Neto, Evandro Passos - Cemag</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" s="181" t="inlineStr">
         <is>
-          <t>19/04/2024</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="G35" s="178" t="n"/>
-      <c r="H35" s="181" t="inlineStr"/>
+      <c r="H35" s="181" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="I35" s="178" t="n"/>
     </row>
     <row r="36" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A36" s="181" t="inlineStr">
-        <is>
-          <t>Planejar limpeza das cabines de secagem e cura da Erzinger.</t>
-        </is>
-      </c>
+      <c r="A36" s="181" t="n"/>
       <c r="B36" s="159" t="n"/>
       <c r="C36" s="159" t="n"/>
       <c r="D36" s="178" t="n"/>
-      <c r="E36" s="11" t="inlineStr">
-        <is>
-          <t>Severiano Neto, Estefane Santos</t>
-        </is>
-      </c>
-      <c r="F36" s="181" t="inlineStr">
-        <is>
-          <t>10/05/2024</t>
-        </is>
-      </c>
+      <c r="E36" s="11" t="n"/>
+      <c r="F36" s="181" t="n"/>
       <c r="G36" s="178" t="n"/>
-      <c r="H36" s="181" t="inlineStr"/>
+      <c r="H36" s="181" t="n"/>
       <c r="I36" s="178" t="n"/>
     </row>
     <row r="37" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A37" s="181" t="inlineStr">
-        <is>
-          <t>Executar limpeza das cabines de secagem e cura da Erzinger.</t>
-        </is>
-      </c>
+      <c r="A37" s="181" t="n"/>
       <c r="B37" s="159" t="n"/>
       <c r="C37" s="159" t="n"/>
       <c r="D37" s="178" t="n"/>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <t>pintura@cemag.com.br, Abdias</t>
-        </is>
-      </c>
-      <c r="F37" s="181" t="inlineStr">
-        <is>
-          <t>10/05/2024</t>
-        </is>
-      </c>
+      <c r="E37" s="11" t="n"/>
+      <c r="F37" s="181" t="n"/>
       <c r="G37" s="178" t="n"/>
-      <c r="H37" s="181" t="inlineStr"/>
+      <c r="H37" s="181" t="n"/>
       <c r="I37" s="178" t="n"/>
     </row>
     <row r="38" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A38" s="181" t="inlineStr">
-        <is>
-          <t>Acompanhar inspeções da qualidade na pintura para verificar reincidencia de defeitos de pintura com essas caracteristicas.</t>
-        </is>
-      </c>
+      <c r="A38" s="181" t="n"/>
       <c r="B38" s="159" t="n"/>
       <c r="C38" s="159" t="n"/>
       <c r="D38" s="178" t="n"/>
-      <c r="E38" s="11" t="inlineStr">
-        <is>
-          <t>Estefane Santos, Severiano Neto</t>
-        </is>
-      </c>
-      <c r="F38" s="181" t="inlineStr">
-        <is>
-          <t>31/05/2024</t>
-        </is>
-      </c>
+      <c r="E38" s="11" t="n"/>
+      <c r="F38" s="181" t="n"/>
       <c r="G38" s="178" t="n"/>
-      <c r="H38" s="181" t="inlineStr"/>
+      <c r="H38" s="181" t="n"/>
       <c r="I38" s="178" t="n"/>
     </row>
     <row r="39" ht="60" customFormat="1" customHeight="1" s="6" thickBot="1">

--- a/arquivo_formatado.xlsx
+++ b/arquivo_formatado.xlsx
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G7" s="32" t="inlineStr">
         <is>
-          <t>Em andamento</t>
+          <t>Concluída</t>
         </is>
       </c>
       <c r="H7" s="149" t="n"/>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B8" s="36" t="n">
-        <v>7298460811</v>
+        <v>5782586174</v>
       </c>
       <c r="C8" s="37" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D8" s="36" t="inlineStr">
         <is>
-          <t>Manutenção</t>
+          <t>Controle da Qualidade</t>
         </is>
       </c>
       <c r="E8" s="135" t="n"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="G8" s="38" t="inlineStr">
         <is>
-          <t>victor@cemag.com.br</t>
+          <t>Severiano Neto</t>
         </is>
       </c>
       <c r="H8" s="39" t="inlineStr">
@@ -2330,7 +2330,11 @@
           <t>Data:</t>
         </is>
       </c>
-      <c r="I8" s="40" t="inlineStr"/>
+      <c r="I8" s="40" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
       <c r="J8" s="132" t="n"/>
       <c r="K8" s="132" t="n"/>
       <c r="L8" s="17" t="n"/>
@@ -2363,7 +2367,7 @@
       </c>
       <c r="G9" s="38" t="inlineStr">
         <is>
-          <t>9.1.3</t>
+          <t>7.1.5.1</t>
         </is>
       </c>
       <c r="H9" s="146" t="n"/>
@@ -2433,7 +2437,7 @@
       </c>
       <c r="G11" s="38" t="inlineStr">
         <is>
-          <t>Desempenho de fornecedores</t>
+          <t>Calibração</t>
         </is>
       </c>
       <c r="H11" s="146" t="n"/>
@@ -2460,7 +2464,7 @@
     <row r="12" ht="20.25" customFormat="1" customHeight="1" s="21">
       <c r="A12" s="44" t="inlineStr">
         <is>
-          <t>NC 10: Não tem registro de avaliação do fornecedor do mês de junho de 2024 da Labmetro. Não houve avaliação do fornecedor Falanga em julho de 2024. Não está havendo avaliação do fornecedor Alugamac;</t>
+          <t>Plano Mestre de Calibração</t>
         </is>
       </c>
       <c r="B12" s="146" t="n"/>
@@ -2536,7 +2540,7 @@
       </c>
       <c r="G14" s="52" t="inlineStr">
         <is>
-          <t>Parado</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="H14" s="51" t="inlineStr">
@@ -2544,7 +2548,11 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="I14" s="53" t="inlineStr"/>
+      <c r="I14" s="53" t="inlineStr">
+        <is>
+          <t>09/01/2024</t>
+        </is>
+      </c>
       <c r="J14" s="25" t="n"/>
       <c r="K14" s="25" t="n"/>
       <c r="L14" s="25" t="n"/>
@@ -2577,7 +2585,7 @@
       </c>
       <c r="G15" s="58" t="inlineStr">
         <is>
-          <t>victor@cemag.com.br, Severiano Neto</t>
+          <t>Estefane Santos</t>
         </is>
       </c>
       <c r="H15" s="159" t="n"/>
@@ -2637,7 +2645,7 @@
     <row r="17" ht="27.95" customFormat="1" customHeight="1" s="21">
       <c r="A17" s="62" t="inlineStr">
         <is>
-          <t>Parado</t>
+          <t>Atualizar Plano Mestre de calibração.</t>
         </is>
       </c>
       <c r="B17" s="154" t="n"/>
@@ -2786,7 +2794,7 @@
       </c>
       <c r="G22" s="73" t="inlineStr">
         <is>
-          <t>victor@cemag.com.br, Severiano Neto</t>
+          <t>Estefane Santos</t>
         </is>
       </c>
       <c r="H22" s="72" t="inlineStr">
@@ -2794,7 +2802,11 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="I22" s="74" t="inlineStr"/>
+      <c r="I22" s="74" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
       <c r="J22" s="25" t="n"/>
       <c r="K22" s="25" t="n"/>
       <c r="L22" s="25" t="n"/>
@@ -2888,7 +2900,7 @@
       </c>
       <c r="B25" s="83" t="inlineStr">
         <is>
-          <t>O responsável não tinha ciência de que deveria realizar a avaliação a cada entrega</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C25" s="161" t="n"/>
@@ -2962,7 +2974,7 @@
       </c>
       <c r="B27" s="83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Falta a avaliação dos certificados de calibração.</t>
         </is>
       </c>
       <c r="C27" s="161" t="n"/>
@@ -2999,7 +3011,7 @@
       </c>
       <c r="B28" s="83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Procedimento de calibração não condizente com o realizado.</t>
         </is>
       </c>
       <c r="C28" s="161" t="n"/>
@@ -3074,7 +3086,7 @@
       <c r="B30" s="170" t="n"/>
       <c r="C30" s="87" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Estefane</t>
         </is>
       </c>
       <c r="D30" s="146" t="n"/>
@@ -3241,7 +3253,7 @@
     <row r="35" ht="60" customFormat="1" customHeight="1" s="21">
       <c r="A35" s="103" t="inlineStr">
         <is>
-          <t>Realizar conscientização com os responsáveis pelos setores de manutenção, controle da qualidade e TI</t>
+          <t>Atualizar procedimento de calibração (incluir os erros admitidos de calibração dos equipamentos).</t>
         </is>
       </c>
       <c r="B35" s="159" t="n"/>
@@ -3249,16 +3261,20 @@
       <c r="D35" s="160" t="n"/>
       <c r="E35" s="106" t="inlineStr">
         <is>
-          <t>Laura Lavor</t>
+          <t>Estefane Santos</t>
         </is>
       </c>
       <c r="F35" s="103" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="G35" s="160" t="n"/>
-      <c r="H35" s="103" t="inlineStr"/>
+      <c r="H35" s="103" t="inlineStr">
+        <is>
+          <t>02/02/2024</t>
+        </is>
+      </c>
       <c r="I35" s="160" t="n"/>
       <c r="J35" s="25" t="n"/>
       <c r="K35" s="25" t="n"/>
@@ -3282,7 +3298,7 @@
     <row r="36" ht="60" customFormat="1" customHeight="1" s="21">
       <c r="A36" s="103" t="inlineStr">
         <is>
-          <t>Criar registros de desempenho mensal para os três setores</t>
+          <t>Qualificar e avaliar os fornecedores de calibração.</t>
         </is>
       </c>
       <c r="B36" s="159" t="n"/>
@@ -3290,16 +3306,20 @@
       <c r="D36" s="160" t="n"/>
       <c r="E36" s="106" t="inlineStr">
         <is>
-          <t>Laura Lavor</t>
+          <t>Estefane Santos</t>
         </is>
       </c>
       <c r="F36" s="103" t="inlineStr">
         <is>
-          <t>26/10/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="G36" s="160" t="n"/>
-      <c r="H36" s="103" t="inlineStr"/>
+      <c r="H36" s="103" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
       <c r="I36" s="160" t="n"/>
       <c r="J36" s="25" t="n"/>
       <c r="K36" s="25" t="n"/>
@@ -3323,7 +3343,7 @@
     <row r="37" ht="60" customFormat="1" customHeight="1" s="21">
       <c r="A37" s="103" t="inlineStr">
         <is>
-          <t>Realizar a avaliação</t>
+          <t>Fazer validação dos certificados de calibração.</t>
         </is>
       </c>
       <c r="B37" s="159" t="n"/>
@@ -3331,16 +3351,20 @@
       <c r="D37" s="160" t="n"/>
       <c r="E37" s="106" t="inlineStr">
         <is>
-          <t>Severiano Neto, beatriz@cemag.com.br, glaidston@cemag.com.br</t>
+          <t>Severiano Neto, Estefane Santos</t>
         </is>
       </c>
       <c r="F37" s="103" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="G37" s="160" t="n"/>
-      <c r="H37" s="103" t="inlineStr"/>
+      <c r="H37" s="103" t="inlineStr">
+        <is>
+          <t>02/03/2024</t>
+        </is>
+      </c>
       <c r="I37" s="160" t="n"/>
       <c r="J37" s="25" t="n"/>
       <c r="K37" s="25" t="n"/>
@@ -3364,16 +3388,28 @@
     <row r="38" ht="60" customFormat="1" customHeight="1" s="21">
       <c r="A38" s="103" t="inlineStr">
         <is>
-          <t>Incluir medias de cada setor no calculo do indicador de avaliação de fornecedores.</t>
+          <t>Configuração do Plano Mestre de Verificação</t>
         </is>
       </c>
       <c r="B38" s="159" t="n"/>
       <c r="C38" s="159" t="n"/>
       <c r="D38" s="160" t="n"/>
-      <c r="E38" s="106" t="inlineStr"/>
-      <c r="F38" s="103" t="inlineStr"/>
+      <c r="E38" s="106" t="inlineStr">
+        <is>
+          <t>Estefane Santos</t>
+        </is>
+      </c>
+      <c r="F38" s="103" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
       <c r="G38" s="160" t="n"/>
-      <c r="H38" s="103" t="inlineStr"/>
+      <c r="H38" s="103" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
       <c r="I38" s="160" t="n"/>
       <c r="J38" s="25" t="n"/>
       <c r="K38" s="25" t="n"/>
@@ -3395,18 +3431,14 @@
       <c r="AA38" s="25" t="n"/>
     </row>
     <row r="39" ht="60" customFormat="1" customHeight="1" s="21">
-      <c r="A39" s="103" t="inlineStr">
-        <is>
-          <t>Incluir a Engenharia de Produtos como uma area que realizar a avaliação de desempenho de fornecedores.</t>
-        </is>
-      </c>
+      <c r="A39" s="103" t="n"/>
       <c r="B39" s="159" t="n"/>
       <c r="C39" s="159" t="n"/>
       <c r="D39" s="160" t="n"/>
-      <c r="E39" s="106" t="inlineStr"/>
-      <c r="F39" s="103" t="inlineStr"/>
+      <c r="E39" s="106" t="n"/>
+      <c r="F39" s="103" t="n"/>
       <c r="G39" s="160" t="n"/>
-      <c r="H39" s="103" t="inlineStr"/>
+      <c r="H39" s="103" t="n"/>
       <c r="I39" s="160" t="n"/>
       <c r="J39" s="25" t="n"/>
       <c r="K39" s="25" t="n"/>
@@ -3428,18 +3460,14 @@
       <c r="AA39" s="25" t="n"/>
     </row>
     <row r="40" ht="49.5" customFormat="1" customHeight="1" s="21">
-      <c r="A40" s="103" t="inlineStr">
-        <is>
-          <t>Realizar alteração de procedimento DQ CO 001-002</t>
-        </is>
-      </c>
+      <c r="A40" s="103" t="n"/>
       <c r="B40" s="159" t="n"/>
       <c r="C40" s="159" t="n"/>
       <c r="D40" s="160" t="n"/>
-      <c r="E40" s="106" t="inlineStr"/>
-      <c r="F40" s="103" t="inlineStr"/>
+      <c r="E40" s="106" t="n"/>
+      <c r="F40" s="103" t="n"/>
       <c r="G40" s="160" t="n"/>
-      <c r="H40" s="103" t="inlineStr"/>
+      <c r="H40" s="103" t="n"/>
       <c r="I40" s="160" t="n"/>
       <c r="J40" s="25" t="n"/>
       <c r="K40" s="25" t="n"/>
@@ -3730,13 +3758,21 @@
       <c r="B50" s="154" t="n"/>
       <c r="C50" s="154" t="n"/>
       <c r="D50" s="155" t="n"/>
-      <c r="E50" s="111" t="inlineStr"/>
+      <c r="E50" s="111" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
       <c r="F50" s="51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="G50" s="58" t="inlineStr"/>
+      <c r="G50" s="58" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
       <c r="H50" s="159" t="n"/>
       <c r="I50" s="160" t="n"/>
       <c r="J50" s="25" t="n"/>
@@ -3769,8 +3805,10 @@
           <t>Resp.:</t>
         </is>
       </c>
-      <c r="G51" s="32" t="n">
-        <v/>
+      <c r="G51" s="32" t="inlineStr">
+        <is>
+          <t>SGQ - CEMAG</t>
+        </is>
       </c>
       <c r="H51" s="149" t="n"/>
       <c r="I51" s="150" t="n"/>
@@ -3829,7 +3867,7 @@
     <row r="53" ht="25.5" customHeight="1">
       <c r="A53" s="118" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="B53" s="161" t="n"/>
@@ -3897,8 +3935,10 @@
       <c r="AA54" s="34" t="n"/>
     </row>
     <row r="55" ht="42.75" customFormat="1" customHeight="1" s="21">
-      <c r="A55" s="124" t="n">
-        <v/>
+      <c r="A55" s="124" t="inlineStr">
+        <is>
+          <t>Associado ao risco de desatualização do Plano de Calibração.  Plano devidamente atualizado.</t>
+        </is>
       </c>
       <c r="B55" s="172" t="n"/>
       <c r="C55" s="172" t="n"/>
